--- a/results/results_05.09.2023.xlsx
+++ b/results/results_05.09.2023.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Util\doctorat\PhdProject\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA75769-6C1E-441B-999C-4BD4EC2D90C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7618B45-B956-4D5E-B853-7A4BEC71BF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3816" yWindow="-17388" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="14" r:id="rId1"/>
+    <sheet name="05.09" sheetId="14" r:id="rId1"/>
+    <sheet name="15.09" sheetId="15" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'15.09'!#REF!</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="78">
   <si>
     <t>Ant</t>
   </si>
@@ -74,6 +78,9 @@
     <t>MST</t>
   </si>
   <si>
+    <t>sd_catalina.csv</t>
+  </si>
+  <si>
     <t>sd_ant.csv</t>
   </si>
   <si>
@@ -138,13 +145,145 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>catalina_git_strength_10_ld.csv</t>
+  </si>
+  <si>
+    <t>catalina_git_strength_20_ld.csv</t>
+  </si>
+  <si>
+    <t>catalina_git_strength_30_ld.csv</t>
+  </si>
+  <si>
+    <t>catalina_git_strength_40_ld.csv</t>
+  </si>
+  <si>
+    <t>catalina_git_strength_50_ld.csv</t>
+  </si>
+  <si>
+    <t>catalina_git_strength_60_ld.csv</t>
+  </si>
+  <si>
+    <t>catalina_git_strength_70_ld.csv</t>
+  </si>
+  <si>
+    <t>catalina_git_strength_80_ld.csv</t>
+  </si>
+  <si>
+    <t>catalina_git_strength_90_ld.csv</t>
+  </si>
+  <si>
+    <t>catalina_git_strength_100_ld.csv</t>
+  </si>
+  <si>
+    <t>catalina_git_strength_10_sd_ld.csv</t>
+  </si>
+  <si>
+    <t>catalina_git_strength_20_sd_ld.csv</t>
+  </si>
+  <si>
+    <t>catalina_git_strength_30_sd_ld.csv</t>
+  </si>
+  <si>
+    <t>catalina_git_strength_40_sd_ld.csv</t>
+  </si>
+  <si>
+    <t>catalina_git_strength_50_sd_ld.csv</t>
+  </si>
+  <si>
+    <t>catalina_git_strength_60_sd_ld.csv</t>
+  </si>
+  <si>
+    <t>catalina_git_strength_70_sd_ld.csv</t>
+  </si>
+  <si>
+    <t>catalina_git_strength_80_sd_ld.csv</t>
+  </si>
+  <si>
+    <t>catalina_git_strength_90_sd_ld.csv</t>
+  </si>
+  <si>
+    <t>catalina_git_strength_100_sd_ld.csv</t>
+  </si>
+  <si>
+    <t>Catalina</t>
+  </si>
+  <si>
+    <t>NA- one single cluster</t>
+  </si>
+  <si>
+    <t>sd_hibernate.csv</t>
+  </si>
+  <si>
+    <t>hibernate_git_strength_60_ld.csv</t>
+  </si>
+  <si>
+    <t>hibernate_git_strength_70_ld.csv</t>
+  </si>
+  <si>
+    <t>hibernate_git_strength_80_ld.csv</t>
+  </si>
+  <si>
+    <t>hibernate_git_strength_90_ld.csv</t>
+  </si>
+  <si>
+    <t>hibernate_git_strength_100_ld.csv</t>
+  </si>
+  <si>
+    <t>hibernate_git_strength_10_ld.csv</t>
+  </si>
+  <si>
+    <t>hibernate_git_strength_20_ld.csv</t>
+  </si>
+  <si>
+    <t>hibernate_git_strength_30_ld.csv</t>
+  </si>
+  <si>
+    <t>hibernate_git_strength_40_ld.csv</t>
+  </si>
+  <si>
+    <t>hibernate_git_strength_50_ld.csv</t>
+  </si>
+  <si>
+    <t>hibernate_git_strength_10_sd_ld.csv</t>
+  </si>
+  <si>
+    <t>hibernate_git_strength_20_sd_ld.csv</t>
+  </si>
+  <si>
+    <t>hibernate_git_strength_30_sd_ld.csv</t>
+  </si>
+  <si>
+    <t>hibernate_git_strength_40_sd_ld.csv</t>
+  </si>
+  <si>
+    <t>hibernate_git_strength_50_sd_ld.csv</t>
+  </si>
+  <si>
+    <t>hibernate_git_strength_60_sd_ld.csv</t>
+  </si>
+  <si>
+    <t>hibernate_git_strength_70_sd_ld.csv</t>
+  </si>
+  <si>
+    <t>hibernate_git_strength_80_sd_ld.csv</t>
+  </si>
+  <si>
+    <t>hibernate_git_strength_90_sd_ld.csv</t>
+  </si>
+  <si>
+    <t>hibernate_git_strength_100_sd_ld.csv</t>
+  </si>
+  <si>
+    <t>Ref</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +295,13 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -181,11 +327,20 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -199,6 +354,15 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -208,8 +372,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -225,12 +410,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,10 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AAAC9A7-310A-41EB-81EC-A547CFD32649}">
-  <dimension ref="A3:J26"/>
+  <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="B21" sqref="A3:J68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,128 +716,136 @@
     <col min="10" max="10" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C3" s="1" t="s">
+    <row r="1" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
+      <c r="H3" s="10"/>
+      <c r="I3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" ht="182.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="2" t="s">
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="12"/>
+      <c r="G4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="4" t="s">
+      <c r="H4" s="12"/>
+      <c r="I4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C5" s="6" t="s">
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>0.20599999999999999</v>
-      </c>
-      <c r="D6">
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.224</v>
+      </c>
+      <c r="D6" s="5">
         <v>2.7E-2</v>
       </c>
-      <c r="E6">
-        <v>0.438</v>
-      </c>
-      <c r="F6">
+      <c r="E6" s="5">
+        <v>0.433</v>
+      </c>
+      <c r="F6" s="5">
         <v>0</v>
       </c>
-      <c r="G6">
-        <v>-0.05</v>
-      </c>
-      <c r="H6">
-        <v>3.4670000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G6" s="5">
+        <v>-0.06</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="5">
+        <v>3.3620000000000001</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3">
         <v>0.56599999999999995</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>0.61499999999999999</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>0.85599999999999998</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>0.16200000000000001</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>0.05</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>-0.16</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>2.06</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>2.93</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>0.57999999999999996</v>
@@ -677,10 +872,10 @@
         <v>1.5649999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>0.57699999999999996</v>
@@ -707,10 +902,10 @@
         <v>1.3720000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>0.59899999999999998</v>
@@ -737,10 +932,10 @@
         <v>1.222</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <v>0.61499999999999999</v>
@@ -767,10 +962,10 @@
         <v>1.1879999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>0.59399999999999997</v>
@@ -796,11 +991,14 @@
       <c r="J12">
         <v>1.226</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13">
         <v>0.64900000000000002</v>
@@ -827,10 +1025,10 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14">
         <v>0.67500000000000004</v>
@@ -857,10 +1055,10 @@
         <v>1.0740000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15">
         <v>0.61299999999999999</v>
@@ -887,10 +1085,10 @@
         <v>1.1890000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16">
         <v>0.61299999999999999</v>
@@ -920,7 +1118,7 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17">
         <v>0.316</v>
@@ -937,20 +1135,20 @@
       <c r="G17">
         <v>-0.05</v>
       </c>
-      <c r="H17" t="s">
-        <v>32</v>
+      <c r="H17" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="I17">
         <v>3.0259999999999998</v>
       </c>
-      <c r="J17" t="s">
-        <v>32</v>
+      <c r="J17" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18">
         <v>0.29899999999999999</v>
@@ -967,20 +1165,20 @@
       <c r="G18">
         <v>-0.03</v>
       </c>
-      <c r="H18" t="s">
-        <v>32</v>
+      <c r="H18" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="I18">
         <v>3.1829999999999998</v>
       </c>
-      <c r="J18" t="s">
-        <v>32</v>
+      <c r="J18" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19">
         <v>0.35299999999999998</v>
@@ -997,20 +1195,20 @@
       <c r="G19">
         <v>0</v>
       </c>
-      <c r="H19" t="s">
-        <v>32</v>
+      <c r="H19" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="I19">
         <v>3.077</v>
       </c>
-      <c r="J19" t="s">
-        <v>32</v>
+      <c r="J19" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20">
         <v>0.40300000000000002</v>
@@ -1027,20 +1225,20 @@
       <c r="G20">
         <v>-0.03</v>
       </c>
-      <c r="H20" t="s">
-        <v>32</v>
+      <c r="H20" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="I20">
         <v>2.7770000000000001</v>
       </c>
-      <c r="J20" t="s">
-        <v>32</v>
+      <c r="J20" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21">
         <v>0.41099999999999998</v>
@@ -1057,20 +1255,20 @@
       <c r="G21">
         <v>-0.03</v>
       </c>
-      <c r="H21" t="s">
-        <v>32</v>
+      <c r="H21" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="I21">
         <v>2.738</v>
       </c>
-      <c r="J21" t="s">
-        <v>32</v>
+      <c r="J21" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22">
         <v>0.29599999999999999</v>
@@ -1087,20 +1285,20 @@
       <c r="G22">
         <v>-0.01</v>
       </c>
-      <c r="H22" t="s">
-        <v>32</v>
+      <c r="H22" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="I22">
         <v>3.028</v>
       </c>
-      <c r="J22" t="s">
-        <v>32</v>
+      <c r="J22" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23">
         <v>0.28000000000000003</v>
@@ -1117,20 +1315,20 @@
       <c r="G23">
         <v>-0.02</v>
       </c>
-      <c r="H23" t="s">
-        <v>32</v>
+      <c r="H23" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="I23">
         <v>3.0390000000000001</v>
       </c>
-      <c r="J23" t="s">
-        <v>32</v>
+      <c r="J23" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24">
         <v>0.25600000000000001</v>
@@ -1147,20 +1345,20 @@
       <c r="G24">
         <v>-0.03</v>
       </c>
-      <c r="H24" t="s">
-        <v>32</v>
+      <c r="H24" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="I24">
         <v>3.3639999999999999</v>
       </c>
-      <c r="J24" t="s">
-        <v>32</v>
+      <c r="J24" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C25">
         <v>0.25800000000000001</v>
@@ -1177,20 +1375,20 @@
       <c r="G25">
         <v>-0.05</v>
       </c>
-      <c r="H25" t="s">
-        <v>32</v>
+      <c r="H25" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="I25">
         <v>3.2519999999999998</v>
       </c>
-      <c r="J25" t="s">
-        <v>32</v>
+      <c r="J25" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C26">
         <v>0.25800000000000001</v>
@@ -1207,30 +1405,1453 @@
       <c r="G26">
         <v>-0.05</v>
       </c>
-      <c r="H26" t="s">
-        <v>32</v>
+      <c r="H26" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="I26">
         <v>3.2519999999999998</v>
       </c>
-      <c r="J26" t="s">
-        <v>32</v>
+      <c r="J26" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0.32</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="F27" s="5">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G27" s="5">
+        <v>-0.18</v>
+      </c>
+      <c r="H27" s="5">
+        <v>-0.26</v>
+      </c>
+      <c r="I27" s="5">
+        <v>3.07</v>
+      </c>
+      <c r="J27" s="5">
+        <v>3.4049999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="9"/>
+      <c r="B28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="H28" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="I28" s="3">
+        <v>1.948</v>
+      </c>
+      <c r="J28" s="3">
+        <v>3.2850000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="9"/>
+      <c r="B29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="I29" s="3">
+        <v>1.9339999999999999</v>
+      </c>
+      <c r="J29" s="3">
+        <v>1.958</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="9"/>
+      <c r="B30" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0.27</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0.27</v>
+      </c>
+      <c r="I30" s="3">
+        <v>1.3919999999999999</v>
+      </c>
+      <c r="J30" s="3">
+        <v>1.3919999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="9"/>
+      <c r="B31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I31" s="3">
+        <v>1.4279999999999999</v>
+      </c>
+      <c r="J31" s="3">
+        <v>1.4279999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="9"/>
+      <c r="B32" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.623</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.623</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1.177</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1.177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="9"/>
+      <c r="B33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.62</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.62</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1.1819999999999999</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1.1819999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="9"/>
+      <c r="B34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="I34" s="3">
+        <v>1.21</v>
+      </c>
+      <c r="J34" s="3">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="9"/>
+      <c r="B35" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I35" s="3">
+        <v>1.24</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="9"/>
+      <c r="B36" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I36" s="3">
+        <v>1.3129999999999999</v>
+      </c>
+      <c r="J36" s="3">
+        <v>1.3129999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="9"/>
+      <c r="B37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.746</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0.746</v>
+      </c>
+      <c r="G37" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H37" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I37" s="3">
+        <v>1.3560000000000001</v>
+      </c>
+      <c r="J37" s="3">
+        <v>1.3560000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="9"/>
+      <c r="B38" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0.753</v>
+      </c>
+      <c r="F38" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="G38" s="3">
+        <v>-0.06</v>
+      </c>
+      <c r="H38" s="3">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="I38" s="3">
+        <v>2.4359999999999999</v>
+      </c>
+      <c r="J38" s="3">
+        <v>3.9039999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="9"/>
+      <c r="B39" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="F39" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G39" s="3">
+        <v>-0.06</v>
+      </c>
+      <c r="H39" s="3">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="I39" s="3">
+        <v>2.496</v>
+      </c>
+      <c r="J39" s="3">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="9"/>
+      <c r="B40" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="F40" s="3">
+        <v>6.2E-2</v>
+      </c>
+      <c r="G40" s="3">
+        <v>-0.09</v>
+      </c>
+      <c r="H40" s="3">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="I40" s="3">
+        <v>2.609</v>
+      </c>
+      <c r="J40" s="3">
+        <v>3.702</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="9"/>
+      <c r="B41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="F41" s="3">
+        <v>6.2E-2</v>
+      </c>
+      <c r="G41" s="3">
+        <v>-0.08</v>
+      </c>
+      <c r="H41" s="3">
+        <v>-0.27</v>
+      </c>
+      <c r="I41" s="3">
+        <v>2.552</v>
+      </c>
+      <c r="J41" s="3">
+        <v>3.6629999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="9"/>
+      <c r="B42" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="G42" s="3">
+        <v>-0.09</v>
+      </c>
+      <c r="H42" s="3">
+        <v>-0.27</v>
+      </c>
+      <c r="I42" s="3">
+        <v>2.7080000000000002</v>
+      </c>
+      <c r="J42" s="3">
+        <v>3.5750000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="9"/>
+      <c r="B43" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="F43" s="3">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="G43" s="3">
+        <v>-0.13</v>
+      </c>
+      <c r="H43" s="3">
+        <v>-0.26</v>
+      </c>
+      <c r="I43" s="3">
+        <v>2.8530000000000002</v>
+      </c>
+      <c r="J43" s="3">
+        <v>3.4969999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="9"/>
+      <c r="B44" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.309</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="F44" s="3">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="G44" s="3">
+        <v>-0.17</v>
+      </c>
+      <c r="H44" s="3">
+        <v>-0.26</v>
+      </c>
+      <c r="I44" s="3">
+        <v>3.0310000000000001</v>
+      </c>
+      <c r="J44" s="3">
+        <v>3.3260000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="9"/>
+      <c r="B45" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="F45" s="3">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G45" s="3">
+        <v>-0.17</v>
+      </c>
+      <c r="H45" s="3">
+        <v>-0.25</v>
+      </c>
+      <c r="I45" s="3">
+        <v>2.9660000000000002</v>
+      </c>
+      <c r="J45" s="3">
+        <v>3.4009999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="9"/>
+      <c r="B46" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0.27</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0.39</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="F46" s="3">
+        <v>3.9E-2</v>
+      </c>
+      <c r="G46" s="3">
+        <v>-0.17</v>
+      </c>
+      <c r="H46" s="3">
+        <v>-0.25</v>
+      </c>
+      <c r="I46" s="3">
+        <v>3.03</v>
+      </c>
+      <c r="J46" s="3">
+        <v>3.238</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="9"/>
+      <c r="B47" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="F47" s="3">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G47" s="3">
+        <v>-0.17</v>
+      </c>
+      <c r="H47" s="3">
+        <v>-0.25</v>
+      </c>
+      <c r="I47" s="3">
+        <v>2.9849999999999999</v>
+      </c>
+      <c r="J47" s="3">
+        <v>3.1509999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0.314</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="F48" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="G48" s="2">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="H48" s="2">
+        <v>-0.31</v>
+      </c>
+      <c r="I48" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="J48" s="2">
+        <v>4.2130000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>-0.12</v>
+      </c>
+      <c r="I49" s="3">
+        <v>2.4159999999999999</v>
+      </c>
+      <c r="J49" s="3">
+        <v>3.3290000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="G50" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="H50" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="I50" s="3">
+        <v>1.704</v>
+      </c>
+      <c r="J50" s="3">
+        <v>1.9079999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51">
+        <v>0.61</v>
+      </c>
+      <c r="D51">
+        <v>0.61</v>
+      </c>
+      <c r="E51">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="F51">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="G51">
+        <v>0.25</v>
+      </c>
+      <c r="H51">
+        <v>0.25</v>
+      </c>
+      <c r="I51">
+        <v>1.4379999999999999</v>
+      </c>
+      <c r="J51">
+        <v>1.746</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="D52">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="E52">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="F52">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="G52">
+        <v>0.25</v>
+      </c>
+      <c r="H52">
+        <v>0.25</v>
+      </c>
+      <c r="I52">
+        <v>1.3560000000000001</v>
+      </c>
+      <c r="J52">
+        <v>1.3560000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="D53">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="E53">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="F53">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="G53">
+        <v>0.25</v>
+      </c>
+      <c r="H53">
+        <v>0.25</v>
+      </c>
+      <c r="I53">
+        <v>1.2310000000000001</v>
+      </c>
+      <c r="J53">
+        <v>1.2310000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54">
+        <v>0.6</v>
+      </c>
+      <c r="D54">
+        <v>0.6</v>
+      </c>
+      <c r="E54">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="F54">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="G54">
+        <v>0.2</v>
+      </c>
+      <c r="H54">
+        <v>0.2</v>
+      </c>
+      <c r="I54">
+        <v>1.2270000000000001</v>
+      </c>
+      <c r="J54">
+        <v>1.2270000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="D55">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="E55">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="F55">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="G55">
+        <v>0.19</v>
+      </c>
+      <c r="H55">
+        <v>0.19</v>
+      </c>
+      <c r="I55">
+        <v>1.2350000000000001</v>
+      </c>
+      <c r="J55">
+        <v>1.2350000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="D56">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="E56">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="F56">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="G56">
+        <v>0.18</v>
+      </c>
+      <c r="H56">
+        <v>0.18</v>
+      </c>
+      <c r="I56">
+        <v>1.2330000000000001</v>
+      </c>
+      <c r="J56">
+        <v>1.2330000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="D57">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="E57">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="F57">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="G57">
+        <v>0.18</v>
+      </c>
+      <c r="H57">
+        <v>0.18</v>
+      </c>
+      <c r="I57">
+        <v>1.2330000000000001</v>
+      </c>
+      <c r="J57">
+        <v>1.2330000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="D58">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="E58">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="F58">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="G58">
+        <v>0.18</v>
+      </c>
+      <c r="H58">
+        <v>0.18</v>
+      </c>
+      <c r="I58">
+        <v>1.2330000000000001</v>
+      </c>
+      <c r="J58">
+        <v>1.2330000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="D59">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="E59">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="H59">
+        <v>-0.32</v>
+      </c>
+      <c r="I59">
+        <v>4.4889999999999999</v>
+      </c>
+      <c r="J59">
+        <v>4.6420000000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60">
+        <v>0.32</v>
+      </c>
+      <c r="D60">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="E60">
+        <v>0.64</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>-0.27</v>
+      </c>
+      <c r="H60">
+        <v>-0.31</v>
+      </c>
+      <c r="I60">
+        <v>4.0979999999999999</v>
+      </c>
+      <c r="J60">
+        <v>4.4829999999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="D61">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="E61">
+        <v>0.629</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>-0.27</v>
+      </c>
+      <c r="H61">
+        <v>-0.31</v>
+      </c>
+      <c r="I61">
+        <v>3.96</v>
+      </c>
+      <c r="J61">
+        <v>4.4109999999999996</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C62">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="D62">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="E62">
+        <v>0.627</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>-0.27</v>
+      </c>
+      <c r="H62">
+        <v>-0.31</v>
+      </c>
+      <c r="I62">
+        <v>3.9529999999999998</v>
+      </c>
+      <c r="J62">
+        <v>4.3719999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="D63">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="E63">
+        <v>0.62</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="H63">
+        <v>-0.31</v>
+      </c>
+      <c r="I63">
+        <v>4.2539999999999996</v>
+      </c>
+      <c r="J63">
+        <v>4.3609999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>72</v>
+      </c>
+      <c r="C64">
+        <v>0.223</v>
+      </c>
+      <c r="D64">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="E64">
+        <v>0.61</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="H64">
+        <v>-0.31</v>
+      </c>
+      <c r="I64">
+        <v>4.617</v>
+      </c>
+      <c r="J64">
+        <v>4.3209999999999997</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>73</v>
+      </c>
+      <c r="C65">
+        <v>0.218</v>
+      </c>
+      <c r="D65">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="E65">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="H65">
+        <v>-0.31</v>
+      </c>
+      <c r="I65">
+        <v>4.7290000000000001</v>
+      </c>
+      <c r="J65">
+        <v>4.319</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>74</v>
+      </c>
+      <c r="C66">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="D66">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="E66">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="H66">
+        <v>-0.31</v>
+      </c>
+      <c r="I66">
+        <v>4.6970000000000001</v>
+      </c>
+      <c r="J66">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="D67">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="E67">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="H67">
+        <v>-0.31</v>
+      </c>
+      <c r="I67">
+        <v>4.6970000000000001</v>
+      </c>
+      <c r="J67">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>76</v>
+      </c>
+      <c r="C68">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="D68">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="E68">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="H68">
+        <v>-0.31</v>
+      </c>
+      <c r="I68">
+        <v>4.6970000000000001</v>
+      </c>
+      <c r="J68">
+        <v>4.32</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A6:A26"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
+  <mergeCells count="10">
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A6:A26"/>
+    <mergeCell ref="A27:A47"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83EA020F-50A3-4512-9210-C765B79DF43D}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="14"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="15">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0.436</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="F4" s="15">
+        <v>-0.04</v>
+      </c>
+      <c r="G4" s="16">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="H4" s="15">
+        <v>3.806</v>
+      </c>
+      <c r="I4" s="16">
+        <v>2.931</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="15">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="F5" s="15">
+        <v>-0.17</v>
+      </c>
+      <c r="G5" s="15">
+        <v>-0.15</v>
+      </c>
+      <c r="H5" s="15">
+        <v>2.9220000000000002</v>
+      </c>
+      <c r="I5" s="15">
+        <v>3.5409999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="17">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="C6" s="17">
+        <v>0.161</v>
+      </c>
+      <c r="D6" s="17">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="F6" s="17">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="G6" s="17">
+        <v>-0.22</v>
+      </c>
+      <c r="H6" s="17">
+        <v>4.6829999999999998</v>
+      </c>
+      <c r="I6" s="17">
+        <v>4.2830000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/results/results_05.09.2023.xlsx
+++ b/results/results_05.09.2023.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Util\doctorat\PhdProject\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7618B45-B956-4D5E-B853-7A4BEC71BF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5A3CCD-C1DC-4F7C-9961-C75FC8EF0800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="05.09" sheetId="14" r:id="rId1"/>
     <sheet name="15.09" sheetId="15" r:id="rId2"/>
+    <sheet name="27.09" sheetId="16" r:id="rId3"/>
+    <sheet name="27.09(1)" sheetId="17" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'15.09'!#REF!</definedName>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="84">
   <si>
     <t>Ant</t>
   </si>
@@ -277,13 +279,57 @@
   </si>
   <si>
     <t>Ref</t>
+  </si>
+  <si>
+    <t>Hibernate</t>
+  </si>
+  <si>
+    <t>Cluster len</t>
+  </si>
+  <si>
+    <t>MojoFM</t>
+  </si>
+  <si>
+    <t>Mojo</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Clusters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Ant: Sol: 11
+         Ref: 13
+Catalina: Sol: 17
+                 Ref: 17
+Hibernate: Sol: 22
+                    Ref: 25</t>
+    </r>
+  </si>
+  <si>
+    <t>na</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,8 +352,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,8 +387,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -368,11 +435,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -386,15 +477,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -410,11 +508,31 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -701,7 +819,7 @@
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B21" sqref="A3:J68"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -719,40 +837,40 @@
     <row r="1" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10" t="s">
+      <c r="F3" s="15"/>
+      <c r="G3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10" t="s">
+      <c r="H3" s="15"/>
+      <c r="I3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="10"/>
+      <c r="J3" s="15"/>
     </row>
     <row r="4" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="17"/>
+      <c r="G4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="13" t="s">
+      <c r="H4" s="17"/>
+      <c r="I4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="14"/>
+      <c r="J4" s="19"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
@@ -781,7 +899,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -813,7 +931,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
@@ -843,7 +961,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
+      <c r="A8" s="20"/>
       <c r="B8" t="s">
         <v>14</v>
       </c>
@@ -873,7 +991,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
+      <c r="A9" s="20"/>
       <c r="B9" t="s">
         <v>15</v>
       </c>
@@ -903,7 +1021,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
+      <c r="A10" s="20"/>
       <c r="B10" t="s">
         <v>16</v>
       </c>
@@ -933,7 +1051,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
+      <c r="A11" s="20"/>
       <c r="B11" t="s">
         <v>17</v>
       </c>
@@ -963,7 +1081,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
+      <c r="A12" s="20"/>
       <c r="B12" t="s">
         <v>18</v>
       </c>
@@ -996,7 +1114,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
+      <c r="A13" s="20"/>
       <c r="B13" t="s">
         <v>19</v>
       </c>
@@ -1026,7 +1144,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
+      <c r="A14" s="20"/>
       <c r="B14" t="s">
         <v>20</v>
       </c>
@@ -1056,7 +1174,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
+      <c r="A15" s="20"/>
       <c r="B15" t="s">
         <v>21</v>
       </c>
@@ -1086,7 +1204,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
+      <c r="A16" s="20"/>
       <c r="B16" t="s">
         <v>22</v>
       </c>
@@ -1116,7 +1234,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
+      <c r="A17" s="20"/>
       <c r="B17" t="s">
         <v>23</v>
       </c>
@@ -1146,7 +1264,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
+      <c r="A18" s="20"/>
       <c r="B18" t="s">
         <v>24</v>
       </c>
@@ -1176,7 +1294,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
+      <c r="A19" s="20"/>
       <c r="B19" t="s">
         <v>25</v>
       </c>
@@ -1206,7 +1324,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
+      <c r="A20" s="20"/>
       <c r="B20" t="s">
         <v>26</v>
       </c>
@@ -1236,7 +1354,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
+      <c r="A21" s="20"/>
       <c r="B21" t="s">
         <v>27</v>
       </c>
@@ -1266,7 +1384,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
+      <c r="A22" s="20"/>
       <c r="B22" t="s">
         <v>28</v>
       </c>
@@ -1296,7 +1414,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
+      <c r="A23" s="20"/>
       <c r="B23" t="s">
         <v>29</v>
       </c>
@@ -1326,7 +1444,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
+      <c r="A24" s="20"/>
       <c r="B24" t="s">
         <v>30</v>
       </c>
@@ -1356,7 +1474,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
+      <c r="A25" s="20"/>
       <c r="B25" t="s">
         <v>31</v>
       </c>
@@ -1386,7 +1504,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
+      <c r="A26" s="20"/>
       <c r="B26" t="s">
         <v>32</v>
       </c>
@@ -1416,7 +1534,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="21" t="s">
         <v>54</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -1448,7 +1566,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="3" t="s">
         <v>34</v>
       </c>
@@ -1478,7 +1596,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="3" t="s">
         <v>35</v>
       </c>
@@ -1508,7 +1626,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="3" t="s">
         <v>36</v>
       </c>
@@ -1538,7 +1656,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="3" t="s">
         <v>37</v>
       </c>
@@ -1568,7 +1686,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="9"/>
+      <c r="A32" s="22"/>
       <c r="B32" s="3" t="s">
         <v>38</v>
       </c>
@@ -1598,7 +1716,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="9"/>
+      <c r="A33" s="22"/>
       <c r="B33" s="3" t="s">
         <v>39</v>
       </c>
@@ -1628,7 +1746,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="9"/>
+      <c r="A34" s="22"/>
       <c r="B34" s="3" t="s">
         <v>40</v>
       </c>
@@ -1658,7 +1776,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="9"/>
+      <c r="A35" s="22"/>
       <c r="B35" s="3" t="s">
         <v>41</v>
       </c>
@@ -1688,7 +1806,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="9"/>
+      <c r="A36" s="22"/>
       <c r="B36" s="3" t="s">
         <v>42</v>
       </c>
@@ -1718,7 +1836,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="9"/>
+      <c r="A37" s="22"/>
       <c r="B37" s="3" t="s">
         <v>43</v>
       </c>
@@ -1748,7 +1866,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="9"/>
+      <c r="A38" s="22"/>
       <c r="B38" s="3" t="s">
         <v>44</v>
       </c>
@@ -1778,7 +1896,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="9"/>
+      <c r="A39" s="22"/>
       <c r="B39" s="3" t="s">
         <v>45</v>
       </c>
@@ -1808,7 +1926,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="9"/>
+      <c r="A40" s="22"/>
       <c r="B40" s="3" t="s">
         <v>46</v>
       </c>
@@ -1838,7 +1956,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="9"/>
+      <c r="A41" s="22"/>
       <c r="B41" s="3" t="s">
         <v>47</v>
       </c>
@@ -1868,7 +1986,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="9"/>
+      <c r="A42" s="22"/>
       <c r="B42" s="3" t="s">
         <v>48</v>
       </c>
@@ -1898,7 +2016,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="9"/>
+      <c r="A43" s="22"/>
       <c r="B43" s="3" t="s">
         <v>49</v>
       </c>
@@ -1928,7 +2046,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="9"/>
+      <c r="A44" s="22"/>
       <c r="B44" s="3" t="s">
         <v>50</v>
       </c>
@@ -1958,7 +2076,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="9"/>
+      <c r="A45" s="22"/>
       <c r="B45" s="3" t="s">
         <v>51</v>
       </c>
@@ -1988,7 +2106,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="9"/>
+      <c r="A46" s="22"/>
       <c r="B46" s="3" t="s">
         <v>52</v>
       </c>
@@ -2018,7 +2136,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="9"/>
+      <c r="A47" s="22"/>
       <c r="B47" s="3" t="s">
         <v>53</v>
       </c>
@@ -2661,16 +2779,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A6:A26"/>
+    <mergeCell ref="A27:A47"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A6:A26"/>
-    <mergeCell ref="A27:A47"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2681,8 +2799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83EA020F-50A3-4512-9210-C765B79DF43D}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2692,40 +2810,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10" t="s">
+      <c r="G1" s="15"/>
+      <c r="H1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="10"/>
+      <c r="I1" s="15"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="11" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13" t="s">
+      <c r="G2" s="17"/>
+      <c r="H2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="14"/>
+      <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
@@ -2754,89 +2872,89 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="7">
         <v>0.16400000000000001</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="7">
         <v>0.30499999999999999</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="7">
         <v>0.436</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="7">
         <v>0.16400000000000001</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="7">
         <v>-0.04</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="8">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="7">
         <v>3.806</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="8">
         <v>2.931</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="7">
         <v>0.24099999999999999</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="7">
         <v>0.16500000000000001</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="7">
         <v>0.51700000000000002</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="7">
         <v>0.20499999999999999</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="7">
         <v>-0.17</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="7">
         <v>-0.15</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="7">
         <v>2.9220000000000002</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="7">
         <v>3.5409999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="9">
         <v>0.16800000000000001</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="9">
         <v>0.161</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="9">
         <v>0.59899999999999998</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="9">
         <v>0.19600000000000001</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="9">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="9">
         <v>-0.22</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="9">
         <v>4.6829999999999998</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="9">
         <v>4.2830000000000004</v>
       </c>
     </row>
@@ -2855,6 +2973,4362 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FFD26E6-0CB1-4054-9878-76A8CF2BB465}">
+  <dimension ref="A2:P69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="17" max="17" width="23.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:16" ht="71.400000000000006" x14ac:dyDescent="0.3">
+      <c r="B2" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P3" s="10"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="23"/>
+    </row>
+    <row r="5" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="24"/>
+      <c r="F5" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="24"/>
+    </row>
+    <row r="6" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="28">
+        <v>11</v>
+      </c>
+      <c r="D7" s="28">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="E7" s="28">
+        <v>0.246</v>
+      </c>
+      <c r="F7" s="28">
+        <v>0.44</v>
+      </c>
+      <c r="G7" s="28">
+        <v>0.154</v>
+      </c>
+      <c r="H7" s="28">
+        <v>-0.05</v>
+      </c>
+      <c r="I7" s="28">
+        <v>-0.09</v>
+      </c>
+      <c r="J7" s="28">
+        <v>163</v>
+      </c>
+      <c r="K7" s="28">
+        <v>51.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="20"/>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>49</v>
+      </c>
+      <c r="D8">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="E8">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="F8">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="G8">
+        <v>0.626</v>
+      </c>
+      <c r="H8">
+        <v>0.06</v>
+      </c>
+      <c r="I8">
+        <v>0.01</v>
+      </c>
+      <c r="J8">
+        <v>149</v>
+      </c>
+      <c r="K8">
+        <v>64.44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="20"/>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>91</v>
+      </c>
+      <c r="D9">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E9">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="F9">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="G9">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="H9">
+        <v>0.2</v>
+      </c>
+      <c r="I9">
+        <v>-0.1</v>
+      </c>
+      <c r="J9">
+        <v>92</v>
+      </c>
+      <c r="K9">
+        <v>71.87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="20"/>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>74</v>
+      </c>
+      <c r="D10">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="E10">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="F10">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="G10">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="H10">
+        <v>0.22</v>
+      </c>
+      <c r="I10">
+        <v>-0.08</v>
+      </c>
+      <c r="J10">
+        <v>65</v>
+      </c>
+      <c r="K10">
+        <v>70.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="20"/>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>52</v>
+      </c>
+      <c r="D11">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="E11">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="F11">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="G11">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="H11">
+        <v>0.26</v>
+      </c>
+      <c r="I11">
+        <v>-0.03</v>
+      </c>
+      <c r="J11">
+        <v>44</v>
+      </c>
+      <c r="K11">
+        <v>73.33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="20"/>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>38</v>
+      </c>
+      <c r="D12">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="E12">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="F12">
+        <v>0.875</v>
+      </c>
+      <c r="G12">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="H12">
+        <v>0.3</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>31</v>
+      </c>
+      <c r="K12">
+        <v>76.34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="20"/>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="E13">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="F13">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="G13">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="H13">
+        <v>0.26</v>
+      </c>
+      <c r="I13">
+        <v>0.08</v>
+      </c>
+      <c r="J13">
+        <v>17</v>
+      </c>
+      <c r="K13">
+        <v>77.92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="20"/>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="E14">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="F14">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="G14">
+        <v>0.7</v>
+      </c>
+      <c r="H14">
+        <v>0.34</v>
+      </c>
+      <c r="I14">
+        <v>0.23</v>
+      </c>
+      <c r="J14">
+        <v>6</v>
+      </c>
+      <c r="K14">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="20"/>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="E15">
+        <v>0.5</v>
+      </c>
+      <c r="F15">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="G15">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="H15">
+        <v>0.33</v>
+      </c>
+      <c r="I15">
+        <v>0.17</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>86.21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="20"/>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="E16">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="F16">
+        <v>0.217</v>
+      </c>
+      <c r="G16">
+        <v>0.217</v>
+      </c>
+      <c r="H16">
+        <v>0.32</v>
+      </c>
+      <c r="I16">
+        <v>0.32</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="20"/>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="E17">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="F17">
+        <v>0.217</v>
+      </c>
+      <c r="G17">
+        <v>0.217</v>
+      </c>
+      <c r="H17">
+        <v>0.32</v>
+      </c>
+      <c r="I17">
+        <v>0.32</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="20"/>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18">
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="E18">
+        <v>0.48</v>
+      </c>
+      <c r="F18">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="G18">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="H18">
+        <v>-0.02</v>
+      </c>
+      <c r="I18">
+        <v>-0.05</v>
+      </c>
+      <c r="J18">
+        <v>222</v>
+      </c>
+      <c r="K18">
+        <v>52.46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="20"/>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19">
+        <v>19</v>
+      </c>
+      <c r="D19">
+        <v>0.39</v>
+      </c>
+      <c r="E19">
+        <v>0.373</v>
+      </c>
+      <c r="F19">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G19">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>-0.11</v>
+      </c>
+      <c r="J19">
+        <v>199</v>
+      </c>
+      <c r="K19">
+        <v>57.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="20"/>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20">
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="E20">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="F20">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="G20">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="H20">
+        <v>-0.02</v>
+      </c>
+      <c r="I20">
+        <v>-0.12</v>
+      </c>
+      <c r="J20">
+        <v>197</v>
+      </c>
+      <c r="K20">
+        <v>55.53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="20"/>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21">
+        <v>17</v>
+      </c>
+      <c r="D21">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="E21">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="F21">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="G21">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="H21">
+        <v>-0.01</v>
+      </c>
+      <c r="I21">
+        <v>-0.11</v>
+      </c>
+      <c r="J21">
+        <v>193</v>
+      </c>
+      <c r="K21">
+        <v>55.32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="20"/>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22">
+        <v>17</v>
+      </c>
+      <c r="D22">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="E22">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="F22">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="G22">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="H22">
+        <v>-0.02</v>
+      </c>
+      <c r="I22">
+        <v>-0.11</v>
+      </c>
+      <c r="J22">
+        <v>186</v>
+      </c>
+      <c r="K22">
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="20"/>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23">
+        <v>13</v>
+      </c>
+      <c r="D23">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="E23">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="F23">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="G23">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="H23">
+        <v>-0.02</v>
+      </c>
+      <c r="I23">
+        <v>-0.09</v>
+      </c>
+      <c r="J23">
+        <v>183</v>
+      </c>
+      <c r="K23">
+        <v>51.72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="20"/>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24">
+        <v>12</v>
+      </c>
+      <c r="D24">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="E24">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F24">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="G24">
+        <v>0.222</v>
+      </c>
+      <c r="H24">
+        <v>-0.03</v>
+      </c>
+      <c r="I24">
+        <v>-0.09</v>
+      </c>
+      <c r="J24">
+        <v>177</v>
+      </c>
+      <c r="K24">
+        <v>51.51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="20"/>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25">
+        <v>13</v>
+      </c>
+      <c r="D25">
+        <v>0.309</v>
+      </c>
+      <c r="E25">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F25">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="G25">
+        <v>0.185</v>
+      </c>
+      <c r="H25">
+        <v>-0.06</v>
+      </c>
+      <c r="I25">
+        <v>-0.08</v>
+      </c>
+      <c r="J25">
+        <v>170</v>
+      </c>
+      <c r="K25">
+        <v>51.29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="20"/>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26">
+        <v>12</v>
+      </c>
+      <c r="D26">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="E26">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="F26">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="G26">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="H26">
+        <v>-0.06</v>
+      </c>
+      <c r="I26">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="J26">
+        <v>166</v>
+      </c>
+      <c r="K26">
+        <v>51.03</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="20"/>
+      <c r="B27" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="14">
+        <v>12</v>
+      </c>
+      <c r="D27" s="14">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="E27" s="14">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="F27" s="14">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="G27" s="14">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="H27" s="14">
+        <v>-0.06</v>
+      </c>
+      <c r="I27" s="14">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="J27" s="14">
+        <v>166</v>
+      </c>
+      <c r="K27" s="14">
+        <v>51.03</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28">
+        <v>17</v>
+      </c>
+      <c r="D28">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="E28">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="F28">
+        <v>0.504</v>
+      </c>
+      <c r="G28">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="H28">
+        <v>-0.17</v>
+      </c>
+      <c r="I28">
+        <v>-0.13</v>
+      </c>
+      <c r="J28">
+        <v>181</v>
+      </c>
+      <c r="K28" s="28">
+        <v>50.55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="22"/>
+      <c r="B29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29">
+        <v>31</v>
+      </c>
+      <c r="D29">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="E29">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="F29">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="G29">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="H29">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I29">
+        <v>0.05</v>
+      </c>
+      <c r="J29">
+        <v>131</v>
+      </c>
+      <c r="K29">
+        <v>74.41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="22"/>
+      <c r="B30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30">
+        <v>62</v>
+      </c>
+      <c r="D30">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="E30">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="F30">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="G30">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="H30">
+        <v>0.18</v>
+      </c>
+      <c r="I30">
+        <v>0.04</v>
+      </c>
+      <c r="J30">
+        <v>83</v>
+      </c>
+      <c r="K30">
+        <v>81.010000000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="22"/>
+      <c r="B31" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31">
+        <v>90</v>
+      </c>
+      <c r="D31">
+        <v>0.6</v>
+      </c>
+      <c r="E31">
+        <v>0.254</v>
+      </c>
+      <c r="F31">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="G31">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="H31">
+        <v>0.27</v>
+      </c>
+      <c r="I31">
+        <v>-0.02</v>
+      </c>
+      <c r="J31">
+        <v>84</v>
+      </c>
+      <c r="K31">
+        <v>76.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="22"/>
+      <c r="B32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32">
+        <v>84</v>
+      </c>
+      <c r="D32">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="E32">
+        <v>0.251</v>
+      </c>
+      <c r="F32">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="G32">
+        <v>0.7</v>
+      </c>
+      <c r="H32">
+        <v>0.3</v>
+      </c>
+      <c r="I32">
+        <v>-0.05</v>
+      </c>
+      <c r="J32">
+        <v>72</v>
+      </c>
+      <c r="K32">
+        <v>76.849999999999994</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="22"/>
+      <c r="B33" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33">
+        <v>76</v>
+      </c>
+      <c r="D33">
+        <v>0.623</v>
+      </c>
+      <c r="E33">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="F33">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="G33">
+        <v>0.67</v>
+      </c>
+      <c r="H33">
+        <v>0.32</v>
+      </c>
+      <c r="I33">
+        <v>-0.02</v>
+      </c>
+      <c r="J33">
+        <v>64</v>
+      </c>
+      <c r="K33">
+        <v>76.47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="22"/>
+      <c r="B34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34">
+        <v>65</v>
+      </c>
+      <c r="D34">
+        <v>0.62</v>
+      </c>
+      <c r="E34">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="F34">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="G34">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="H34">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I34">
+        <v>-0.02</v>
+      </c>
+      <c r="J34">
+        <v>53</v>
+      </c>
+      <c r="K34">
+        <v>75.349999999999994</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="22"/>
+      <c r="B35" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35">
+        <v>44</v>
+      </c>
+      <c r="D35">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="E35">
+        <v>0.19</v>
+      </c>
+      <c r="F35">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="G35">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="H35">
+        <v>0.23</v>
+      </c>
+      <c r="I35">
+        <v>-0.08</v>
+      </c>
+      <c r="J35">
+        <v>39</v>
+      </c>
+      <c r="K35">
+        <v>70.45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="22"/>
+      <c r="B36" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36">
+        <v>27</v>
+      </c>
+      <c r="D36">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="E36">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="F36">
+        <v>0.82</v>
+      </c>
+      <c r="G36">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="H36">
+        <v>0.2</v>
+      </c>
+      <c r="I36">
+        <v>-0.03</v>
+      </c>
+      <c r="J36">
+        <v>22</v>
+      </c>
+      <c r="K36">
+        <v>70.27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="22"/>
+      <c r="B37" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37">
+        <v>12</v>
+      </c>
+      <c r="D37">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="E37">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="F37">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="G37">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="H37">
+        <v>0.1</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>10</v>
+      </c>
+      <c r="K37">
+        <v>61.54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="22"/>
+      <c r="B38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38">
+        <v>8</v>
+      </c>
+      <c r="D38">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="E38">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="F38">
+        <v>0.746</v>
+      </c>
+      <c r="G38">
+        <v>0.497</v>
+      </c>
+      <c r="H38">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I38">
+        <v>0.16</v>
+      </c>
+      <c r="J38">
+        <v>6</v>
+      </c>
+      <c r="K38">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="22"/>
+      <c r="B39" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39">
+        <v>21</v>
+      </c>
+      <c r="D39">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="E39">
+        <v>0.44</v>
+      </c>
+      <c r="F39">
+        <v>0.749</v>
+      </c>
+      <c r="G39">
+        <v>0.623</v>
+      </c>
+      <c r="H39">
+        <v>-0.03</v>
+      </c>
+      <c r="I39">
+        <v>0.01</v>
+      </c>
+      <c r="J39">
+        <v>198</v>
+      </c>
+      <c r="K39">
+        <v>65.08</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="22"/>
+      <c r="B40" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40">
+        <v>22</v>
+      </c>
+      <c r="D40">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="E40">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="F40">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="G40">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="H40">
+        <v>-0.08</v>
+      </c>
+      <c r="I40">
+        <v>-0.08</v>
+      </c>
+      <c r="J40">
+        <v>211</v>
+      </c>
+      <c r="K40">
+        <v>62.52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="22"/>
+      <c r="B41" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41">
+        <v>24</v>
+      </c>
+      <c r="D41">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="E41">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="F41">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="G41">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="H41">
+        <v>-0.09</v>
+      </c>
+      <c r="I41">
+        <v>-0.09</v>
+      </c>
+      <c r="J41">
+        <v>234</v>
+      </c>
+      <c r="K41">
+        <v>58.36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="22"/>
+      <c r="B42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42">
+        <v>26</v>
+      </c>
+      <c r="D42">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="E42">
+        <v>0.183</v>
+      </c>
+      <c r="F42">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="G42">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="H42">
+        <v>-0.08</v>
+      </c>
+      <c r="I42">
+        <v>-0.1</v>
+      </c>
+      <c r="J42">
+        <v>238</v>
+      </c>
+      <c r="K42">
+        <v>57.42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="22"/>
+      <c r="B43" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43">
+        <v>24</v>
+      </c>
+      <c r="D43">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="E43">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="F43">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="G43">
+        <v>0.48</v>
+      </c>
+      <c r="H43">
+        <v>-0.09</v>
+      </c>
+      <c r="I43">
+        <v>-0.1</v>
+      </c>
+      <c r="J43">
+        <v>262</v>
+      </c>
+      <c r="K43">
+        <v>52.88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="22"/>
+      <c r="B44" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44">
+        <v>27</v>
+      </c>
+      <c r="D44">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="E44">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="F44">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="G44">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="H44">
+        <v>-0.12</v>
+      </c>
+      <c r="I44">
+        <v>-0.11</v>
+      </c>
+      <c r="J44">
+        <v>216</v>
+      </c>
+      <c r="K44">
+        <v>58.38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="22"/>
+      <c r="B45" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45">
+        <v>25</v>
+      </c>
+      <c r="D45">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="E45">
+        <v>0.16</v>
+      </c>
+      <c r="F45">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="G45">
+        <v>0.308</v>
+      </c>
+      <c r="H45">
+        <v>-0.15</v>
+      </c>
+      <c r="I45">
+        <v>-0.11</v>
+      </c>
+      <c r="J45">
+        <v>192</v>
+      </c>
+      <c r="K45">
+        <v>57.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="22"/>
+      <c r="B46" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46">
+        <v>20</v>
+      </c>
+      <c r="D46">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="E46">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="F46">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="G46">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="H46">
+        <v>-0.16</v>
+      </c>
+      <c r="I46">
+        <v>-0.12</v>
+      </c>
+      <c r="J46">
+        <v>193</v>
+      </c>
+      <c r="K46">
+        <v>53.61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="22"/>
+      <c r="B47" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47">
+        <v>20</v>
+      </c>
+      <c r="D47">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="E47">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="F47">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="G47">
+        <v>0.221</v>
+      </c>
+      <c r="H47">
+        <v>-0.17</v>
+      </c>
+      <c r="I47">
+        <v>-0.13</v>
+      </c>
+      <c r="J47">
+        <v>183</v>
+      </c>
+      <c r="K47">
+        <v>51.97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="22"/>
+      <c r="B48" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="14">
+        <v>19</v>
+      </c>
+      <c r="D48" s="14">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="E48" s="14">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="F48" s="14">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="G48" s="14">
+        <v>0.214</v>
+      </c>
+      <c r="H48" s="14">
+        <v>-0.17</v>
+      </c>
+      <c r="I48" s="14">
+        <v>-0.13</v>
+      </c>
+      <c r="J48" s="14">
+        <v>184</v>
+      </c>
+      <c r="K48" s="14">
+        <v>50.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49">
+        <v>22</v>
+      </c>
+      <c r="D49">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="E49">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="F49">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="G49">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="H49">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="I49">
+        <v>-0.24</v>
+      </c>
+      <c r="J49">
+        <v>1913</v>
+      </c>
+      <c r="K49">
+        <v>38.799999999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="27"/>
+      <c r="B50" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50">
+        <v>120</v>
+      </c>
+      <c r="D50">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="E50">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="F50">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="G50">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>-0.2</v>
+      </c>
+      <c r="J50">
+        <v>638</v>
+      </c>
+      <c r="K50">
+        <v>52.78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="27"/>
+      <c r="B51" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51">
+        <v>218</v>
+      </c>
+      <c r="D51">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="E51">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F51">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="G51">
+        <v>0.496</v>
+      </c>
+      <c r="H51">
+        <v>0.18</v>
+      </c>
+      <c r="I51">
+        <v>-0.1</v>
+      </c>
+      <c r="J51">
+        <v>436</v>
+      </c>
+      <c r="K51">
+        <v>60.58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="27"/>
+      <c r="B52" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52">
+        <v>203</v>
+      </c>
+      <c r="D52">
+        <v>0.61</v>
+      </c>
+      <c r="E52">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F52">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="G52">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="H52">
+        <v>0.25</v>
+      </c>
+      <c r="I52">
+        <v>-0.11</v>
+      </c>
+      <c r="J52">
+        <v>332</v>
+      </c>
+      <c r="K52">
+        <v>59.46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="27"/>
+      <c r="B53" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53">
+        <v>160</v>
+      </c>
+      <c r="D53">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="E53">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="F53">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="G53">
+        <v>0.504</v>
+      </c>
+      <c r="H53">
+        <v>0.25</v>
+      </c>
+      <c r="I53">
+        <v>-0.13</v>
+      </c>
+      <c r="J53">
+        <v>231</v>
+      </c>
+      <c r="K53">
+        <v>61.44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="27"/>
+      <c r="B54" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54">
+        <v>140</v>
+      </c>
+      <c r="D54">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="E54">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="F54">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="G54">
+        <v>0.376</v>
+      </c>
+      <c r="H54">
+        <v>0.25</v>
+      </c>
+      <c r="I54">
+        <v>-0.24</v>
+      </c>
+      <c r="J54">
+        <v>201</v>
+      </c>
+      <c r="K54">
+        <v>60.36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="27"/>
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55">
+        <v>86</v>
+      </c>
+      <c r="D55">
+        <v>0.6</v>
+      </c>
+      <c r="E55">
+        <v>0.372</v>
+      </c>
+      <c r="F55">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="G55">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H55">
+        <v>0.2</v>
+      </c>
+      <c r="I55">
+        <v>-0.15</v>
+      </c>
+      <c r="J55">
+        <v>91</v>
+      </c>
+      <c r="K55">
+        <v>63.31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="27"/>
+      <c r="B56" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56">
+        <v>64</v>
+      </c>
+      <c r="D56">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="E56">
+        <v>0.443</v>
+      </c>
+      <c r="F56">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="G56">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="H56">
+        <v>0.19</v>
+      </c>
+      <c r="I56">
+        <v>-0.06</v>
+      </c>
+      <c r="J56">
+        <v>59</v>
+      </c>
+      <c r="K56">
+        <v>66.290000000000006</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="27"/>
+      <c r="B57" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57">
+        <v>51</v>
+      </c>
+      <c r="D57">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="E57">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="F57">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="G57">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="H57">
+        <v>0.18</v>
+      </c>
+      <c r="I57">
+        <v>-0.04</v>
+      </c>
+      <c r="J57">
+        <v>46</v>
+      </c>
+      <c r="K57">
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="27"/>
+      <c r="B58" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58">
+        <v>51</v>
+      </c>
+      <c r="D58">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="E58">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="F58">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="G58">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="H58">
+        <v>0.18</v>
+      </c>
+      <c r="I58">
+        <v>-0.04</v>
+      </c>
+      <c r="J58">
+        <v>46</v>
+      </c>
+      <c r="K58">
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="27"/>
+      <c r="B59" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59">
+        <v>51</v>
+      </c>
+      <c r="D59">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="E59">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="F59">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="G59">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="H59">
+        <v>0.18</v>
+      </c>
+      <c r="I59">
+        <v>-0.04</v>
+      </c>
+      <c r="J59">
+        <v>46</v>
+      </c>
+      <c r="K59">
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="27"/>
+      <c r="B60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60">
+        <v>21</v>
+      </c>
+      <c r="D60">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="E60">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="F60">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="G60">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="H60">
+        <v>-0.27</v>
+      </c>
+      <c r="I60">
+        <v>-0.24</v>
+      </c>
+      <c r="J60">
+        <v>2105</v>
+      </c>
+      <c r="K60">
+        <v>39.630000000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="27"/>
+      <c r="B61" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61">
+        <v>25</v>
+      </c>
+      <c r="D61">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="E61">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="F61">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="G61">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="H61">
+        <v>-0.27</v>
+      </c>
+      <c r="I61">
+        <v>-0.25</v>
+      </c>
+      <c r="J61">
+        <v>2048</v>
+      </c>
+      <c r="K61">
+        <v>40.880000000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="27"/>
+      <c r="B62" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62">
+        <v>26</v>
+      </c>
+      <c r="D62">
+        <v>0.34</v>
+      </c>
+      <c r="E62">
+        <v>0.09</v>
+      </c>
+      <c r="F62">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="G62">
+        <v>0.245</v>
+      </c>
+      <c r="H62">
+        <v>-0.27</v>
+      </c>
+      <c r="I62">
+        <v>-0.25</v>
+      </c>
+      <c r="J62">
+        <v>1976</v>
+      </c>
+      <c r="K62">
+        <v>41.92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="27"/>
+      <c r="B63" t="s">
+        <v>70</v>
+      </c>
+      <c r="C63">
+        <v>30</v>
+      </c>
+      <c r="D63">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="E63">
+        <v>0.09</v>
+      </c>
+      <c r="F63">
+        <v>0.624</v>
+      </c>
+      <c r="G63">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="H63">
+        <v>-0.27</v>
+      </c>
+      <c r="I63">
+        <v>-0.24</v>
+      </c>
+      <c r="J63">
+        <v>1939</v>
+      </c>
+      <c r="K63">
+        <v>41.89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="27"/>
+      <c r="B64" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64">
+        <v>23</v>
+      </c>
+      <c r="D64">
+        <v>0.33</v>
+      </c>
+      <c r="E64">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="F64">
+        <v>0.622</v>
+      </c>
+      <c r="G64">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="H64">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="I64">
+        <v>-0.25</v>
+      </c>
+      <c r="J64">
+        <v>1952</v>
+      </c>
+      <c r="K64">
+        <v>40.51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="27"/>
+      <c r="B65" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65">
+        <v>18</v>
+      </c>
+      <c r="D65">
+        <v>0.223</v>
+      </c>
+      <c r="E65">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F65">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="G65">
+        <v>0.216</v>
+      </c>
+      <c r="H65">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="I65">
+        <v>-0.25</v>
+      </c>
+      <c r="J65">
+        <v>1957</v>
+      </c>
+      <c r="K65">
+        <v>39.049999999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="27"/>
+      <c r="B66" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66">
+        <v>24</v>
+      </c>
+      <c r="D66">
+        <v>0.22</v>
+      </c>
+      <c r="E66">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="F66">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="G66">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="H66">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="I66">
+        <v>-0.24</v>
+      </c>
+      <c r="J66">
+        <v>1906</v>
+      </c>
+      <c r="K66">
+        <v>40.01</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="27"/>
+      <c r="B67" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67">
+        <v>23</v>
+      </c>
+      <c r="D67">
+        <v>0.192</v>
+      </c>
+      <c r="E67">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="F67">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="G67">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="H67">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="I67">
+        <v>-0.25</v>
+      </c>
+      <c r="J67">
+        <v>1894</v>
+      </c>
+      <c r="K67">
+        <v>39.950000000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="27"/>
+      <c r="B68" t="s">
+        <v>75</v>
+      </c>
+      <c r="C68">
+        <v>23</v>
+      </c>
+      <c r="D68">
+        <v>0.192</v>
+      </c>
+      <c r="E68">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="F68">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="G68">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="H68">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="I68">
+        <v>-0.25</v>
+      </c>
+      <c r="J68">
+        <v>1894</v>
+      </c>
+      <c r="K68">
+        <v>39.950000000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="27"/>
+      <c r="B69" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69">
+        <v>23</v>
+      </c>
+      <c r="D69">
+        <v>0.192</v>
+      </c>
+      <c r="E69">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="F69">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="G69">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="H69">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="I69">
+        <v>-0.25</v>
+      </c>
+      <c r="J69">
+        <v>1894</v>
+      </c>
+      <c r="K69">
+        <v>39.950000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A27"/>
+    <mergeCell ref="A28:A48"/>
+    <mergeCell ref="A49:A69"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34265227-4C04-456C-8B55-FDAF59849B87}">
+  <dimension ref="A4:K69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16:K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="32.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="23"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D5" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="24"/>
+      <c r="F5" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="24"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C6" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="E7">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="F7">
+        <v>0.44</v>
+      </c>
+      <c r="G7">
+        <v>0.129</v>
+      </c>
+      <c r="H7">
+        <v>-0.05</v>
+      </c>
+      <c r="I7">
+        <v>-0.12</v>
+      </c>
+      <c r="J7">
+        <v>142</v>
+      </c>
+      <c r="K7">
+        <v>57.61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="20"/>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>49</v>
+      </c>
+      <c r="D8">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="E8">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="F8">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="G8">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="H8">
+        <v>0.06</v>
+      </c>
+      <c r="I8">
+        <v>-0.04</v>
+      </c>
+      <c r="J8">
+        <v>139</v>
+      </c>
+      <c r="K8">
+        <v>67.14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="20"/>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>91</v>
+      </c>
+      <c r="D9">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E9">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="F9">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="G9">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="H9">
+        <v>0.2</v>
+      </c>
+      <c r="I9">
+        <v>-0.13</v>
+      </c>
+      <c r="J9">
+        <v>94</v>
+      </c>
+      <c r="K9">
+        <v>71.430000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="20"/>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>74</v>
+      </c>
+      <c r="D10">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="E10">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="F10">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="G10">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="H10">
+        <v>0.22</v>
+      </c>
+      <c r="I10">
+        <v>-0.1</v>
+      </c>
+      <c r="J10">
+        <v>64</v>
+      </c>
+      <c r="K10">
+        <v>70.91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="20"/>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>52</v>
+      </c>
+      <c r="D11">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="E11">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="F11">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="G11">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="H11">
+        <v>0.26</v>
+      </c>
+      <c r="I11">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="J11">
+        <v>43</v>
+      </c>
+      <c r="K11">
+        <v>73.459999999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="20"/>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>38</v>
+      </c>
+      <c r="D12">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="E12">
+        <v>0.215</v>
+      </c>
+      <c r="F12">
+        <v>0.875</v>
+      </c>
+      <c r="G12">
+        <v>0.624</v>
+      </c>
+      <c r="H12">
+        <v>0.3</v>
+      </c>
+      <c r="I12">
+        <v>-0.13</v>
+      </c>
+      <c r="J12">
+        <v>30</v>
+      </c>
+      <c r="K12">
+        <v>76.38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="20"/>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="E13">
+        <v>0.248</v>
+      </c>
+      <c r="F13">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="G13">
+        <v>0.501</v>
+      </c>
+      <c r="H13">
+        <v>0.26</v>
+      </c>
+      <c r="I13">
+        <v>-0.16</v>
+      </c>
+      <c r="J13">
+        <v>15</v>
+      </c>
+      <c r="K13">
+        <v>79.17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="20"/>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="E14">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="F14">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="G14">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="H14">
+        <v>0.34</v>
+      </c>
+      <c r="I14">
+        <v>-0.01</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>90.48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="20"/>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="E15">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="F15">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="G15">
+        <v>0.499</v>
+      </c>
+      <c r="H15">
+        <v>0.33</v>
+      </c>
+      <c r="I15">
+        <v>0.11</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>90.91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="20"/>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="E16">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="F16">
+        <v>0.217</v>
+      </c>
+      <c r="G16">
+        <v>0.217</v>
+      </c>
+      <c r="H16">
+        <v>0.32</v>
+      </c>
+      <c r="I16">
+        <v>0.32</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="20"/>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="E17">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="F17">
+        <v>0.217</v>
+      </c>
+      <c r="G17">
+        <v>0.217</v>
+      </c>
+      <c r="H17">
+        <v>0.32</v>
+      </c>
+      <c r="I17">
+        <v>0.32</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="20"/>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18">
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="E18">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="F18">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="G18">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="H18">
+        <v>-0.02</v>
+      </c>
+      <c r="I18">
+        <v>-0.1</v>
+      </c>
+      <c r="J18">
+        <v>198</v>
+      </c>
+      <c r="K18">
+        <v>57.96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="20"/>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19">
+        <v>19</v>
+      </c>
+      <c r="D19">
+        <v>0.39</v>
+      </c>
+      <c r="E19">
+        <v>0.318</v>
+      </c>
+      <c r="F19">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G19">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>-0.15</v>
+      </c>
+      <c r="J19">
+        <v>183</v>
+      </c>
+      <c r="K19">
+        <v>60.98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="20"/>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20">
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="E20">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="F20">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="G20">
+        <v>0.255</v>
+      </c>
+      <c r="H20">
+        <v>-0.02</v>
+      </c>
+      <c r="I20">
+        <v>-0.15</v>
+      </c>
+      <c r="J20">
+        <v>171</v>
+      </c>
+      <c r="K20">
+        <v>61.74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="20"/>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21">
+        <v>17</v>
+      </c>
+      <c r="D21">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="E21">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="F21">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="G21">
+        <v>0.248</v>
+      </c>
+      <c r="H21">
+        <v>-0.01</v>
+      </c>
+      <c r="I21">
+        <v>-0.15</v>
+      </c>
+      <c r="J21">
+        <v>167</v>
+      </c>
+      <c r="K21">
+        <v>61.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="20"/>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22">
+        <v>17</v>
+      </c>
+      <c r="D22">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="E22">
+        <v>0.247</v>
+      </c>
+      <c r="F22">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="G22">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="H22">
+        <v>-0.02</v>
+      </c>
+      <c r="I22">
+        <v>-0.15</v>
+      </c>
+      <c r="J22">
+        <v>168</v>
+      </c>
+      <c r="K22">
+        <v>60.19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="20"/>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23">
+        <v>13</v>
+      </c>
+      <c r="D23">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="E23">
+        <v>0.23</v>
+      </c>
+      <c r="F23">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="G23">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="H23">
+        <v>-0.02</v>
+      </c>
+      <c r="I23">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="J23">
+        <v>162</v>
+      </c>
+      <c r="K23">
+        <v>57.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="20"/>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24">
+        <v>12</v>
+      </c>
+      <c r="D24">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="E24">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="F24">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="G24">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="H24">
+        <v>-0.03</v>
+      </c>
+      <c r="I24">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="J24">
+        <v>159</v>
+      </c>
+      <c r="K24">
+        <v>56.79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="20"/>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25">
+        <v>13</v>
+      </c>
+      <c r="D25">
+        <v>0.309</v>
+      </c>
+      <c r="E25">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="F25">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="G25">
+        <v>0.159</v>
+      </c>
+      <c r="H25">
+        <v>-0.06</v>
+      </c>
+      <c r="I25">
+        <v>-0.13</v>
+      </c>
+      <c r="J25">
+        <v>153</v>
+      </c>
+      <c r="K25">
+        <v>56.53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="20"/>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26">
+        <v>12</v>
+      </c>
+      <c r="D26">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="E26">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="F26">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="G26">
+        <v>0.152</v>
+      </c>
+      <c r="H26">
+        <v>-0.06</v>
+      </c>
+      <c r="I26">
+        <v>-0.12</v>
+      </c>
+      <c r="J26">
+        <v>147</v>
+      </c>
+      <c r="K26">
+        <v>57.02</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="20"/>
+      <c r="B27" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="14">
+        <v>12</v>
+      </c>
+      <c r="D27" s="14">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="E27" s="14">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="F27" s="14">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="G27" s="14">
+        <v>0.152</v>
+      </c>
+      <c r="H27" s="14">
+        <v>-0.06</v>
+      </c>
+      <c r="I27" s="14">
+        <v>-0.12</v>
+      </c>
+      <c r="J27" s="14">
+        <v>147</v>
+      </c>
+      <c r="K27" s="14">
+        <v>57.02</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28">
+        <v>17</v>
+      </c>
+      <c r="D28">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="E28">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="F28">
+        <v>0.504</v>
+      </c>
+      <c r="G28">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="H28">
+        <v>-0.17</v>
+      </c>
+      <c r="I28">
+        <v>-0.08</v>
+      </c>
+      <c r="J28">
+        <v>170</v>
+      </c>
+      <c r="K28">
+        <v>53.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="22"/>
+      <c r="B29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29">
+        <v>31</v>
+      </c>
+      <c r="D29">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="E29">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="F29">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="G29">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="H29">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I29">
+        <v>0.05</v>
+      </c>
+      <c r="J29">
+        <v>137</v>
+      </c>
+      <c r="K29">
+        <v>73.599999999999994</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="22"/>
+      <c r="B30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30">
+        <v>62</v>
+      </c>
+      <c r="D30">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="E30">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="F30">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="G30">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="H30">
+        <v>0.18</v>
+      </c>
+      <c r="I30">
+        <v>0.04</v>
+      </c>
+      <c r="J30">
+        <v>89</v>
+      </c>
+      <c r="K30">
+        <v>79.819999999999993</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="22"/>
+      <c r="B31" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31">
+        <v>90</v>
+      </c>
+      <c r="D31">
+        <v>0.6</v>
+      </c>
+      <c r="E31">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="F31">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="G31">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="H31">
+        <v>0.27</v>
+      </c>
+      <c r="I31">
+        <v>-0.08</v>
+      </c>
+      <c r="J31">
+        <v>87</v>
+      </c>
+      <c r="K31">
+        <v>76.03</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="22"/>
+      <c r="B32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32">
+        <v>84</v>
+      </c>
+      <c r="D32">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="E32">
+        <v>0.217</v>
+      </c>
+      <c r="F32">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="G32">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="H32">
+        <v>0.3</v>
+      </c>
+      <c r="I32">
+        <v>-0.12</v>
+      </c>
+      <c r="J32">
+        <v>75</v>
+      </c>
+      <c r="K32">
+        <v>75.959999999999994</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="22"/>
+      <c r="B33" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33">
+        <v>76</v>
+      </c>
+      <c r="D33">
+        <v>0.623</v>
+      </c>
+      <c r="E33">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="F33">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="G33">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="H33">
+        <v>0.32</v>
+      </c>
+      <c r="I33">
+        <v>-0.1</v>
+      </c>
+      <c r="J33">
+        <v>65</v>
+      </c>
+      <c r="K33">
+        <v>76.099999999999994</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="22"/>
+      <c r="B34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34">
+        <v>65</v>
+      </c>
+      <c r="D34">
+        <v>0.62</v>
+      </c>
+      <c r="E34">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="F34">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="G34">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="H34">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I34">
+        <v>-0.09</v>
+      </c>
+      <c r="J34">
+        <v>53</v>
+      </c>
+      <c r="K34">
+        <v>75.23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="22"/>
+      <c r="B35" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35">
+        <v>44</v>
+      </c>
+      <c r="D35">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="E35">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="F35">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="G35">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="H35">
+        <v>0.23</v>
+      </c>
+      <c r="I35">
+        <v>0.06</v>
+      </c>
+      <c r="J35">
+        <v>34</v>
+      </c>
+      <c r="K35">
+        <v>72.58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="22"/>
+      <c r="B36" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36">
+        <v>27</v>
+      </c>
+      <c r="D36">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="E36">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="F36">
+        <v>0.82</v>
+      </c>
+      <c r="G36">
+        <v>0.496</v>
+      </c>
+      <c r="H36">
+        <v>0.2</v>
+      </c>
+      <c r="I36">
+        <v>0.27</v>
+      </c>
+      <c r="J36">
+        <v>18</v>
+      </c>
+      <c r="K36">
+        <v>72.31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="22"/>
+      <c r="B37" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37">
+        <v>12</v>
+      </c>
+      <c r="D37">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="E37">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="F37">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>83</v>
+      </c>
+      <c r="I37" t="s">
+        <v>83</v>
+      </c>
+      <c r="J37">
+        <v>7</v>
+      </c>
+      <c r="K37">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="22"/>
+      <c r="B38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38">
+        <v>8</v>
+      </c>
+      <c r="D38">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="E38">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="F38">
+        <v>0.746</v>
+      </c>
+      <c r="G38">
+        <v>0.497</v>
+      </c>
+      <c r="H38">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I38">
+        <v>0.16</v>
+      </c>
+      <c r="J38">
+        <v>3</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="22"/>
+      <c r="B39" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39">
+        <v>21</v>
+      </c>
+      <c r="D39">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="E39">
+        <v>0.372</v>
+      </c>
+      <c r="F39">
+        <v>0.749</v>
+      </c>
+      <c r="G39">
+        <v>0.625</v>
+      </c>
+      <c r="H39">
+        <v>-0.03</v>
+      </c>
+      <c r="I39">
+        <v>0.02</v>
+      </c>
+      <c r="J39">
+        <v>178</v>
+      </c>
+      <c r="K39">
+        <v>68.989999999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="22"/>
+      <c r="B40" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40">
+        <v>22</v>
+      </c>
+      <c r="D40">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="E40">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="F40">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="G40">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="H40">
+        <v>-0.08</v>
+      </c>
+      <c r="I40">
+        <v>-0.02</v>
+      </c>
+      <c r="J40">
+        <v>200</v>
+      </c>
+      <c r="K40">
+        <v>64.849999999999994</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="22"/>
+      <c r="B41" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41">
+        <v>24</v>
+      </c>
+      <c r="D41">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="E41">
+        <v>0.182</v>
+      </c>
+      <c r="F41">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="G41">
+        <v>0.53</v>
+      </c>
+      <c r="H41">
+        <v>-0.09</v>
+      </c>
+      <c r="I41">
+        <v>-0.05</v>
+      </c>
+      <c r="J41">
+        <v>225</v>
+      </c>
+      <c r="K41">
+        <v>60.39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="22"/>
+      <c r="B42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42">
+        <v>26</v>
+      </c>
+      <c r="D42">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="E42">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="F42">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="G42">
+        <v>0.502</v>
+      </c>
+      <c r="H42">
+        <v>-0.08</v>
+      </c>
+      <c r="I42">
+        <v>-0.06</v>
+      </c>
+      <c r="J42">
+        <v>226</v>
+      </c>
+      <c r="K42">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="22"/>
+      <c r="B43" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43">
+        <v>24</v>
+      </c>
+      <c r="D43">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="E43">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="F43">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="G43">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="H43">
+        <v>-0.09</v>
+      </c>
+      <c r="I43">
+        <v>-0.06</v>
+      </c>
+      <c r="J43">
+        <v>248</v>
+      </c>
+      <c r="K43">
+        <v>55.87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="22"/>
+      <c r="B44" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44">
+        <v>27</v>
+      </c>
+      <c r="D44">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="E44">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="F44">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="G44">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="H44">
+        <v>-0.12</v>
+      </c>
+      <c r="I44">
+        <v>-0.06</v>
+      </c>
+      <c r="J44">
+        <v>204</v>
+      </c>
+      <c r="K44">
+        <v>61.14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="22"/>
+      <c r="B45" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45">
+        <v>25</v>
+      </c>
+      <c r="D45">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="E45">
+        <v>0.128</v>
+      </c>
+      <c r="F45">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="G45">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="H45">
+        <v>-0.15</v>
+      </c>
+      <c r="I45">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="J45">
+        <v>175</v>
+      </c>
+      <c r="K45">
+        <v>61.96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="22"/>
+      <c r="B46" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46">
+        <v>20</v>
+      </c>
+      <c r="D46">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="E46">
+        <v>0.122</v>
+      </c>
+      <c r="F46">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="G46">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="H46">
+        <v>-0.16</v>
+      </c>
+      <c r="I46">
+        <v>-0.13</v>
+      </c>
+      <c r="J46">
+        <v>180</v>
+      </c>
+      <c r="K46">
+        <v>57.24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="22"/>
+      <c r="B47" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47">
+        <v>20</v>
+      </c>
+      <c r="D47">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="E47">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="F47">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="G47">
+        <v>0.22</v>
+      </c>
+      <c r="H47">
+        <v>-0.17</v>
+      </c>
+      <c r="I47">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="J47">
+        <v>173</v>
+      </c>
+      <c r="K47">
+        <v>54.95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="22"/>
+      <c r="B48" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="14">
+        <v>19</v>
+      </c>
+      <c r="D48" s="14">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="E48" s="14">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="F48" s="14">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="G48" s="14">
+        <v>0.219</v>
+      </c>
+      <c r="H48" s="14">
+        <v>-0.17</v>
+      </c>
+      <c r="I48" s="14">
+        <v>-0.08</v>
+      </c>
+      <c r="J48" s="14">
+        <v>173</v>
+      </c>
+      <c r="K48" s="14">
+        <v>54.11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49">
+        <v>22</v>
+      </c>
+      <c r="D49">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="E49">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F49">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="G49">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="H49">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="I49">
+        <v>-0.24</v>
+      </c>
+      <c r="J49">
+        <v>1913</v>
+      </c>
+      <c r="K49">
+        <v>38.78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="27"/>
+      <c r="B50" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50">
+        <v>120</v>
+      </c>
+      <c r="D50">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="E50">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="F50">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="G50">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>-0.2</v>
+      </c>
+      <c r="J50">
+        <v>670</v>
+      </c>
+      <c r="K50">
+        <v>50.07</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="27"/>
+      <c r="B51" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51">
+        <v>218</v>
+      </c>
+      <c r="D51">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="E51">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F51">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="G51">
+        <v>0.496</v>
+      </c>
+      <c r="H51">
+        <v>0.18</v>
+      </c>
+      <c r="I51">
+        <v>-0.1</v>
+      </c>
+      <c r="J51">
+        <v>452</v>
+      </c>
+      <c r="K51">
+        <v>58.57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="27"/>
+      <c r="B52" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52">
+        <v>203</v>
+      </c>
+      <c r="D52">
+        <v>0.61</v>
+      </c>
+      <c r="E52">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F52">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="G52">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="H52">
+        <v>0.25</v>
+      </c>
+      <c r="I52">
+        <v>-0.11</v>
+      </c>
+      <c r="J52">
+        <v>321</v>
+      </c>
+      <c r="K52">
+        <v>60.07</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="27"/>
+      <c r="B53" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53">
+        <v>160</v>
+      </c>
+      <c r="D53">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="E53">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="F53">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="G53">
+        <v>0.504</v>
+      </c>
+      <c r="H53">
+        <v>0.25</v>
+      </c>
+      <c r="I53">
+        <v>-0.13</v>
+      </c>
+      <c r="J53">
+        <v>228</v>
+      </c>
+      <c r="K53">
+        <v>60.89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="27"/>
+      <c r="B54" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54">
+        <v>140</v>
+      </c>
+      <c r="D54">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="E54">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="F54">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="G54">
+        <v>0.376</v>
+      </c>
+      <c r="H54">
+        <v>0.25</v>
+      </c>
+      <c r="I54">
+        <v>-0.24</v>
+      </c>
+      <c r="J54">
+        <v>200</v>
+      </c>
+      <c r="K54">
+        <v>59.18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="27"/>
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55">
+        <v>86</v>
+      </c>
+      <c r="D55">
+        <v>0.6</v>
+      </c>
+      <c r="E55">
+        <v>0.372</v>
+      </c>
+      <c r="F55">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="G55">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="H55">
+        <v>0.2</v>
+      </c>
+      <c r="I55">
+        <v>-0.15</v>
+      </c>
+      <c r="J55">
+        <v>86</v>
+      </c>
+      <c r="K55">
+        <v>62.61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="27"/>
+      <c r="B56" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56">
+        <v>64</v>
+      </c>
+      <c r="D56">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="E56">
+        <v>0.443</v>
+      </c>
+      <c r="F56">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="G56">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="H56">
+        <v>0.19</v>
+      </c>
+      <c r="I56">
+        <v>-0.06</v>
+      </c>
+      <c r="J56">
+        <v>60</v>
+      </c>
+      <c r="K56">
+        <v>62.26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="27"/>
+      <c r="B57" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57">
+        <v>51</v>
+      </c>
+      <c r="D57">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="E57">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="F57">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="G57">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="H57">
+        <v>0.18</v>
+      </c>
+      <c r="I57">
+        <v>-0.04</v>
+      </c>
+      <c r="J57">
+        <v>47</v>
+      </c>
+      <c r="K57">
+        <v>60.83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="27"/>
+      <c r="B58" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58">
+        <v>51</v>
+      </c>
+      <c r="D58">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="E58">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="F58">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="G58">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="H58">
+        <v>0.18</v>
+      </c>
+      <c r="I58">
+        <v>-0.04</v>
+      </c>
+      <c r="J58">
+        <v>47</v>
+      </c>
+      <c r="K58">
+        <v>60.83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="27"/>
+      <c r="B59" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59">
+        <v>51</v>
+      </c>
+      <c r="D59">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="E59">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="F59">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="G59">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="H59">
+        <v>0.18</v>
+      </c>
+      <c r="I59">
+        <v>-0.04</v>
+      </c>
+      <c r="J59">
+        <v>47</v>
+      </c>
+      <c r="K59">
+        <v>60.83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="27"/>
+      <c r="B60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60">
+        <v>21</v>
+      </c>
+      <c r="D60">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="E60">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="F60">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="G60">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="H60">
+        <v>-0.27</v>
+      </c>
+      <c r="I60">
+        <v>-0.24</v>
+      </c>
+      <c r="J60">
+        <v>2105</v>
+      </c>
+      <c r="K60">
+        <v>39.630000000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="27"/>
+      <c r="B61" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61">
+        <v>25</v>
+      </c>
+      <c r="D61">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="E61">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="F61">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="G61">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="H61">
+        <v>-0.27</v>
+      </c>
+      <c r="I61">
+        <v>-0.25</v>
+      </c>
+      <c r="J61">
+        <v>2048</v>
+      </c>
+      <c r="K61">
+        <v>40.880000000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="27"/>
+      <c r="B62" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62">
+        <v>26</v>
+      </c>
+      <c r="D62">
+        <v>0.34</v>
+      </c>
+      <c r="E62">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="F62">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="G62">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="H62">
+        <v>-0.27</v>
+      </c>
+      <c r="I62">
+        <v>-0.25</v>
+      </c>
+      <c r="J62">
+        <v>1976</v>
+      </c>
+      <c r="K62">
+        <v>41.92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="27"/>
+      <c r="B63" t="s">
+        <v>70</v>
+      </c>
+      <c r="C63">
+        <v>30</v>
+      </c>
+      <c r="D63">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="E63">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="F63">
+        <v>0.624</v>
+      </c>
+      <c r="G63">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="H63">
+        <v>-0.27</v>
+      </c>
+      <c r="I63">
+        <v>-0.24</v>
+      </c>
+      <c r="J63">
+        <v>1939</v>
+      </c>
+      <c r="K63">
+        <v>41.89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="27"/>
+      <c r="B64" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64">
+        <v>23</v>
+      </c>
+      <c r="D64">
+        <v>0.33</v>
+      </c>
+      <c r="E64">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="F64">
+        <v>0.622</v>
+      </c>
+      <c r="G64">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="H64">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="I64">
+        <v>-0.25</v>
+      </c>
+      <c r="J64">
+        <v>1952</v>
+      </c>
+      <c r="K64">
+        <v>40.51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="27"/>
+      <c r="B65" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65">
+        <v>18</v>
+      </c>
+      <c r="D65">
+        <v>0.223</v>
+      </c>
+      <c r="E65">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F65">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="G65">
+        <v>0.216</v>
+      </c>
+      <c r="H65">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="I65">
+        <v>-0.25</v>
+      </c>
+      <c r="J65">
+        <v>1957</v>
+      </c>
+      <c r="K65">
+        <v>39.049999999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="27"/>
+      <c r="B66" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66">
+        <v>24</v>
+      </c>
+      <c r="D66">
+        <v>0.22</v>
+      </c>
+      <c r="E66">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="F66">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="G66">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="H66">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="I66">
+        <v>-0.24</v>
+      </c>
+      <c r="J66">
+        <v>1906</v>
+      </c>
+      <c r="K66">
+        <v>40.01</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="27"/>
+      <c r="B67" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67">
+        <v>23</v>
+      </c>
+      <c r="D67">
+        <v>0.192</v>
+      </c>
+      <c r="E67">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="F67">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="G67">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="H67">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="I67">
+        <v>-0.25</v>
+      </c>
+      <c r="J67">
+        <v>1894</v>
+      </c>
+      <c r="K67">
+        <v>39.950000000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="27"/>
+      <c r="B68" t="s">
+        <v>75</v>
+      </c>
+      <c r="C68">
+        <v>23</v>
+      </c>
+      <c r="D68">
+        <v>0.192</v>
+      </c>
+      <c r="E68">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="F68">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="G68">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="H68">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="I68">
+        <v>-0.25</v>
+      </c>
+      <c r="J68">
+        <v>1894</v>
+      </c>
+      <c r="K68">
+        <v>39.950000000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="27"/>
+      <c r="B69" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69">
+        <v>23</v>
+      </c>
+      <c r="D69">
+        <v>0.192</v>
+      </c>
+      <c r="E69">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="F69">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="G69">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="H69">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="I69">
+        <v>-0.25</v>
+      </c>
+      <c r="J69">
+        <v>1894</v>
+      </c>
+      <c r="K69">
+        <v>39.950000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A27"/>
+    <mergeCell ref="A28:A48"/>
+    <mergeCell ref="A49:A69"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{6006a9c5-d130-408c-bc8e-3b5ecdb17aa0}" enabled="1" method="Standard" siteId="{8d4b558f-7b2e-40ba-ad1f-e04d79e6265a}" contentBits="2" removed="0"/>

--- a/results/results_05.09.2023.xlsx
+++ b/results/results_05.09.2023.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Util\doctorat\PhdProject\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5A3CCD-C1DC-4F7C-9961-C75FC8EF0800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B7D7BD-18DD-4798-BFEC-250C7048EBA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="05.09" sheetId="14" r:id="rId1"/>
     <sheet name="15.09" sheetId="15" r:id="rId2"/>
     <sheet name="27.09" sheetId="16" r:id="rId3"/>
-    <sheet name="27.09(1)" sheetId="17" r:id="rId4"/>
+    <sheet name="07.10- with weights" sheetId="18" r:id="rId4"/>
+    <sheet name="07.10 - with max weights" sheetId="19" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'15.09'!#REF!</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="83">
   <si>
     <t>Ant</t>
   </si>
@@ -321,9 +322,6 @@
                     Ref: 25</t>
     </r>
   </si>
-  <si>
-    <t>na</t>
-  </si>
 </sst>
 </file>
 
@@ -368,7 +366,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -390,6 +388,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -493,6 +497,16 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -508,13 +522,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -526,13 +537,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -837,40 +843,40 @@
     <row r="1" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15" t="s">
+      <c r="F3" s="19"/>
+      <c r="G3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15" t="s">
+      <c r="H3" s="19"/>
+      <c r="I3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="15"/>
+      <c r="J3" s="19"/>
     </row>
     <row r="4" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="21"/>
+      <c r="E4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="16" t="s">
+      <c r="F4" s="21"/>
+      <c r="G4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18" t="s">
+      <c r="H4" s="21"/>
+      <c r="I4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="19"/>
+      <c r="J4" s="23"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
@@ -899,7 +905,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -931,7 +937,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
@@ -961,7 +967,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
+      <c r="A8" s="16"/>
       <c r="B8" t="s">
         <v>14</v>
       </c>
@@ -991,7 +997,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
+      <c r="A9" s="16"/>
       <c r="B9" t="s">
         <v>15</v>
       </c>
@@ -1021,7 +1027,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
+      <c r="A10" s="16"/>
       <c r="B10" t="s">
         <v>16</v>
       </c>
@@ -1051,7 +1057,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
+      <c r="A11" s="16"/>
       <c r="B11" t="s">
         <v>17</v>
       </c>
@@ -1081,7 +1087,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
+      <c r="A12" s="16"/>
       <c r="B12" t="s">
         <v>18</v>
       </c>
@@ -1114,7 +1120,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
+      <c r="A13" s="16"/>
       <c r="B13" t="s">
         <v>19</v>
       </c>
@@ -1144,7 +1150,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
+      <c r="A14" s="16"/>
       <c r="B14" t="s">
         <v>20</v>
       </c>
@@ -1174,7 +1180,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
+      <c r="A15" s="16"/>
       <c r="B15" t="s">
         <v>21</v>
       </c>
@@ -1204,7 +1210,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
+      <c r="A16" s="16"/>
       <c r="B16" t="s">
         <v>22</v>
       </c>
@@ -1234,7 +1240,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
+      <c r="A17" s="16"/>
       <c r="B17" t="s">
         <v>23</v>
       </c>
@@ -1264,7 +1270,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
+      <c r="A18" s="16"/>
       <c r="B18" t="s">
         <v>24</v>
       </c>
@@ -1294,7 +1300,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
+      <c r="A19" s="16"/>
       <c r="B19" t="s">
         <v>25</v>
       </c>
@@ -1324,7 +1330,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
+      <c r="A20" s="16"/>
       <c r="B20" t="s">
         <v>26</v>
       </c>
@@ -1354,7 +1360,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
+      <c r="A21" s="16"/>
       <c r="B21" t="s">
         <v>27</v>
       </c>
@@ -1384,7 +1390,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
+      <c r="A22" s="16"/>
       <c r="B22" t="s">
         <v>28</v>
       </c>
@@ -1414,7 +1420,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
+      <c r="A23" s="16"/>
       <c r="B23" t="s">
         <v>29</v>
       </c>
@@ -1444,7 +1450,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
+      <c r="A24" s="16"/>
       <c r="B24" t="s">
         <v>30</v>
       </c>
@@ -1474,7 +1480,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
+      <c r="A25" s="16"/>
       <c r="B25" t="s">
         <v>31</v>
       </c>
@@ -1504,7 +1510,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
+      <c r="A26" s="16"/>
       <c r="B26" t="s">
         <v>32</v>
       </c>
@@ -1534,7 +1540,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="17" t="s">
         <v>54</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -1566,7 +1572,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="3" t="s">
         <v>34</v>
       </c>
@@ -1596,7 +1602,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="22"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="3" t="s">
         <v>35</v>
       </c>
@@ -1626,7 +1632,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="3" t="s">
         <v>36</v>
       </c>
@@ -1656,7 +1662,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="3" t="s">
         <v>37</v>
       </c>
@@ -1686,7 +1692,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="22"/>
+      <c r="A32" s="18"/>
       <c r="B32" s="3" t="s">
         <v>38</v>
       </c>
@@ -1716,7 +1722,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="22"/>
+      <c r="A33" s="18"/>
       <c r="B33" s="3" t="s">
         <v>39</v>
       </c>
@@ -1746,7 +1752,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="22"/>
+      <c r="A34" s="18"/>
       <c r="B34" s="3" t="s">
         <v>40</v>
       </c>
@@ -1776,7 +1782,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="22"/>
+      <c r="A35" s="18"/>
       <c r="B35" s="3" t="s">
         <v>41</v>
       </c>
@@ -1806,7 +1812,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="22"/>
+      <c r="A36" s="18"/>
       <c r="B36" s="3" t="s">
         <v>42</v>
       </c>
@@ -1836,7 +1842,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="22"/>
+      <c r="A37" s="18"/>
       <c r="B37" s="3" t="s">
         <v>43</v>
       </c>
@@ -1866,7 +1872,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="22"/>
+      <c r="A38" s="18"/>
       <c r="B38" s="3" t="s">
         <v>44</v>
       </c>
@@ -1896,7 +1902,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="22"/>
+      <c r="A39" s="18"/>
       <c r="B39" s="3" t="s">
         <v>45</v>
       </c>
@@ -1926,7 +1932,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="22"/>
+      <c r="A40" s="18"/>
       <c r="B40" s="3" t="s">
         <v>46</v>
       </c>
@@ -1956,7 +1962,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="22"/>
+      <c r="A41" s="18"/>
       <c r="B41" s="3" t="s">
         <v>47</v>
       </c>
@@ -1986,7 +1992,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="22"/>
+      <c r="A42" s="18"/>
       <c r="B42" s="3" t="s">
         <v>48</v>
       </c>
@@ -2016,7 +2022,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="22"/>
+      <c r="A43" s="18"/>
       <c r="B43" s="3" t="s">
         <v>49</v>
       </c>
@@ -2046,7 +2052,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="22"/>
+      <c r="A44" s="18"/>
       <c r="B44" s="3" t="s">
         <v>50</v>
       </c>
@@ -2076,7 +2082,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="22"/>
+      <c r="A45" s="18"/>
       <c r="B45" s="3" t="s">
         <v>51</v>
       </c>
@@ -2106,7 +2112,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="22"/>
+      <c r="A46" s="18"/>
       <c r="B46" s="3" t="s">
         <v>52</v>
       </c>
@@ -2136,7 +2142,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="22"/>
+      <c r="A47" s="18"/>
       <c r="B47" s="3" t="s">
         <v>53</v>
       </c>
@@ -2779,16 +2785,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
     <mergeCell ref="A6:A26"/>
     <mergeCell ref="A27:A47"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2810,40 +2816,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15" t="s">
+      <c r="E1" s="19"/>
+      <c r="F1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15" t="s">
+      <c r="G1" s="19"/>
+      <c r="H1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="15"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="16" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18" t="s">
+      <c r="G2" s="21"/>
+      <c r="H2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="19"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
@@ -2977,8 +2983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FFD26E6-0CB1-4054-9878-76A8CF2BB465}">
   <dimension ref="A2:P69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2999,32 +3005,32 @@
       <c r="P3" s="10"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="23" t="s">
+      <c r="E4" s="19"/>
+      <c r="F4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23" t="s">
+      <c r="G4" s="26"/>
+      <c r="H4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="23"/>
+      <c r="I4" s="26"/>
     </row>
     <row r="5" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="25" t="s">
+      <c r="E5" s="27"/>
+      <c r="F5" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="24" t="s">
+      <c r="G5" s="28"/>
+      <c r="H5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="24"/>
+      <c r="I5" s="27"/>
     </row>
     <row r="6" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="11" t="s">
@@ -3056,42 +3062,42 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="15">
         <v>11</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="15">
         <v>0.19500000000000001</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="15">
         <v>0.246</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="15">
         <v>0.44</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="15">
         <v>0.154</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="15">
         <v>-0.05</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="15">
         <v>-0.09</v>
       </c>
-      <c r="J7" s="28">
+      <c r="J7" s="15">
         <v>163</v>
       </c>
-      <c r="K7" s="28">
+      <c r="K7" s="15">
         <v>51.05</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
+      <c r="A8" s="16"/>
       <c r="B8" t="s">
         <v>13</v>
       </c>
@@ -3124,7 +3130,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
+      <c r="A9" s="16"/>
       <c r="B9" t="s">
         <v>14</v>
       </c>
@@ -3157,7 +3163,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
+      <c r="A10" s="16"/>
       <c r="B10" t="s">
         <v>15</v>
       </c>
@@ -3190,7 +3196,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
+      <c r="A11" s="16"/>
       <c r="B11" t="s">
         <v>16</v>
       </c>
@@ -3223,7 +3229,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
+      <c r="A12" s="16"/>
       <c r="B12" t="s">
         <v>17</v>
       </c>
@@ -3256,7 +3262,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
+      <c r="A13" s="16"/>
       <c r="B13" t="s">
         <v>18</v>
       </c>
@@ -3289,7 +3295,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
+      <c r="A14" s="16"/>
       <c r="B14" t="s">
         <v>19</v>
       </c>
@@ -3322,7 +3328,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
+      <c r="A15" s="16"/>
       <c r="B15" t="s">
         <v>20</v>
       </c>
@@ -3355,7 +3361,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
+      <c r="A16" s="16"/>
       <c r="B16" t="s">
         <v>21</v>
       </c>
@@ -3388,7 +3394,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
+      <c r="A17" s="16"/>
       <c r="B17" t="s">
         <v>22</v>
       </c>
@@ -3421,7 +3427,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
+      <c r="A18" s="16"/>
       <c r="B18" t="s">
         <v>23</v>
       </c>
@@ -3454,7 +3460,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
+      <c r="A19" s="16"/>
       <c r="B19" t="s">
         <v>24</v>
       </c>
@@ -3487,7 +3493,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
+      <c r="A20" s="16"/>
       <c r="B20" t="s">
         <v>25</v>
       </c>
@@ -3520,7 +3526,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
+      <c r="A21" s="16"/>
       <c r="B21" t="s">
         <v>26</v>
       </c>
@@ -3553,7 +3559,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
+      <c r="A22" s="16"/>
       <c r="B22" t="s">
         <v>27</v>
       </c>
@@ -3586,7 +3592,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
+      <c r="A23" s="16"/>
       <c r="B23" t="s">
         <v>28</v>
       </c>
@@ -3619,7 +3625,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
+      <c r="A24" s="16"/>
       <c r="B24" t="s">
         <v>29</v>
       </c>
@@ -3652,7 +3658,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
+      <c r="A25" s="16"/>
       <c r="B25" t="s">
         <v>30</v>
       </c>
@@ -3685,7 +3691,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
+      <c r="A26" s="16"/>
       <c r="B26" t="s">
         <v>31</v>
       </c>
@@ -3718,7 +3724,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="14" t="s">
         <v>32</v>
       </c>
@@ -3751,7 +3757,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="17" t="s">
         <v>54</v>
       </c>
       <c r="B28" s="13" t="s">
@@ -3781,12 +3787,12 @@
       <c r="J28">
         <v>181</v>
       </c>
-      <c r="K28" s="28">
+      <c r="K28" s="15">
         <v>50.55</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="22"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="3" t="s">
         <v>34</v>
       </c>
@@ -3819,7 +3825,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="3" t="s">
         <v>35</v>
       </c>
@@ -3852,7 +3858,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="3" t="s">
         <v>36</v>
       </c>
@@ -3885,7 +3891,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="22"/>
+      <c r="A32" s="18"/>
       <c r="B32" s="3" t="s">
         <v>37</v>
       </c>
@@ -3918,7 +3924,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="22"/>
+      <c r="A33" s="18"/>
       <c r="B33" s="3" t="s">
         <v>38</v>
       </c>
@@ -3951,7 +3957,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="22"/>
+      <c r="A34" s="18"/>
       <c r="B34" s="3" t="s">
         <v>39</v>
       </c>
@@ -3984,7 +3990,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="22"/>
+      <c r="A35" s="18"/>
       <c r="B35" s="3" t="s">
         <v>40</v>
       </c>
@@ -4017,7 +4023,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="22"/>
+      <c r="A36" s="18"/>
       <c r="B36" s="3" t="s">
         <v>41</v>
       </c>
@@ -4050,7 +4056,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="22"/>
+      <c r="A37" s="18"/>
       <c r="B37" s="3" t="s">
         <v>42</v>
       </c>
@@ -4083,7 +4089,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="22"/>
+      <c r="A38" s="18"/>
       <c r="B38" s="3" t="s">
         <v>43</v>
       </c>
@@ -4116,7 +4122,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="22"/>
+      <c r="A39" s="18"/>
       <c r="B39" s="3" t="s">
         <v>44</v>
       </c>
@@ -4149,7 +4155,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="22"/>
+      <c r="A40" s="18"/>
       <c r="B40" s="3" t="s">
         <v>45</v>
       </c>
@@ -4182,7 +4188,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="22"/>
+      <c r="A41" s="18"/>
       <c r="B41" s="3" t="s">
         <v>46</v>
       </c>
@@ -4215,7 +4221,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="22"/>
+      <c r="A42" s="18"/>
       <c r="B42" s="3" t="s">
         <v>47</v>
       </c>
@@ -4248,7 +4254,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="22"/>
+      <c r="A43" s="18"/>
       <c r="B43" s="3" t="s">
         <v>48</v>
       </c>
@@ -4281,7 +4287,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="22"/>
+      <c r="A44" s="18"/>
       <c r="B44" s="3" t="s">
         <v>49</v>
       </c>
@@ -4314,7 +4320,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="22"/>
+      <c r="A45" s="18"/>
       <c r="B45" s="3" t="s">
         <v>50</v>
       </c>
@@ -4347,7 +4353,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="22"/>
+      <c r="A46" s="18"/>
       <c r="B46" s="3" t="s">
         <v>51</v>
       </c>
@@ -4380,7 +4386,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="22"/>
+      <c r="A47" s="18"/>
       <c r="B47" s="3" t="s">
         <v>52</v>
       </c>
@@ -4413,7 +4419,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="22"/>
+      <c r="A48" s="18"/>
       <c r="B48" s="14" t="s">
         <v>53</v>
       </c>
@@ -4446,7 +4452,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="26" t="s">
+      <c r="A49" s="24" t="s">
         <v>78</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -4481,7 +4487,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="27"/>
+      <c r="A50" s="25"/>
       <c r="B50" s="3" t="s">
         <v>62</v>
       </c>
@@ -4514,7 +4520,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="27"/>
+      <c r="A51" s="25"/>
       <c r="B51" s="3" t="s">
         <v>63</v>
       </c>
@@ -4547,7 +4553,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="27"/>
+      <c r="A52" s="25"/>
       <c r="B52" t="s">
         <v>64</v>
       </c>
@@ -4580,7 +4586,7 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="27"/>
+      <c r="A53" s="25"/>
       <c r="B53" t="s">
         <v>65</v>
       </c>
@@ -4613,7 +4619,7 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="27"/>
+      <c r="A54" s="25"/>
       <c r="B54" t="s">
         <v>66</v>
       </c>
@@ -4646,7 +4652,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="27"/>
+      <c r="A55" s="25"/>
       <c r="B55" t="s">
         <v>57</v>
       </c>
@@ -4679,7 +4685,7 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="27"/>
+      <c r="A56" s="25"/>
       <c r="B56" t="s">
         <v>58</v>
       </c>
@@ -4712,7 +4718,7 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="27"/>
+      <c r="A57" s="25"/>
       <c r="B57" t="s">
         <v>59</v>
       </c>
@@ -4745,7 +4751,7 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="27"/>
+      <c r="A58" s="25"/>
       <c r="B58" t="s">
         <v>60</v>
       </c>
@@ -4778,7 +4784,7 @@
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="27"/>
+      <c r="A59" s="25"/>
       <c r="B59" t="s">
         <v>61</v>
       </c>
@@ -4811,7 +4817,7 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="27"/>
+      <c r="A60" s="25"/>
       <c r="B60" t="s">
         <v>67</v>
       </c>
@@ -4844,7 +4850,7 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="27"/>
+      <c r="A61" s="25"/>
       <c r="B61" t="s">
         <v>68</v>
       </c>
@@ -4877,7 +4883,7 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="27"/>
+      <c r="A62" s="25"/>
       <c r="B62" t="s">
         <v>69</v>
       </c>
@@ -4910,7 +4916,7 @@
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="27"/>
+      <c r="A63" s="25"/>
       <c r="B63" t="s">
         <v>70</v>
       </c>
@@ -4943,7 +4949,7 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="27"/>
+      <c r="A64" s="25"/>
       <c r="B64" t="s">
         <v>71</v>
       </c>
@@ -4976,7 +4982,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="27"/>
+      <c r="A65" s="25"/>
       <c r="B65" t="s">
         <v>72</v>
       </c>
@@ -5009,7 +5015,7 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="27"/>
+      <c r="A66" s="25"/>
       <c r="B66" t="s">
         <v>73</v>
       </c>
@@ -5042,7 +5048,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="27"/>
+      <c r="A67" s="25"/>
       <c r="B67" t="s">
         <v>74</v>
       </c>
@@ -5075,7 +5081,7 @@
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="27"/>
+      <c r="A68" s="25"/>
       <c r="B68" t="s">
         <v>75</v>
       </c>
@@ -5108,7 +5114,7 @@
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="27"/>
+      <c r="A69" s="25"/>
       <c r="B69" t="s">
         <v>76</v>
       </c>
@@ -5142,7 +5148,6 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A7:A27"/>
     <mergeCell ref="A28:A48"/>
     <mergeCell ref="A49:A69"/>
     <mergeCell ref="D4:E4"/>
@@ -5151,6 +5156,7 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A7:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -5158,11 +5164,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34265227-4C04-456C-8B55-FDAF59849B87}">
-  <dimension ref="A4:K69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C11BEF-538B-47EB-9986-8833C6A022D1}">
+  <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16:K17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5170,2162 +5176,4332 @@
     <col min="2" max="2" width="32.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="19"/>
+      <c r="F1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="26"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D2" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="27"/>
+      <c r="F2" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="28"/>
+      <c r="H2" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="27"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C3" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="15">
+        <v>13</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="H4" s="15">
+        <v>-0.16</v>
+      </c>
+      <c r="I4" s="15">
+        <v>-0.26</v>
+      </c>
+      <c r="J4" s="15">
+        <v>125</v>
+      </c>
+      <c r="K4" s="15">
+        <v>62.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16"/>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>55</v>
+      </c>
+      <c r="D5">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="E5">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="F5">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="G5">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="H5">
+        <v>-0.11</v>
+      </c>
+      <c r="I5">
+        <v>-0.36</v>
+      </c>
+      <c r="J5">
+        <v>93</v>
+      </c>
+      <c r="K5">
+        <v>70.099999999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="16"/>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>53</v>
+      </c>
+      <c r="D6">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="E6">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="F6">
+        <v>0.77</v>
+      </c>
+      <c r="G6">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="H6">
+        <v>0.01</v>
+      </c>
+      <c r="I6">
+        <v>-0.42</v>
+      </c>
+      <c r="J6">
+        <v>63</v>
+      </c>
+      <c r="K6">
+        <v>69.709999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="16"/>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>44</v>
+      </c>
+      <c r="D7">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="E7">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="F7">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="G7">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="H7">
+        <v>0.09</v>
+      </c>
+      <c r="I7">
+        <v>-0.38</v>
+      </c>
+      <c r="J7">
+        <v>46</v>
+      </c>
+      <c r="K7">
+        <v>72.62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="16"/>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>40</v>
+      </c>
+      <c r="D8">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="E8">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="F8">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="G8">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="H8">
+        <v>0.11</v>
+      </c>
+      <c r="I8">
+        <v>-0.32</v>
+      </c>
+      <c r="J8">
+        <v>42</v>
+      </c>
+      <c r="K8">
+        <v>71.430000000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="16"/>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>35</v>
+      </c>
+      <c r="D9">
+        <v>0.625</v>
+      </c>
+      <c r="E9">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="F9">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="G9">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="H9">
+        <v>0.15</v>
+      </c>
+      <c r="I9">
+        <v>-0.3</v>
+      </c>
+      <c r="J9">
+        <v>34</v>
+      </c>
+      <c r="K9">
+        <v>74.44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="16"/>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>34</v>
+      </c>
+      <c r="D10">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="E10">
+        <v>0.24</v>
+      </c>
+      <c r="F10">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="G10">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="H10">
+        <v>0.12</v>
+      </c>
+      <c r="I10">
+        <v>-0.33</v>
+      </c>
+      <c r="J10">
+        <v>32</v>
+      </c>
+      <c r="K10">
+        <v>72.17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="16"/>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11">
+        <v>32</v>
+      </c>
+      <c r="D11">
+        <v>0.61</v>
+      </c>
+      <c r="E11">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="F11">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="G11">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="H11">
+        <v>0.11</v>
+      </c>
+      <c r="I11">
+        <v>-0.31</v>
+      </c>
+      <c r="J11">
+        <v>28</v>
+      </c>
+      <c r="K11">
+        <v>72.55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="16"/>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>29</v>
+      </c>
+      <c r="D12">
+        <v>0.61</v>
+      </c>
+      <c r="E12">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="F12">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="G12">
+        <v>0.318</v>
+      </c>
+      <c r="H12">
+        <v>0.13</v>
+      </c>
+      <c r="I12">
+        <v>0.01</v>
+      </c>
+      <c r="J12">
+        <v>27</v>
+      </c>
+      <c r="K12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="E13">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="F13">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="G13">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="H13">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>22</v>
+      </c>
+      <c r="K13">
+        <v>71.430000000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14">
+        <v>19</v>
+      </c>
+      <c r="D14">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="E14">
+        <v>0.121</v>
+      </c>
+      <c r="F14">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="G14">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="H14">
+        <v>0.17</v>
+      </c>
+      <c r="I14">
+        <v>0.06</v>
+      </c>
+      <c r="J14">
+        <v>17</v>
+      </c>
+      <c r="K14">
+        <v>72.58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>0.247</v>
+      </c>
+      <c r="E15">
+        <v>0.312</v>
+      </c>
+      <c r="F15">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="G15">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="H15">
+        <v>-0.4</v>
+      </c>
+      <c r="I15">
+        <v>-0.4</v>
+      </c>
+      <c r="J15">
+        <v>158</v>
+      </c>
+      <c r="K15">
+        <v>65.12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="16"/>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="E16">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="F16">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="G16">
+        <v>0.214</v>
+      </c>
+      <c r="H16">
+        <v>-0.35</v>
+      </c>
+      <c r="I16">
+        <v>-0.31</v>
+      </c>
+      <c r="J16">
+        <v>176</v>
+      </c>
+      <c r="K16">
+        <v>60.18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="16"/>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>0.311</v>
+      </c>
+      <c r="E17">
+        <v>0.255</v>
+      </c>
+      <c r="F17">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="G17">
+        <v>0.217</v>
+      </c>
+      <c r="H17">
+        <v>-0.32</v>
+      </c>
+      <c r="I17">
+        <v>-0.31</v>
+      </c>
+      <c r="J17">
+        <v>166</v>
+      </c>
+      <c r="K17">
+        <v>61.66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="16"/>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18">
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <v>0.248</v>
+      </c>
+      <c r="E18">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="F18">
+        <v>0.54</v>
+      </c>
+      <c r="G18">
+        <v>0.221</v>
+      </c>
+      <c r="H18">
+        <v>-0.36</v>
+      </c>
+      <c r="I18">
+        <v>-0.31</v>
+      </c>
+      <c r="J18">
+        <v>176</v>
+      </c>
+      <c r="K18">
+        <v>58.97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="16"/>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="E19">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="F19">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="G19">
+        <v>0.222</v>
+      </c>
+      <c r="H19">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="I19">
+        <v>-0.31</v>
+      </c>
+      <c r="J19">
+        <v>173</v>
+      </c>
+      <c r="K19">
+        <v>59.29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="16"/>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20">
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="E20">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="F20">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="G20">
+        <v>0.221</v>
+      </c>
+      <c r="H20">
+        <v>-0.13</v>
+      </c>
+      <c r="I20">
+        <v>-0.3</v>
+      </c>
+      <c r="J20">
+        <v>155</v>
+      </c>
+      <c r="K20">
+        <v>62.29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="16"/>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21">
+        <v>13</v>
+      </c>
+      <c r="D21">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="E21">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="F21">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="G21">
+        <v>0.222</v>
+      </c>
+      <c r="H21">
+        <v>-0.13</v>
+      </c>
+      <c r="I21">
+        <v>-0.3</v>
+      </c>
+      <c r="J21">
+        <v>156</v>
+      </c>
+      <c r="K21">
+        <v>61.29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="16"/>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22">
+        <v>13</v>
+      </c>
+      <c r="D22">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="E22">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="F22">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="G22">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="H22">
+        <v>-0.13</v>
+      </c>
+      <c r="I22">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="J22">
+        <v>137</v>
+      </c>
+      <c r="K22" s="15">
+        <v>65.23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="16"/>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23">
+        <v>13</v>
+      </c>
+      <c r="D23">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="E23">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="F23">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="G23">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="H23">
+        <v>-0.13</v>
+      </c>
+      <c r="I23">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="J23">
+        <v>133</v>
+      </c>
+      <c r="K23" s="15">
+        <v>65.81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="16"/>
+      <c r="B24" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="14">
+        <v>12</v>
+      </c>
+      <c r="D24" s="14">
+        <v>0.183</v>
+      </c>
+      <c r="E24" s="14">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="F24" s="14">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="G24" s="14">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="H24" s="14">
+        <v>-0.15</v>
+      </c>
+      <c r="I24" s="14">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="J24" s="14">
+        <v>164</v>
+      </c>
+      <c r="K24" s="14">
+        <v>56.84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>16</v>
+      </c>
+      <c r="D25">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="E25">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="F25">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="G25">
+        <v>0.221</v>
+      </c>
+      <c r="H25">
+        <v>-0.36</v>
+      </c>
+      <c r="I25">
+        <v>-0.16</v>
+      </c>
+      <c r="J25" s="15">
+        <v>147</v>
+      </c>
+      <c r="K25" s="15">
+        <v>60.59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="18"/>
+      <c r="B26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26">
+        <v>40</v>
+      </c>
+      <c r="D26">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="E26">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="F26">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="G26">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="H26">
+        <v>-0.06</v>
+      </c>
+      <c r="I26">
+        <v>-0.27</v>
+      </c>
+      <c r="J26">
+        <v>71</v>
+      </c>
+      <c r="K26">
+        <v>82.34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="18"/>
+      <c r="B27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27">
+        <v>46</v>
+      </c>
+      <c r="D27">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="E27">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="F27">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="G27">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="J27">
+        <v>67</v>
+      </c>
+      <c r="K27">
+        <v>77.52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="18"/>
+      <c r="B28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28">
+        <v>45</v>
+      </c>
+      <c r="D28">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="E28">
+        <v>0.193</v>
+      </c>
+      <c r="F28">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="G28">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="H28">
+        <v>0.03</v>
+      </c>
+      <c r="I28">
+        <v>-0.17</v>
+      </c>
+      <c r="J28">
+        <v>51</v>
+      </c>
+      <c r="K28">
+        <v>79.099999999999994</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="18"/>
+      <c r="B29" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29">
+        <v>41</v>
+      </c>
+      <c r="D29">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="E29">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="F29">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="G29">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="H29">
+        <v>0.09</v>
+      </c>
+      <c r="I29">
+        <v>-0.12</v>
+      </c>
+      <c r="J29">
+        <v>44</v>
+      </c>
+      <c r="K29">
+        <v>78.33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="18"/>
+      <c r="B30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30">
+        <v>44</v>
+      </c>
+      <c r="D30">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="E30">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="F30">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="G30">
+        <v>0.746</v>
+      </c>
+      <c r="H30">
+        <v>0.13</v>
+      </c>
+      <c r="I30">
+        <v>0.03</v>
+      </c>
+      <c r="J30">
+        <v>44</v>
+      </c>
+      <c r="K30">
+        <v>77.319999999999993</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="18"/>
+      <c r="B31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31">
+        <v>45</v>
+      </c>
+      <c r="D31">
+        <v>0.627</v>
+      </c>
+      <c r="E31">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="F31">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="G31">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="H31">
+        <v>0.13</v>
+      </c>
+      <c r="I31">
+        <v>0.18</v>
+      </c>
+      <c r="J31">
+        <v>46</v>
+      </c>
+      <c r="K31">
+        <v>73.56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="18"/>
+      <c r="B32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32">
+        <v>44</v>
+      </c>
+      <c r="D32">
+        <v>0.62</v>
+      </c>
+      <c r="E32">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="F32">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="G32">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="H32">
+        <v>0.13</v>
+      </c>
+      <c r="I32">
+        <v>0.17</v>
+      </c>
+      <c r="J32">
+        <v>44</v>
+      </c>
+      <c r="K32">
+        <v>72.67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="18"/>
+      <c r="B33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33">
+        <v>35</v>
+      </c>
+      <c r="D33">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="E33">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="F33">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="G33">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="H33">
+        <v>0.13</v>
+      </c>
+      <c r="I33">
+        <v>0.18</v>
+      </c>
+      <c r="J33">
+        <v>33</v>
+      </c>
+      <c r="K33">
+        <v>73.17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="18"/>
+      <c r="B34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34">
+        <v>32</v>
+      </c>
+      <c r="D34">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="E34">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="F34">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="G34">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="H34">
+        <v>0.16</v>
+      </c>
+      <c r="I34">
+        <v>0.16</v>
+      </c>
+      <c r="J34">
+        <v>30</v>
+      </c>
+      <c r="K34">
+        <v>73.209999999999994</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="18"/>
+      <c r="B35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35">
+        <v>30</v>
+      </c>
+      <c r="D35">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="E35">
+        <v>0.24</v>
+      </c>
+      <c r="F35">
+        <v>0.88</v>
+      </c>
+      <c r="G35">
+        <v>0.7</v>
+      </c>
+      <c r="H35">
+        <v>0.17</v>
+      </c>
+      <c r="I35">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J35">
+        <v>28</v>
+      </c>
+      <c r="K35">
+        <v>73.58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="18"/>
+      <c r="B36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36">
+        <v>22</v>
+      </c>
+      <c r="D36">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="E36">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="F36">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="G36">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="H36">
+        <v>-0.35</v>
+      </c>
+      <c r="I36">
+        <v>-0.26</v>
+      </c>
+      <c r="J36">
+        <v>224</v>
+      </c>
+      <c r="K36" s="15">
+        <v>60.21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="18"/>
+      <c r="B37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37">
+        <v>26</v>
+      </c>
+      <c r="D37">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="E37">
+        <v>0.191</v>
+      </c>
+      <c r="F37">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="G37">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="H37">
+        <v>-0.37</v>
+      </c>
+      <c r="I37">
+        <v>-0.23</v>
+      </c>
+      <c r="J37">
+        <v>208</v>
+      </c>
+      <c r="K37" s="15">
+        <v>60.61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="18"/>
+      <c r="B38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38">
+        <v>24</v>
+      </c>
+      <c r="D38">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="E38">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="F38">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="G38">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="H38">
+        <v>-0.39</v>
+      </c>
+      <c r="I38">
+        <v>-0.24</v>
+      </c>
+      <c r="J38">
+        <v>223</v>
+      </c>
+      <c r="K38" s="15">
+        <v>56.19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="18"/>
+      <c r="B39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39">
+        <v>22</v>
+      </c>
+      <c r="D39">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="E39">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="F39">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="G39">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="H39">
+        <v>-0.38</v>
+      </c>
+      <c r="I39">
+        <v>-0.23</v>
+      </c>
+      <c r="J39">
+        <v>199</v>
+      </c>
+      <c r="K39" s="15">
+        <v>60.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="18"/>
+      <c r="B40" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40">
+        <v>22</v>
+      </c>
+      <c r="D40">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="E40">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="F40">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="G40">
+        <v>0.3</v>
+      </c>
+      <c r="H40">
+        <v>-0.36</v>
+      </c>
+      <c r="I40">
+        <v>-0.22</v>
+      </c>
+      <c r="J40">
+        <v>193</v>
+      </c>
+      <c r="K40" s="15">
+        <v>61.24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="18"/>
+      <c r="B41" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41">
+        <v>20</v>
+      </c>
+      <c r="D41">
+        <v>0.313</v>
+      </c>
+      <c r="E41">
+        <v>0.128</v>
+      </c>
+      <c r="F41">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="G41">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="H41">
+        <v>-0.36</v>
+      </c>
+      <c r="I41">
+        <v>-0.21</v>
+      </c>
+      <c r="J41">
+        <v>213</v>
+      </c>
+      <c r="K41" s="15">
+        <v>56.08</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="18"/>
+      <c r="B42" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42">
+        <v>18</v>
+      </c>
+      <c r="D42">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="E42">
+        <v>0.125</v>
+      </c>
+      <c r="F42">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="G42">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="H42">
+        <v>-0.37</v>
+      </c>
+      <c r="I42">
+        <v>-0.15</v>
+      </c>
+      <c r="J42">
+        <v>211</v>
+      </c>
+      <c r="K42" s="15">
+        <v>55.67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="18"/>
+      <c r="B43" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43">
+        <v>21</v>
+      </c>
+      <c r="D43">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="E43">
+        <v>0.123</v>
+      </c>
+      <c r="F43">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="G43">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="H43">
+        <v>-0.36</v>
+      </c>
+      <c r="I43">
+        <v>-0.13</v>
+      </c>
+      <c r="J43">
+        <v>212</v>
+      </c>
+      <c r="K43">
+        <v>53.41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="18"/>
+      <c r="B44" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44">
+        <v>21</v>
+      </c>
+      <c r="D44">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="E44">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="F44">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="G44">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="H44">
+        <v>-0.36</v>
+      </c>
+      <c r="I44">
+        <v>-0.13</v>
+      </c>
+      <c r="J44">
+        <v>209</v>
+      </c>
+      <c r="K44">
+        <v>53.45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="18"/>
+      <c r="B45" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="14">
+        <v>21</v>
+      </c>
+      <c r="D45" s="14">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="E45" s="14">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="F45" s="14">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="G45" s="14">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="H45" s="14">
+        <v>-0.36</v>
+      </c>
+      <c r="I45" s="14">
+        <v>-0.13</v>
+      </c>
+      <c r="J45" s="14">
+        <v>208</v>
+      </c>
+      <c r="K45" s="14">
+        <v>53.47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46">
+        <v>21</v>
+      </c>
+      <c r="D46">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="E46">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="F46">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="G46">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="H46">
+        <v>-0.26</v>
+      </c>
+      <c r="I46">
+        <v>-0.25</v>
+      </c>
+      <c r="J46" s="15">
+        <v>1823</v>
+      </c>
+      <c r="K46" s="15">
+        <v>41.68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="25"/>
+      <c r="B47" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47">
+        <v>41</v>
+      </c>
+      <c r="D47">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="E47">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="F47">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="G47">
+        <v>0.377</v>
+      </c>
+      <c r="H47">
+        <v>-0.35</v>
+      </c>
+      <c r="I47">
+        <v>-0.44</v>
+      </c>
+      <c r="J47">
+        <v>819</v>
+      </c>
+      <c r="K47">
+        <v>43.56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="25"/>
+      <c r="B48" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48">
+        <v>60</v>
+      </c>
+      <c r="D48">
+        <v>0.503</v>
+      </c>
+      <c r="E48">
+        <v>0.152</v>
+      </c>
+      <c r="F48">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="G48">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="H48">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="I48">
+        <v>-0.47</v>
+      </c>
+      <c r="J48">
+        <v>665</v>
+      </c>
+      <c r="K48">
+        <v>49.89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="25"/>
+      <c r="B49" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49">
+        <v>70</v>
+      </c>
+      <c r="D49">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="E49">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="F49">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="G49">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="H49">
+        <v>-0.26</v>
+      </c>
+      <c r="I49">
+        <v>-0.48</v>
+      </c>
+      <c r="J49">
+        <v>606</v>
+      </c>
+      <c r="K49">
+        <v>50.61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="25"/>
+      <c r="B50" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50">
+        <v>81</v>
+      </c>
+      <c r="D50">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="E50">
+        <v>0.156</v>
+      </c>
+      <c r="F50">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="G50">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="H50">
+        <v>-0.27</v>
+      </c>
+      <c r="I50">
+        <v>-0.49</v>
+      </c>
+      <c r="J50">
+        <v>448</v>
+      </c>
+      <c r="K50">
+        <v>51.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="25"/>
+      <c r="B51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51">
+        <v>84</v>
+      </c>
+      <c r="D51">
+        <v>0.504</v>
+      </c>
+      <c r="E51">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="F51">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="G51">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="H51">
+        <v>-0.25</v>
+      </c>
+      <c r="I51">
+        <v>-0.5</v>
+      </c>
+      <c r="J51">
+        <v>404</v>
+      </c>
+      <c r="K51">
+        <v>55.36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="25"/>
+      <c r="B52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52">
+        <v>83</v>
+      </c>
+      <c r="D52">
+        <v>0.496</v>
+      </c>
+      <c r="E52">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="F52">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="G52">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="H52">
+        <v>-0.26</v>
+      </c>
+      <c r="I52">
+        <v>-0.52</v>
+      </c>
+      <c r="J52">
+        <v>371</v>
+      </c>
+      <c r="K52">
+        <v>56.66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="25"/>
+      <c r="B53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53">
+        <v>93</v>
+      </c>
+      <c r="D53">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E53">
+        <v>0.188</v>
+      </c>
+      <c r="F53">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="G53">
+        <v>0.222</v>
+      </c>
+      <c r="H53">
+        <v>-0.02</v>
+      </c>
+      <c r="I53">
+        <v>-0.48</v>
+      </c>
+      <c r="J53">
+        <v>167</v>
+      </c>
+      <c r="K53">
+        <v>64.16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="25"/>
+      <c r="B54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54">
+        <v>97</v>
+      </c>
+      <c r="D54">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="E54">
+        <v>0.187</v>
+      </c>
+      <c r="F54">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="G54">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>-0.49</v>
+      </c>
+      <c r="J54">
+        <v>171</v>
+      </c>
+      <c r="K54">
+        <v>62.58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="25"/>
+      <c r="B55" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55">
+        <v>98</v>
+      </c>
+      <c r="D55">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="E55">
+        <v>0.215</v>
+      </c>
+      <c r="F55">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="G55">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>-0.48</v>
+      </c>
+      <c r="J55">
+        <v>166</v>
+      </c>
+      <c r="K55">
+        <v>62.19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="25"/>
+      <c r="B56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56">
+        <v>85</v>
+      </c>
+      <c r="D56">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="E56">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="F56">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="G56">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="H56">
+        <v>-0.01</v>
+      </c>
+      <c r="I56">
+        <v>-0.48</v>
+      </c>
+      <c r="J56">
+        <v>140</v>
+      </c>
+      <c r="K56">
+        <v>61.33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="25"/>
+      <c r="B57" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57">
+        <v>25</v>
+      </c>
+      <c r="D57">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="E57">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="F57">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="G57">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="H57">
+        <v>-0.23</v>
+      </c>
+      <c r="I57">
+        <v>-0.37</v>
+      </c>
+      <c r="J57">
+        <v>2034</v>
+      </c>
+      <c r="K57">
+        <v>41.8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="25"/>
+      <c r="B58" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58">
+        <v>29</v>
+      </c>
+      <c r="D58">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="E58">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="F58">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="G58">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="H58">
+        <v>-0.39</v>
+      </c>
+      <c r="I58">
+        <v>-0.36</v>
+      </c>
+      <c r="J58" s="15">
+        <v>1958</v>
+      </c>
+      <c r="K58" s="15">
+        <v>43.64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="25"/>
+      <c r="B59" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59">
+        <v>30</v>
+      </c>
+      <c r="D59">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="E59">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="F59">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="G59">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="H59">
+        <v>-0.39</v>
+      </c>
+      <c r="I59">
+        <v>-0.36</v>
+      </c>
+      <c r="J59" s="15">
+        <v>2008</v>
+      </c>
+      <c r="K59" s="15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="25"/>
+      <c r="B60" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60">
+        <v>25</v>
+      </c>
+      <c r="D60">
+        <v>0.249</v>
+      </c>
+      <c r="E60">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="F60">
+        <v>0.66</v>
+      </c>
+      <c r="G60">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="H60">
+        <v>-0.39</v>
+      </c>
+      <c r="I60">
+        <v>-0.34</v>
+      </c>
+      <c r="J60" s="15">
+        <v>1973</v>
+      </c>
+      <c r="K60" s="15">
+        <v>42.14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="25"/>
+      <c r="B61" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61">
+        <v>25</v>
+      </c>
+      <c r="D61">
+        <v>0.24</v>
+      </c>
+      <c r="E61">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="F61">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="G61">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="H61">
+        <v>-0.39</v>
+      </c>
+      <c r="I61">
+        <v>-0.34</v>
+      </c>
+      <c r="J61" s="15">
+        <v>1961</v>
+      </c>
+      <c r="K61" s="15">
+        <v>42.46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="25"/>
+      <c r="B62" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62">
+        <v>24</v>
+      </c>
+      <c r="D62">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="E62">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="F62">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="G62">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="H62">
+        <v>-0.39</v>
+      </c>
+      <c r="I62">
+        <v>-0.24</v>
+      </c>
+      <c r="J62" s="15">
+        <v>1971</v>
+      </c>
+      <c r="K62" s="15">
+        <v>41.84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="25"/>
+      <c r="B63" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63">
+        <v>24</v>
+      </c>
+      <c r="D63">
+        <v>0.188</v>
+      </c>
+      <c r="E63">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="F63">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="G63">
+        <v>0.27</v>
+      </c>
+      <c r="H63">
+        <v>-0.38</v>
+      </c>
+      <c r="I63">
+        <v>-0.25</v>
+      </c>
+      <c r="J63" s="15">
+        <v>1914</v>
+      </c>
+      <c r="K63" s="15">
+        <v>42.56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="25"/>
+      <c r="B64" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64">
+        <v>24</v>
+      </c>
+      <c r="D64">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="E64">
+        <v>6.3E-2</v>
+      </c>
+      <c r="F64">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="G64">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="H64">
+        <v>-0.38</v>
+      </c>
+      <c r="I64">
+        <v>-0.25</v>
+      </c>
+      <c r="J64" s="15">
+        <v>1927</v>
+      </c>
+      <c r="K64" s="15">
+        <v>42.1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="25"/>
+      <c r="B65" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65">
+        <v>24</v>
+      </c>
+      <c r="D65">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="E65">
+        <v>6.3E-2</v>
+      </c>
+      <c r="F65">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="G65">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="H65">
+        <v>-0.38</v>
+      </c>
+      <c r="I65">
+        <v>-0.25</v>
+      </c>
+      <c r="J65" s="15">
+        <v>1919</v>
+      </c>
+      <c r="K65" s="15">
+        <v>42.23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="25"/>
+      <c r="B66" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66">
+        <v>24</v>
+      </c>
+      <c r="D66">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="E66">
+        <v>6.3E-2</v>
+      </c>
+      <c r="F66">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="G66">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="H66">
+        <v>-0.37</v>
+      </c>
+      <c r="I66">
+        <v>-0.25</v>
+      </c>
+      <c r="J66" s="15">
+        <v>1900</v>
+      </c>
+      <c r="K66" s="15">
+        <v>42.35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A4:A24"/>
+    <mergeCell ref="A25:A45"/>
+    <mergeCell ref="A46:A66"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1CB37E0-FD34-444B-9077-9D2C9CA251EF}">
+  <dimension ref="A1:K66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="32.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="19"/>
+      <c r="F1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="26"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D2" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="27"/>
+      <c r="F2" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="28"/>
+      <c r="H2" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="27"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C3" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D4" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="23"/>
+      <c r="A4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="15">
+        <v>13</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="H4" s="15">
+        <v>-0.16</v>
+      </c>
+      <c r="I4" s="15">
+        <v>-0.26</v>
+      </c>
+      <c r="J4" s="15">
+        <v>125</v>
+      </c>
+      <c r="K4" s="15">
+        <v>62.8</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D5" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="24"/>
+      <c r="A5" s="16"/>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>53</v>
+      </c>
+      <c r="D5">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="E5">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="F5">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="G5">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="H5">
+        <v>0.01</v>
+      </c>
+      <c r="I5">
+        <v>-0.2</v>
+      </c>
+      <c r="J5">
+        <v>94</v>
+      </c>
+      <c r="K5">
+        <v>69.77</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C6" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>80</v>
+      <c r="A6" s="16"/>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>52</v>
+      </c>
+      <c r="D6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E6">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="F6">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="G6">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="H6">
+        <v>0.12</v>
+      </c>
+      <c r="I6">
+        <v>-0.26</v>
+      </c>
+      <c r="J6">
+        <v>69</v>
+      </c>
+      <c r="K6">
+        <v>66.83</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
-        <v>0</v>
-      </c>
+      <c r="A7" s="16"/>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D7">
-        <v>0.19500000000000001</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="E7">
-        <v>0.24199999999999999</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="F7">
-        <v>0.44</v>
+        <v>0.872</v>
       </c>
       <c r="G7">
-        <v>0.129</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="H7">
-        <v>-0.05</v>
+        <v>0.2</v>
       </c>
       <c r="I7">
+        <v>-0.22</v>
+      </c>
+      <c r="J7">
+        <v>46</v>
+      </c>
+      <c r="K7">
+        <v>72.62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="16"/>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>40</v>
+      </c>
+      <c r="D8">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="E8">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="F8">
+        <v>0.86</v>
+      </c>
+      <c r="G8">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="H8">
+        <v>0.23</v>
+      </c>
+      <c r="I8">
+        <v>-0.15</v>
+      </c>
+      <c r="J8">
+        <v>42</v>
+      </c>
+      <c r="K8">
+        <v>71.430000000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="16"/>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>35</v>
+      </c>
+      <c r="D9">
+        <v>0.625</v>
+      </c>
+      <c r="E9">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="F9">
+        <v>0.875</v>
+      </c>
+      <c r="G9">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="H9">
+        <v>0.24</v>
+      </c>
+      <c r="I9">
         <v>-0.12</v>
       </c>
-      <c r="J7">
-        <v>142</v>
-      </c>
-      <c r="K7">
-        <v>57.61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>49</v>
-      </c>
-      <c r="D8">
-        <v>0.55500000000000005</v>
-      </c>
-      <c r="E8">
-        <v>0.36899999999999999</v>
-      </c>
-      <c r="F8">
-        <v>0.85199999999999998</v>
-      </c>
-      <c r="G8">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="H8">
-        <v>0.06</v>
-      </c>
-      <c r="I8">
-        <v>-0.04</v>
-      </c>
-      <c r="J8">
-        <v>139</v>
-      </c>
-      <c r="K8">
-        <v>67.14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9">
-        <v>91</v>
-      </c>
-      <c r="D9">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="E9">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="F9">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="G9">
-        <v>0.72899999999999998</v>
-      </c>
-      <c r="H9">
-        <v>0.2</v>
-      </c>
-      <c r="I9">
-        <v>-0.13</v>
-      </c>
       <c r="J9">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="K9">
-        <v>71.430000000000007</v>
+        <v>74.44</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
+      <c r="A10" s="16"/>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="D10">
-        <v>0.57699999999999996</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="E10">
-        <v>0.28299999999999997</v>
+        <v>0.24</v>
       </c>
       <c r="F10">
-        <v>0.91600000000000004</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="G10">
-        <v>0.72299999999999998</v>
+        <v>0.504</v>
       </c>
       <c r="H10">
         <v>0.22</v>
       </c>
       <c r="I10">
+        <v>-0.17</v>
+      </c>
+      <c r="J10">
+        <v>32</v>
+      </c>
+      <c r="K10">
+        <v>72.17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="16"/>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11">
+        <v>32</v>
+      </c>
+      <c r="D11">
+        <v>0.61</v>
+      </c>
+      <c r="E11">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="F11">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="G11">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="H11">
+        <v>0.21</v>
+      </c>
+      <c r="I11">
+        <v>-0.16</v>
+      </c>
+      <c r="J11">
+        <v>28</v>
+      </c>
+      <c r="K11">
+        <v>72.55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="16"/>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>29</v>
+      </c>
+      <c r="D12">
+        <v>0.61</v>
+      </c>
+      <c r="E12">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="F12">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="G12">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="H12">
+        <v>0.21</v>
+      </c>
+      <c r="I12">
+        <v>0.02</v>
+      </c>
+      <c r="J12">
+        <v>27</v>
+      </c>
+      <c r="K12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="E13">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="F13">
+        <v>0.753</v>
+      </c>
+      <c r="G13">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="H13">
+        <v>0.23</v>
+      </c>
+      <c r="I13">
+        <v>0.02</v>
+      </c>
+      <c r="J13">
+        <v>22</v>
+      </c>
+      <c r="K13">
+        <v>71.430000000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14">
+        <v>19</v>
+      </c>
+      <c r="D14">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="E14">
+        <v>0.121</v>
+      </c>
+      <c r="F14">
+        <v>0.7</v>
+      </c>
+      <c r="G14">
+        <v>0.375</v>
+      </c>
+      <c r="H14">
+        <v>0.24</v>
+      </c>
+      <c r="I14">
+        <v>0.06</v>
+      </c>
+      <c r="J14">
+        <v>17</v>
+      </c>
+      <c r="K14">
+        <v>72.58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="E15">
+        <v>0.312</v>
+      </c>
+      <c r="F15">
+        <v>0.52</v>
+      </c>
+      <c r="G15">
+        <v>0.193</v>
+      </c>
+      <c r="H15">
+        <v>-0.36</v>
+      </c>
+      <c r="I15">
+        <v>-0.37</v>
+      </c>
+      <c r="J15">
+        <v>168</v>
+      </c>
+      <c r="K15" s="29">
+        <v>62.91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="16"/>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16">
+        <v>13</v>
+      </c>
+      <c r="D16">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="E16">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="F16">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G16">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="H16">
+        <v>-0.3</v>
+      </c>
+      <c r="I16">
+        <v>-0.3</v>
+      </c>
+      <c r="J16">
+        <v>153</v>
+      </c>
+      <c r="K16" s="29">
+        <v>65.38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="16"/>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E17">
+        <v>0.255</v>
+      </c>
+      <c r="F17">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="G17">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="H17">
+        <v>-0.26</v>
+      </c>
+      <c r="I17">
+        <v>-0.3</v>
+      </c>
+      <c r="J17">
+        <v>164</v>
+      </c>
+      <c r="K17">
+        <v>62.12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="16"/>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>0.307</v>
+      </c>
+      <c r="E18">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="F18">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="G18">
+        <v>0.252</v>
+      </c>
+      <c r="H18">
+        <v>-0.2</v>
+      </c>
+      <c r="I18">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="J18">
+        <v>158</v>
+      </c>
+      <c r="K18" s="29">
+        <v>63.17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="16"/>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19">
+        <v>14</v>
+      </c>
+      <c r="D19">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="E19">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="F19">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="G19">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="H19">
+        <v>-0.18</v>
+      </c>
+      <c r="I19">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="J19">
+        <v>168</v>
+      </c>
+      <c r="K19">
+        <v>60.47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="16"/>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20">
+        <v>14</v>
+      </c>
+      <c r="D20">
+        <v>0.246</v>
+      </c>
+      <c r="E20">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="F20">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="G20">
+        <v>0.253</v>
+      </c>
+      <c r="H20">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="I20">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="J20">
+        <v>145</v>
+      </c>
+      <c r="K20" s="29">
+        <v>64.72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="16"/>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21">
+        <v>16</v>
+      </c>
+      <c r="D21">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="E21">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="F21">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="G21">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="H21">
+        <v>-0.13</v>
+      </c>
+      <c r="I21">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="J21">
+        <v>139</v>
+      </c>
+      <c r="K21" s="29">
+        <v>65.510000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="16"/>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22">
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <v>0.215</v>
+      </c>
+      <c r="E22">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="F22">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="G22">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="H22">
+        <v>-0.08</v>
+      </c>
+      <c r="I22">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="J22">
+        <v>137</v>
+      </c>
+      <c r="K22" s="29">
+        <v>65.23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="16"/>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23">
+        <v>17</v>
+      </c>
+      <c r="D23">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="E23">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="F23">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="G23">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="H23">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="I23">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="J23">
+        <v>147</v>
+      </c>
+      <c r="K23" s="29">
+        <v>62.21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="16"/>
+      <c r="B24" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="14">
+        <v>17</v>
+      </c>
+      <c r="D24" s="14">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="E24" s="14">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="F24" s="14">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="G24" s="14">
+        <v>0.26</v>
+      </c>
+      <c r="H24" s="14">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="I24" s="14">
+        <v>-0.27</v>
+      </c>
+      <c r="J24" s="14">
+        <v>139</v>
+      </c>
+      <c r="K24" s="30">
+        <v>63.42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>16</v>
+      </c>
+      <c r="D25">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="E25">
+        <v>0.104</v>
+      </c>
+      <c r="F25">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="G25">
+        <v>0.221</v>
+      </c>
+      <c r="H25">
+        <v>-0.36</v>
+      </c>
+      <c r="I25">
+        <v>-0.17</v>
+      </c>
+      <c r="J25" s="15">
+        <v>147</v>
+      </c>
+      <c r="K25" s="15">
+        <v>60.59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="18"/>
+      <c r="B26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26">
+        <v>37</v>
+      </c>
+      <c r="D26">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="E26">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="F26">
+        <v>0.86</v>
+      </c>
+      <c r="G26">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="H26">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I26">
+        <v>-0.11</v>
+      </c>
+      <c r="J26">
+        <v>99</v>
+      </c>
+      <c r="K26">
+        <v>75.37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="18"/>
+      <c r="B27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27">
+        <v>44</v>
+      </c>
+      <c r="D27">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="E27">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="F27">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="G27">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="H27">
+        <v>0.12</v>
+      </c>
+      <c r="I27">
+        <v>-0.01</v>
+      </c>
+      <c r="J27">
+        <v>77</v>
+      </c>
+      <c r="K27">
+        <v>74.16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="18"/>
+      <c r="B28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28">
+        <v>45</v>
+      </c>
+      <c r="D28">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="E28">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="F28">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="G28">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="H28">
+        <v>0.15</v>
+      </c>
+      <c r="I28">
+        <v>-0.04</v>
+      </c>
+      <c r="J28">
+        <v>51</v>
+      </c>
+      <c r="K28">
+        <v>79.099999999999994</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="18"/>
+      <c r="B29" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29">
+        <v>41</v>
+      </c>
+      <c r="D29">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="E29">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="F29">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="G29">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="H29">
+        <v>0.21</v>
+      </c>
+      <c r="I29">
+        <v>0.04</v>
+      </c>
+      <c r="J29">
+        <v>44</v>
+      </c>
+      <c r="K29">
+        <v>78.33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="18"/>
+      <c r="B30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30">
+        <v>44</v>
+      </c>
+      <c r="D30">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="E30">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="F30">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="G30">
+        <v>0.74</v>
+      </c>
+      <c r="H30">
+        <v>0.24</v>
+      </c>
+      <c r="I30">
+        <v>0.1</v>
+      </c>
+      <c r="J30">
+        <v>44</v>
+      </c>
+      <c r="K30">
+        <v>77.319999999999993</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="18"/>
+      <c r="B31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31">
+        <v>45</v>
+      </c>
+      <c r="D31">
+        <v>0.627</v>
+      </c>
+      <c r="E31">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="F31">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="G31">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="H31">
+        <v>0.24</v>
+      </c>
+      <c r="I31">
+        <v>0.1</v>
+      </c>
+      <c r="J31">
+        <v>46</v>
+      </c>
+      <c r="K31">
+        <v>73.56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="18"/>
+      <c r="B32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32">
+        <v>44</v>
+      </c>
+      <c r="D32">
+        <v>0.62</v>
+      </c>
+      <c r="E32">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="F32">
+        <v>0.85</v>
+      </c>
+      <c r="G32">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="H32">
+        <v>0.24</v>
+      </c>
+      <c r="I32">
+        <v>0.1</v>
+      </c>
+      <c r="J32">
+        <v>44</v>
+      </c>
+      <c r="K32">
+        <v>72.67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="18"/>
+      <c r="B33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33">
+        <v>35</v>
+      </c>
+      <c r="D33">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="E33">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="F33">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="G33">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="H33">
+        <v>0.23</v>
+      </c>
+      <c r="I33">
+        <v>0.13</v>
+      </c>
+      <c r="J33">
+        <v>33</v>
+      </c>
+      <c r="K33">
+        <v>73.17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="18"/>
+      <c r="B34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34">
+        <v>32</v>
+      </c>
+      <c r="D34">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="E34">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="F34">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="G34">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="H34">
+        <v>0.26</v>
+      </c>
+      <c r="I34">
+        <v>0.11</v>
+      </c>
+      <c r="J34">
+        <v>30</v>
+      </c>
+      <c r="K34">
+        <v>73.209999999999994</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="18"/>
+      <c r="B35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35">
+        <v>30</v>
+      </c>
+      <c r="D35">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="E35">
+        <v>0.24</v>
+      </c>
+      <c r="F35">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="G35">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="H35">
+        <v>0.26</v>
+      </c>
+      <c r="I35">
+        <v>0.1</v>
+      </c>
+      <c r="J35">
+        <v>28</v>
+      </c>
+      <c r="K35">
+        <v>73.58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="18"/>
+      <c r="B36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36">
+        <v>19</v>
+      </c>
+      <c r="D36">
+        <v>0.371</v>
+      </c>
+      <c r="E36">
+        <v>0.26</v>
+      </c>
+      <c r="F36">
+        <v>0.621</v>
+      </c>
+      <c r="G36">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="H36">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="I36">
+        <v>-0.21</v>
+      </c>
+      <c r="J36">
+        <v>221</v>
+      </c>
+      <c r="K36" s="29">
+        <v>60.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="18"/>
+      <c r="B37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37">
+        <v>21</v>
+      </c>
+      <c r="D37">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="E37">
+        <v>0.192</v>
+      </c>
+      <c r="F37">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="G37">
+        <v>0.378</v>
+      </c>
+      <c r="H37">
+        <v>-0.32</v>
+      </c>
+      <c r="I37">
+        <v>-0.18</v>
+      </c>
+      <c r="J37">
+        <v>213</v>
+      </c>
+      <c r="K37">
+        <v>59.66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="18"/>
+      <c r="B38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38">
+        <v>23</v>
+      </c>
+      <c r="D38">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="E38">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="F38">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="G38">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="H38">
+        <v>-0.3</v>
+      </c>
+      <c r="I38">
+        <v>-0.17</v>
+      </c>
+      <c r="J38">
+        <v>200</v>
+      </c>
+      <c r="K38" s="29">
+        <v>60.71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="18"/>
+      <c r="B39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39">
+        <v>24</v>
+      </c>
+      <c r="D39">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="E39">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="F39">
+        <v>0.65</v>
+      </c>
+      <c r="G39">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="H39">
+        <v>-0.3</v>
+      </c>
+      <c r="I39">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="J39">
+        <v>200</v>
+      </c>
+      <c r="K39">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="18"/>
+      <c r="B40" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40">
+        <v>23</v>
+      </c>
+      <c r="D40">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="E40">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="F40">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="G40">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="H40">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="I40">
+        <v>-0.12</v>
+      </c>
+      <c r="J40">
+        <v>193</v>
+      </c>
+      <c r="K40" s="29">
+        <v>61.24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="18"/>
+      <c r="B41" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41">
+        <v>20</v>
+      </c>
+      <c r="D41">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="E41">
+        <v>0.129</v>
+      </c>
+      <c r="F41">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="G41">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="H41">
+        <v>-0.3</v>
+      </c>
+      <c r="I41">
+        <v>-0.13</v>
+      </c>
+      <c r="J41">
+        <v>193</v>
+      </c>
+      <c r="K41">
+        <v>60.21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="18"/>
+      <c r="B42" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42">
+        <v>24</v>
+      </c>
+      <c r="D42">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="E42">
+        <v>0.126</v>
+      </c>
+      <c r="F42">
+        <v>0.66</v>
+      </c>
+      <c r="G42">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="H42">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="I42">
+        <v>-0.13</v>
+      </c>
+      <c r="J42">
+        <v>181</v>
+      </c>
+      <c r="K42" s="29">
+        <v>61.97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="18"/>
+      <c r="B43" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43">
+        <v>22</v>
+      </c>
+      <c r="D43">
+        <v>0.313</v>
+      </c>
+      <c r="E43">
+        <v>0.123</v>
+      </c>
+      <c r="F43">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="G43">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="H43">
+        <v>-0.31</v>
+      </c>
+      <c r="I43">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="J43">
+        <v>178</v>
+      </c>
+      <c r="K43" s="29">
+        <v>60.88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="18"/>
+      <c r="B44" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44">
+        <v>23</v>
+      </c>
+      <c r="D44">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="E44">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="F44">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="G44">
+        <v>0.38</v>
+      </c>
+      <c r="H44">
+        <v>-0.31</v>
+      </c>
+      <c r="I44">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="J44">
+        <v>187</v>
+      </c>
+      <c r="K44">
+        <v>58.35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="18"/>
+      <c r="B45" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="14">
+        <v>20</v>
+      </c>
+      <c r="D45" s="14">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="E45" s="14">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="F45" s="14">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="G45" s="14">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="H45" s="14">
+        <v>-0.32</v>
+      </c>
+      <c r="I45" s="14">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="J45" s="14">
+        <v>178</v>
+      </c>
+      <c r="K45" s="14">
+        <v>60.18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46">
+        <v>16</v>
+      </c>
+      <c r="D46">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="E46">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="F46">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="G46">
+        <v>0.221</v>
+      </c>
+      <c r="H46">
+        <v>-0.36</v>
+      </c>
+      <c r="I46">
+        <v>-0.17</v>
+      </c>
+      <c r="J46" s="15">
+        <v>145</v>
+      </c>
+      <c r="K46" s="15">
+        <v>61.13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="25"/>
+      <c r="B47" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47">
+        <v>38</v>
+      </c>
+      <c r="D47">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="E47">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="F47">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="G47">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="H47">
+        <v>0.1</v>
+      </c>
+      <c r="I47">
         <v>-0.1</v>
       </c>
-      <c r="J10">
-        <v>64</v>
-      </c>
-      <c r="K10">
-        <v>70.91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11">
-        <v>52</v>
-      </c>
-      <c r="D11">
+      <c r="J47">
+        <v>91</v>
+      </c>
+      <c r="K47">
+        <v>77.36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="25"/>
+      <c r="B48" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48">
+        <v>44</v>
+      </c>
+      <c r="D48">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="E48">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="F48">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="G48">
+        <v>0.77</v>
+      </c>
+      <c r="H48">
+        <v>0.13</v>
+      </c>
+      <c r="I48">
+        <v>-0.01</v>
+      </c>
+      <c r="J48">
+        <v>77</v>
+      </c>
+      <c r="K48">
+        <v>74.16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="25"/>
+      <c r="B49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49">
+        <v>45</v>
+      </c>
+      <c r="D49">
         <v>0.59899999999999998</v>
       </c>
-      <c r="E11">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="F11">
-        <v>0.89500000000000002</v>
-      </c>
-      <c r="G11">
-        <v>0.61699999999999999</v>
-      </c>
-      <c r="H11">
-        <v>0.26</v>
-      </c>
-      <c r="I11">
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="J11">
-        <v>43</v>
-      </c>
-      <c r="K11">
-        <v>73.459999999999994</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12">
+      <c r="E49">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="F49">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="G49">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="H49">
+        <v>0.16</v>
+      </c>
+      <c r="I49">
+        <v>-0.04</v>
+      </c>
+      <c r="J49">
+        <v>51</v>
+      </c>
+      <c r="K49">
+        <v>79.099999999999994</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="25"/>
+      <c r="B50" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50">
+        <v>41</v>
+      </c>
+      <c r="D50">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="E50">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="F50">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="G50">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="H50">
+        <v>0.21</v>
+      </c>
+      <c r="I50">
+        <v>0.05</v>
+      </c>
+      <c r="J50">
+        <v>44</v>
+      </c>
+      <c r="K50">
+        <v>78.33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="25"/>
+      <c r="B51" t="s">
         <v>38</v>
       </c>
-      <c r="D12">
-        <v>0.61499999999999999</v>
-      </c>
-      <c r="E12">
-        <v>0.215</v>
-      </c>
-      <c r="F12">
-        <v>0.875</v>
-      </c>
-      <c r="G12">
-        <v>0.624</v>
-      </c>
-      <c r="H12">
-        <v>0.3</v>
-      </c>
-      <c r="I12">
-        <v>-0.13</v>
-      </c>
-      <c r="J12">
-        <v>30</v>
-      </c>
-      <c r="K12">
-        <v>76.38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13">
-        <v>23</v>
-      </c>
-      <c r="D13">
-        <v>0.59399999999999997</v>
-      </c>
-      <c r="E13">
-        <v>0.248</v>
-      </c>
-      <c r="F13">
-        <v>0.79600000000000004</v>
-      </c>
-      <c r="G13">
-        <v>0.501</v>
-      </c>
-      <c r="H13">
-        <v>0.26</v>
-      </c>
-      <c r="I13">
-        <v>-0.16</v>
-      </c>
-      <c r="J13">
-        <v>15</v>
-      </c>
-      <c r="K13">
-        <v>79.17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14">
-        <v>11</v>
-      </c>
-      <c r="D14">
-        <v>0.64900000000000002</v>
-      </c>
-      <c r="E14">
-        <v>0.51300000000000001</v>
-      </c>
-      <c r="F14">
-        <v>0.71899999999999997</v>
-      </c>
-      <c r="G14">
-        <v>0.40699999999999997</v>
-      </c>
-      <c r="H14">
-        <v>0.34</v>
-      </c>
-      <c r="I14">
-        <v>-0.01</v>
-      </c>
-      <c r="J14">
-        <v>4</v>
-      </c>
-      <c r="K14">
-        <v>90.48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15">
-        <v>8</v>
-      </c>
-      <c r="D15">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="E15">
-        <v>0.51500000000000001</v>
-      </c>
-      <c r="F15">
-        <v>0.61599999999999999</v>
-      </c>
-      <c r="G15">
-        <v>0.499</v>
-      </c>
-      <c r="H15">
-        <v>0.33</v>
-      </c>
-      <c r="I15">
-        <v>0.11</v>
-      </c>
-      <c r="J15">
-        <v>2</v>
-      </c>
-      <c r="K15">
-        <v>90.91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-      <c r="D16">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="E16">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="F16">
-        <v>0.217</v>
-      </c>
-      <c r="G16">
-        <v>0.217</v>
-      </c>
-      <c r="H16">
-        <v>0.32</v>
-      </c>
-      <c r="I16">
-        <v>0.32</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
-      <c r="D17">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="E17">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="F17">
-        <v>0.217</v>
-      </c>
-      <c r="G17">
-        <v>0.217</v>
-      </c>
-      <c r="H17">
-        <v>0.32</v>
-      </c>
-      <c r="I17">
-        <v>0.32</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18">
-        <v>14</v>
-      </c>
-      <c r="D18">
-        <v>0.36799999999999999</v>
-      </c>
-      <c r="E18">
-        <v>0.39300000000000002</v>
-      </c>
-      <c r="F18">
-        <v>0.58899999999999997</v>
-      </c>
-      <c r="G18">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="H18">
-        <v>-0.02</v>
-      </c>
-      <c r="I18">
-        <v>-0.1</v>
-      </c>
-      <c r="J18">
-        <v>198</v>
-      </c>
-      <c r="K18">
-        <v>57.96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19">
-        <v>19</v>
-      </c>
-      <c r="D19">
-        <v>0.39</v>
-      </c>
-      <c r="E19">
-        <v>0.318</v>
-      </c>
-      <c r="F19">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="G19">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>-0.15</v>
-      </c>
-      <c r="J19">
-        <v>183</v>
-      </c>
-      <c r="K19">
-        <v>60.98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20">
-        <v>18</v>
-      </c>
-      <c r="D20">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="E20">
-        <v>0.28699999999999998</v>
-      </c>
-      <c r="F20">
-        <v>0.52800000000000002</v>
-      </c>
-      <c r="G20">
-        <v>0.255</v>
-      </c>
-      <c r="H20">
-        <v>-0.02</v>
-      </c>
-      <c r="I20">
-        <v>-0.15</v>
-      </c>
-      <c r="J20">
-        <v>171</v>
-      </c>
-      <c r="K20">
-        <v>61.74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21">
-        <v>17</v>
-      </c>
-      <c r="D21">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="E21">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="F21">
-        <v>0.52100000000000002</v>
-      </c>
-      <c r="G21">
-        <v>0.248</v>
-      </c>
-      <c r="H21">
-        <v>-0.01</v>
-      </c>
-      <c r="I21">
-        <v>-0.15</v>
-      </c>
-      <c r="J21">
-        <v>167</v>
-      </c>
-      <c r="K21">
-        <v>61.7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
-      <c r="B22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22">
-        <v>17</v>
-      </c>
-      <c r="D22">
-        <v>0.36699999999999999</v>
-      </c>
-      <c r="E22">
-        <v>0.247</v>
-      </c>
-      <c r="F22">
-        <v>0.51700000000000002</v>
-      </c>
-      <c r="G22">
-        <v>0.24099999999999999</v>
-      </c>
-      <c r="H22">
-        <v>-0.02</v>
-      </c>
-      <c r="I22">
-        <v>-0.15</v>
-      </c>
-      <c r="J22">
-        <v>168</v>
-      </c>
-      <c r="K22">
-        <v>60.19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
-      <c r="B23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23">
-        <v>13</v>
-      </c>
-      <c r="D23">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="E23">
-        <v>0.23</v>
-      </c>
-      <c r="F23">
-        <v>0.48199999999999998</v>
-      </c>
-      <c r="G23">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="H23">
-        <v>-0.02</v>
-      </c>
-      <c r="I23">
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="J23">
-        <v>162</v>
-      </c>
-      <c r="K23">
-        <v>57.7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24">
-        <v>12</v>
-      </c>
-      <c r="D24">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="E24">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="F24">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="G24">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="H24">
-        <v>-0.03</v>
-      </c>
-      <c r="I24">
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="J24">
-        <v>159</v>
-      </c>
-      <c r="K24">
-        <v>56.79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
-      <c r="B25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25">
-        <v>13</v>
-      </c>
-      <c r="D25">
-        <v>0.309</v>
-      </c>
-      <c r="E25">
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="F25">
-        <v>0.45500000000000002</v>
-      </c>
-      <c r="G25">
-        <v>0.159</v>
-      </c>
-      <c r="H25">
-        <v>-0.06</v>
-      </c>
-      <c r="I25">
-        <v>-0.13</v>
-      </c>
-      <c r="J25">
-        <v>153</v>
-      </c>
-      <c r="K25">
-        <v>56.53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
-      <c r="B26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26">
-        <v>12</v>
-      </c>
-      <c r="D26">
+      <c r="C51">
+        <v>44</v>
+      </c>
+      <c r="D51">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="E51">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="F51">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="G51">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="H51">
+        <v>0.25</v>
+      </c>
+      <c r="I51">
+        <v>0.09</v>
+      </c>
+      <c r="J51">
+        <v>44</v>
+      </c>
+      <c r="K51">
+        <v>77.319999999999993</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="25"/>
+      <c r="B52" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52">
+        <v>45</v>
+      </c>
+      <c r="D52">
+        <v>0.627</v>
+      </c>
+      <c r="E52">
         <v>0.27600000000000002</v>
       </c>
-      <c r="E26">
-        <v>0.23899999999999999</v>
-      </c>
-      <c r="F26">
-        <v>0.45600000000000002</v>
-      </c>
-      <c r="G26">
-        <v>0.152</v>
-      </c>
-      <c r="H26">
-        <v>-0.06</v>
-      </c>
-      <c r="I26">
-        <v>-0.12</v>
-      </c>
-      <c r="J26">
-        <v>147</v>
-      </c>
-      <c r="K26">
-        <v>57.02</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
-      <c r="B27" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="14">
-        <v>12</v>
-      </c>
-      <c r="D27" s="14">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="E27" s="14">
-        <v>0.23899999999999999</v>
-      </c>
-      <c r="F27" s="14">
-        <v>0.45600000000000002</v>
-      </c>
-      <c r="G27" s="14">
-        <v>0.152</v>
-      </c>
-      <c r="H27" s="14">
-        <v>-0.06</v>
-      </c>
-      <c r="I27" s="14">
-        <v>-0.12</v>
-      </c>
-      <c r="J27" s="14">
-        <v>147</v>
-      </c>
-      <c r="K27" s="14">
-        <v>57.02</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28">
-        <v>17</v>
-      </c>
-      <c r="D28">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="E28">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="F28">
-        <v>0.504</v>
-      </c>
-      <c r="G28">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="H28">
-        <v>-0.17</v>
-      </c>
-      <c r="I28">
-        <v>-0.08</v>
-      </c>
-      <c r="J28">
-        <v>170</v>
-      </c>
-      <c r="K28">
-        <v>53.8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="22"/>
-      <c r="B29" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29">
-        <v>31</v>
-      </c>
-      <c r="D29">
-        <v>0.53800000000000003</v>
-      </c>
-      <c r="E29">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="F29">
-        <v>0.88200000000000001</v>
-      </c>
-      <c r="G29">
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="H29">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I29">
-        <v>0.05</v>
-      </c>
-      <c r="J29">
-        <v>137</v>
-      </c>
-      <c r="K29">
-        <v>73.599999999999994</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
-      <c r="B30" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30">
-        <v>62</v>
-      </c>
-      <c r="D30">
-        <v>0.58399999999999996</v>
-      </c>
-      <c r="E30">
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="F30">
-        <v>0.89800000000000002</v>
-      </c>
-      <c r="G30">
-        <v>0.81100000000000005</v>
-      </c>
-      <c r="H30">
-        <v>0.18</v>
-      </c>
-      <c r="I30">
-        <v>0.04</v>
-      </c>
-      <c r="J30">
-        <v>89</v>
-      </c>
-      <c r="K30">
-        <v>79.819999999999993</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
-      <c r="B31" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31">
-        <v>90</v>
-      </c>
-      <c r="D31">
-        <v>0.6</v>
-      </c>
-      <c r="E31">
-        <v>0.21099999999999999</v>
-      </c>
-      <c r="F31">
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="G31">
-        <v>0.73199999999999998</v>
-      </c>
-      <c r="H31">
-        <v>0.27</v>
-      </c>
-      <c r="I31">
-        <v>-0.08</v>
-      </c>
-      <c r="J31">
-        <v>87</v>
-      </c>
-      <c r="K31">
-        <v>76.03</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="22"/>
-      <c r="B32" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32">
-        <v>84</v>
-      </c>
-      <c r="D32">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="E32">
-        <v>0.217</v>
-      </c>
-      <c r="F32">
-        <v>0.78600000000000003</v>
-      </c>
-      <c r="G32">
-        <v>0.66300000000000003</v>
-      </c>
-      <c r="H32">
-        <v>0.3</v>
-      </c>
-      <c r="I32">
-        <v>-0.12</v>
-      </c>
-      <c r="J32">
-        <v>75</v>
-      </c>
-      <c r="K32">
-        <v>75.959999999999994</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="22"/>
-      <c r="B33" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33">
-        <v>76</v>
-      </c>
-      <c r="D33">
-        <v>0.623</v>
-      </c>
-      <c r="E33">
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="F33">
-        <v>0.76100000000000001</v>
-      </c>
-      <c r="G33">
-        <v>0.64200000000000002</v>
-      </c>
-      <c r="H33">
-        <v>0.32</v>
-      </c>
-      <c r="I33">
-        <v>-0.1</v>
-      </c>
-      <c r="J33">
-        <v>65</v>
-      </c>
-      <c r="K33">
-        <v>76.099999999999994</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="22"/>
-      <c r="B34" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34">
-        <v>65</v>
-      </c>
-      <c r="D34">
-        <v>0.62</v>
-      </c>
-      <c r="E34">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="F34">
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="G34">
-        <v>0.81899999999999995</v>
-      </c>
-      <c r="H34">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="I34">
-        <v>-0.09</v>
-      </c>
-      <c r="J34">
-        <v>53</v>
-      </c>
-      <c r="K34">
-        <v>75.23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="22"/>
-      <c r="B35" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35">
-        <v>44</v>
-      </c>
-      <c r="D35">
-        <v>0.60599999999999998</v>
-      </c>
-      <c r="E35">
-        <v>0.17699999999999999</v>
-      </c>
-      <c r="F35">
-        <v>0.91600000000000004</v>
-      </c>
-      <c r="G35">
-        <v>0.68799999999999994</v>
-      </c>
-      <c r="H35">
-        <v>0.23</v>
-      </c>
-      <c r="I35">
-        <v>0.06</v>
-      </c>
-      <c r="J35">
-        <v>34</v>
-      </c>
-      <c r="K35">
-        <v>72.58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="22"/>
-      <c r="B36" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36">
-        <v>27</v>
-      </c>
-      <c r="D36">
-        <v>0.59199999999999997</v>
-      </c>
-      <c r="E36">
-        <v>0.21099999999999999</v>
-      </c>
-      <c r="F36">
-        <v>0.82</v>
-      </c>
-      <c r="G36">
-        <v>0.496</v>
-      </c>
-      <c r="H36">
-        <v>0.2</v>
-      </c>
-      <c r="I36">
-        <v>0.27</v>
-      </c>
-      <c r="J36">
-        <v>18</v>
-      </c>
-      <c r="K36">
-        <v>72.31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="22"/>
-      <c r="B37" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37">
-        <v>12</v>
-      </c>
-      <c r="D37">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="E37">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="F37">
-        <v>0.84399999999999997</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37" t="s">
-        <v>83</v>
-      </c>
-      <c r="I37" t="s">
-        <v>83</v>
-      </c>
-      <c r="J37">
-        <v>7</v>
-      </c>
-      <c r="K37">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="22"/>
-      <c r="B38" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38">
-        <v>8</v>
-      </c>
-      <c r="D38">
-        <v>0.53100000000000003</v>
-      </c>
-      <c r="E38">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="F38">
-        <v>0.746</v>
-      </c>
-      <c r="G38">
-        <v>0.497</v>
-      </c>
-      <c r="H38">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I38">
-        <v>0.16</v>
-      </c>
-      <c r="J38">
-        <v>3</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="22"/>
-      <c r="B39" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39">
-        <v>21</v>
-      </c>
-      <c r="D39">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="E39">
-        <v>0.372</v>
-      </c>
-      <c r="F39">
-        <v>0.749</v>
-      </c>
-      <c r="G39">
-        <v>0.625</v>
-      </c>
-      <c r="H39">
-        <v>-0.03</v>
-      </c>
-      <c r="I39">
-        <v>0.02</v>
-      </c>
-      <c r="J39">
-        <v>178</v>
-      </c>
-      <c r="K39">
-        <v>68.989999999999995</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="22"/>
-      <c r="B40" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40">
-        <v>22</v>
-      </c>
-      <c r="D40">
-        <v>0.44800000000000001</v>
-      </c>
-      <c r="E40">
-        <v>0.24199999999999999</v>
-      </c>
-      <c r="F40">
-        <v>0.73299999999999998</v>
-      </c>
-      <c r="G40">
-        <v>0.58099999999999996</v>
-      </c>
-      <c r="H40">
-        <v>-0.08</v>
-      </c>
-      <c r="I40">
-        <v>-0.02</v>
-      </c>
-      <c r="J40">
-        <v>200</v>
-      </c>
-      <c r="K40">
-        <v>64.849999999999994</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="22"/>
-      <c r="B41" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41">
-        <v>24</v>
-      </c>
-      <c r="D41">
-        <v>0.46300000000000002</v>
-      </c>
-      <c r="E41">
-        <v>0.182</v>
-      </c>
-      <c r="F41">
-        <v>0.71099999999999997</v>
-      </c>
-      <c r="G41">
-        <v>0.53</v>
-      </c>
-      <c r="H41">
-        <v>-0.09</v>
-      </c>
-      <c r="I41">
-        <v>-0.05</v>
-      </c>
-      <c r="J41">
-        <v>225</v>
-      </c>
-      <c r="K41">
-        <v>60.39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="22"/>
-      <c r="B42" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42">
-        <v>26</v>
-      </c>
-      <c r="D42">
-        <v>0.48299999999999998</v>
-      </c>
-      <c r="E42">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="F42">
-        <v>0.69699999999999995</v>
-      </c>
-      <c r="G42">
-        <v>0.502</v>
-      </c>
-      <c r="H42">
-        <v>-0.08</v>
-      </c>
-      <c r="I42">
-        <v>-0.06</v>
-      </c>
-      <c r="J42">
-        <v>226</v>
-      </c>
-      <c r="K42">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="22"/>
-      <c r="B43" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43">
-        <v>24</v>
-      </c>
-      <c r="D43">
-        <v>0.46100000000000002</v>
-      </c>
-      <c r="E43">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="F43">
-        <v>0.69099999999999995</v>
-      </c>
-      <c r="G43">
-        <v>0.49299999999999999</v>
-      </c>
-      <c r="H43">
-        <v>-0.09</v>
-      </c>
-      <c r="I43">
-        <v>-0.06</v>
-      </c>
-      <c r="J43">
-        <v>248</v>
-      </c>
-      <c r="K43">
-        <v>55.87</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="22"/>
-      <c r="B44" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44">
-        <v>27</v>
-      </c>
-      <c r="D44">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="E44">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="F44">
-        <v>0.63900000000000001</v>
-      </c>
-      <c r="G44">
-        <v>0.41599999999999998</v>
-      </c>
-      <c r="H44">
-        <v>-0.12</v>
-      </c>
-      <c r="I44">
-        <v>-0.06</v>
-      </c>
-      <c r="J44">
-        <v>204</v>
-      </c>
-      <c r="K44">
-        <v>61.14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="22"/>
-      <c r="B45" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45">
-        <v>25</v>
-      </c>
-      <c r="D45">
-        <v>0.39500000000000002</v>
-      </c>
-      <c r="E45">
-        <v>0.128</v>
-      </c>
-      <c r="F45">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="G45">
-        <v>0.32200000000000001</v>
-      </c>
-      <c r="H45">
-        <v>-0.15</v>
-      </c>
-      <c r="I45">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="J45">
-        <v>175</v>
-      </c>
-      <c r="K45">
-        <v>61.96</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="22"/>
-      <c r="B46" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46">
-        <v>20</v>
-      </c>
-      <c r="D46">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="E46">
-        <v>0.122</v>
-      </c>
-      <c r="F46">
-        <v>0.55200000000000005</v>
-      </c>
-      <c r="G46">
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="H46">
-        <v>-0.16</v>
-      </c>
-      <c r="I46">
-        <v>-0.13</v>
-      </c>
-      <c r="J46">
-        <v>180</v>
-      </c>
-      <c r="K46">
-        <v>57.24</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="22"/>
-      <c r="B47" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C47">
-        <v>20</v>
-      </c>
-      <c r="D47">
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="E47">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="F47">
-        <v>0.51200000000000001</v>
-      </c>
-      <c r="G47">
-        <v>0.22</v>
-      </c>
-      <c r="H47">
-        <v>-0.17</v>
-      </c>
-      <c r="I47">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="J47">
-        <v>173</v>
-      </c>
-      <c r="K47">
-        <v>54.95</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="22"/>
-      <c r="B48" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C48" s="14">
-        <v>19</v>
-      </c>
-      <c r="D48" s="14">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="E48" s="14">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="F48" s="14">
-        <v>0.50900000000000001</v>
-      </c>
-      <c r="G48" s="14">
-        <v>0.219</v>
-      </c>
-      <c r="H48" s="14">
-        <v>-0.17</v>
-      </c>
-      <c r="I48" s="14">
-        <v>-0.08</v>
-      </c>
-      <c r="J48" s="14">
-        <v>173</v>
-      </c>
-      <c r="K48" s="14">
-        <v>54.11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C49">
-        <v>22</v>
-      </c>
-      <c r="D49">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="E49">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F49">
-        <v>0.60699999999999998</v>
-      </c>
-      <c r="G49">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="H49">
-        <v>-0.28000000000000003</v>
-      </c>
-      <c r="I49">
-        <v>-0.24</v>
-      </c>
-      <c r="J49">
-        <v>1913</v>
-      </c>
-      <c r="K49">
-        <v>38.78</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="27"/>
-      <c r="B50" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C50">
-        <v>120</v>
-      </c>
-      <c r="D50">
-        <v>0.55700000000000005</v>
-      </c>
-      <c r="E50">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="F50">
-        <v>0.91700000000000004</v>
-      </c>
-      <c r="G50">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>-0.2</v>
-      </c>
-      <c r="J50">
-        <v>670</v>
-      </c>
-      <c r="K50">
-        <v>50.07</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="27"/>
-      <c r="B51" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C51">
-        <v>218</v>
-      </c>
-      <c r="D51">
-        <v>0.58899999999999997</v>
-      </c>
-      <c r="E51">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F51">
-        <v>0.96699999999999997</v>
-      </c>
-      <c r="G51">
-        <v>0.496</v>
-      </c>
-      <c r="H51">
-        <v>0.18</v>
-      </c>
-      <c r="I51">
-        <v>-0.1</v>
-      </c>
-      <c r="J51">
-        <v>452</v>
-      </c>
-      <c r="K51">
-        <v>58.57</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="27"/>
-      <c r="B52" t="s">
-        <v>64</v>
-      </c>
-      <c r="C52">
-        <v>203</v>
-      </c>
-      <c r="D52">
-        <v>0.61</v>
-      </c>
-      <c r="E52">
-        <v>0.16200000000000001</v>
-      </c>
       <c r="F52">
-        <v>0.96599999999999997</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="G52">
-        <v>0.48599999999999999</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="H52">
         <v>0.25</v>
       </c>
       <c r="I52">
-        <v>-0.11</v>
+        <v>0.09</v>
       </c>
       <c r="J52">
-        <v>321</v>
+        <v>46</v>
       </c>
       <c r="K52">
-        <v>60.07</v>
+        <v>73.56</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="27"/>
+      <c r="A53" s="25"/>
       <c r="B53" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="C53">
-        <v>160</v>
+        <v>44</v>
       </c>
       <c r="D53">
-        <v>0.61199999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="E53">
-        <v>0.21099999999999999</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="F53">
-        <v>0.95499999999999996</v>
+        <v>0.84799999999999998</v>
       </c>
       <c r="G53">
-        <v>0.504</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="H53">
         <v>0.25</v>
       </c>
       <c r="I53">
-        <v>-0.13</v>
+        <v>0.09</v>
       </c>
       <c r="J53">
-        <v>228</v>
+        <v>44</v>
       </c>
       <c r="K53">
-        <v>60.89</v>
+        <v>72.67</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="27"/>
+      <c r="A54" s="25"/>
       <c r="B54" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="C54">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="D54">
-        <v>0.61499999999999999</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="E54">
-        <v>0.21299999999999999</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="F54">
-        <v>0.95499999999999996</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="G54">
-        <v>0.376</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="H54">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="I54">
-        <v>-0.24</v>
+        <v>0.12</v>
       </c>
       <c r="J54">
+        <v>33</v>
+      </c>
+      <c r="K54">
+        <v>73.17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="25"/>
+      <c r="B55" t="s">
+        <v>42</v>
+      </c>
+      <c r="C55">
+        <v>32</v>
+      </c>
+      <c r="D55">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="E55">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="F55">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="G55">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="H55">
+        <v>0.27</v>
+      </c>
+      <c r="I55">
+        <v>0.11</v>
+      </c>
+      <c r="J55">
+        <v>30</v>
+      </c>
+      <c r="K55">
+        <v>73.209999999999994</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="25"/>
+      <c r="B56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56">
+        <v>30</v>
+      </c>
+      <c r="D56">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="E56">
+        <v>0.24</v>
+      </c>
+      <c r="F56">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="G56">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="H56">
+        <v>0.27</v>
+      </c>
+      <c r="I56">
+        <v>0.1</v>
+      </c>
+      <c r="J56">
+        <v>28</v>
+      </c>
+      <c r="K56">
+        <v>73.58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="25"/>
+      <c r="B57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57">
+        <v>21</v>
+      </c>
+      <c r="D57">
+        <v>0.373</v>
+      </c>
+      <c r="E57">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="F57">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="G57">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="H57">
+        <v>-0.26</v>
+      </c>
+      <c r="I57">
+        <v>-0.19</v>
+      </c>
+      <c r="J57">
+        <v>218</v>
+      </c>
+      <c r="K57" s="29">
+        <v>61.28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="25"/>
+      <c r="B58" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58">
+        <v>23</v>
+      </c>
+      <c r="D58">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="E58">
+        <v>0.186</v>
+      </c>
+      <c r="F58">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="G58">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="H58">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="I58">
+        <v>-0.16</v>
+      </c>
+      <c r="J58">
+        <v>205</v>
+      </c>
+      <c r="K58">
+        <v>61.17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="25"/>
+      <c r="B59" t="s">
+        <v>46</v>
+      </c>
+      <c r="C59">
+        <v>22</v>
+      </c>
+      <c r="D59">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="E59">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="F59">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="G59">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="H59">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="I59">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="J59">
+        <v>195</v>
+      </c>
+      <c r="K59" s="29">
+        <v>61.69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="25"/>
+      <c r="B60" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60">
+        <v>24</v>
+      </c>
+      <c r="D60">
+        <v>0.316</v>
+      </c>
+      <c r="E60">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="F60">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="G60">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="H60">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="I60">
+        <v>-0.12</v>
+      </c>
+      <c r="J60">
+        <v>198</v>
+      </c>
+      <c r="K60">
+        <v>60.4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="25"/>
+      <c r="B61" t="s">
+        <v>48</v>
+      </c>
+      <c r="C61">
+        <v>22</v>
+      </c>
+      <c r="D61">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="E61">
+        <v>0.159</v>
+      </c>
+      <c r="F61">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="G61">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="H61">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="I61">
+        <v>-0.12</v>
+      </c>
+      <c r="J61">
         <v>200</v>
       </c>
-      <c r="K54">
-        <v>59.18</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="27"/>
-      <c r="B55" t="s">
-        <v>57</v>
-      </c>
-      <c r="C55">
-        <v>86</v>
-      </c>
-      <c r="D55">
-        <v>0.6</v>
-      </c>
-      <c r="E55">
-        <v>0.372</v>
-      </c>
-      <c r="F55">
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="G55">
-        <v>0.44800000000000001</v>
-      </c>
-      <c r="H55">
-        <v>0.2</v>
-      </c>
-      <c r="I55">
-        <v>-0.15</v>
-      </c>
-      <c r="J55">
-        <v>86</v>
-      </c>
-      <c r="K55">
-        <v>62.61</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="27"/>
-      <c r="B56" t="s">
-        <v>58</v>
-      </c>
-      <c r="C56">
-        <v>64</v>
-      </c>
-      <c r="D56">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="E56">
-        <v>0.443</v>
-      </c>
-      <c r="F56">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="G56">
-        <v>0.54900000000000004</v>
-      </c>
-      <c r="H56">
-        <v>0.19</v>
-      </c>
-      <c r="I56">
-        <v>-0.06</v>
-      </c>
-      <c r="J56">
-        <v>60</v>
-      </c>
-      <c r="K56">
-        <v>62.26</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="27"/>
-      <c r="B57" t="s">
-        <v>59</v>
-      </c>
-      <c r="C57">
-        <v>51</v>
-      </c>
-      <c r="D57">
-        <v>0.59699999999999998</v>
-      </c>
-      <c r="E57">
-        <v>0.45100000000000001</v>
-      </c>
-      <c r="F57">
-        <v>0.92900000000000005</v>
-      </c>
-      <c r="G57">
-        <v>0.58499999999999996</v>
-      </c>
-      <c r="H57">
-        <v>0.18</v>
-      </c>
-      <c r="I57">
-        <v>-0.04</v>
-      </c>
-      <c r="J57">
-        <v>47</v>
-      </c>
-      <c r="K57">
-        <v>60.83</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="27"/>
-      <c r="B58" t="s">
-        <v>60</v>
-      </c>
-      <c r="C58">
-        <v>51</v>
-      </c>
-      <c r="D58">
-        <v>0.59699999999999998</v>
-      </c>
-      <c r="E58">
-        <v>0.45100000000000001</v>
-      </c>
-      <c r="F58">
-        <v>0.92900000000000005</v>
-      </c>
-      <c r="G58">
-        <v>0.58499999999999996</v>
-      </c>
-      <c r="H58">
-        <v>0.18</v>
-      </c>
-      <c r="I58">
-        <v>-0.04</v>
-      </c>
-      <c r="J58">
-        <v>47</v>
-      </c>
-      <c r="K58">
-        <v>60.83</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="27"/>
-      <c r="B59" t="s">
-        <v>61</v>
-      </c>
-      <c r="C59">
-        <v>51</v>
-      </c>
-      <c r="D59">
-        <v>0.59699999999999998</v>
-      </c>
-      <c r="E59">
-        <v>0.45100000000000001</v>
-      </c>
-      <c r="F59">
-        <v>0.92900000000000005</v>
-      </c>
-      <c r="G59">
-        <v>0.58499999999999996</v>
-      </c>
-      <c r="H59">
-        <v>0.18</v>
-      </c>
-      <c r="I59">
-        <v>-0.04</v>
-      </c>
-      <c r="J59">
-        <v>47</v>
-      </c>
-      <c r="K59">
-        <v>60.83</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="27"/>
-      <c r="B60" t="s">
-        <v>67</v>
-      </c>
-      <c r="C60">
-        <v>21</v>
-      </c>
-      <c r="D60">
-        <v>0.26100000000000001</v>
-      </c>
-      <c r="E60">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="F60">
-        <v>0.64600000000000002</v>
-      </c>
-      <c r="G60">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="H60">
-        <v>-0.27</v>
-      </c>
-      <c r="I60">
-        <v>-0.24</v>
-      </c>
-      <c r="J60">
-        <v>2105</v>
-      </c>
-      <c r="K60">
-        <v>39.630000000000003</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="27"/>
-      <c r="B61" t="s">
-        <v>68</v>
-      </c>
-      <c r="C61">
-        <v>25</v>
-      </c>
-      <c r="D61">
-        <v>0.32900000000000001</v>
-      </c>
-      <c r="E61">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="F61">
-        <v>0.64100000000000001</v>
-      </c>
-      <c r="G61">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="H61">
-        <v>-0.27</v>
-      </c>
-      <c r="I61">
-        <v>-0.25</v>
-      </c>
-      <c r="J61">
-        <v>2048</v>
-      </c>
       <c r="K61">
-        <v>40.880000000000003</v>
+        <v>59.84</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="27"/>
+      <c r="A62" s="25"/>
       <c r="B62" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C62">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D62">
-        <v>0.34</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="E62">
-        <v>8.8999999999999996E-2</v>
+        <v>0.126</v>
       </c>
       <c r="F62">
-        <v>0.63800000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="G62">
-        <v>0.24399999999999999</v>
+        <v>0.437</v>
       </c>
       <c r="H62">
-        <v>-0.27</v>
+        <v>-0.3</v>
       </c>
       <c r="I62">
-        <v>-0.25</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="J62">
-        <v>1976</v>
+        <v>200</v>
       </c>
       <c r="K62">
-        <v>41.92</v>
+        <v>58.76</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="27"/>
+      <c r="A63" s="25"/>
       <c r="B63" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C63">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D63">
-        <v>0.32900000000000001</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="E63">
-        <v>8.8999999999999996E-2</v>
+        <v>0.123</v>
       </c>
       <c r="F63">
-        <v>0.624</v>
+        <v>0.67800000000000005</v>
       </c>
       <c r="G63">
-        <v>0.23599999999999999</v>
+        <v>0.434</v>
       </c>
       <c r="H63">
         <v>-0.27</v>
       </c>
       <c r="I63">
-        <v>-0.24</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="J63">
-        <v>1939</v>
-      </c>
-      <c r="K63">
-        <v>41.89</v>
+        <v>185</v>
+      </c>
+      <c r="K63" s="29">
+        <v>61.13</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="27"/>
+      <c r="A64" s="25"/>
       <c r="B64" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="C64">
         <v>23</v>
       </c>
       <c r="D64">
-        <v>0.33</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="E64">
-        <v>8.2000000000000003E-2</v>
+        <v>0.121</v>
       </c>
       <c r="F64">
-        <v>0.622</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="G64">
-        <v>0.22500000000000001</v>
+        <v>0.41</v>
       </c>
       <c r="H64">
-        <v>-0.28000000000000003</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="I64">
-        <v>-0.25</v>
+        <v>-0.15</v>
       </c>
       <c r="J64">
-        <v>1952</v>
+        <v>179</v>
       </c>
       <c r="K64">
-        <v>40.51</v>
+        <v>60.66</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="27"/>
+      <c r="A65" s="25"/>
       <c r="B65" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C65">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D65">
-        <v>0.223</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="E65">
-        <v>6.5000000000000002E-2</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="F65">
-        <v>0.61499999999999999</v>
+        <v>0.67800000000000005</v>
       </c>
       <c r="G65">
-        <v>0.216</v>
+        <v>0.40699999999999997</v>
       </c>
       <c r="H65">
-        <v>-0.28000000000000003</v>
+        <v>-0.3</v>
       </c>
       <c r="I65">
-        <v>-0.25</v>
+        <v>-0.16</v>
       </c>
       <c r="J65">
-        <v>1957</v>
+        <v>196</v>
       </c>
       <c r="K65">
-        <v>39.049999999999997</v>
+        <v>56.35</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="27"/>
+      <c r="A66" s="25"/>
       <c r="B66" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C66">
         <v>24</v>
       </c>
       <c r="D66">
-        <v>0.22</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="E66">
-        <v>6.6000000000000003E-2</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="F66">
-        <v>0.61099999999999999</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="G66">
-        <v>0.21299999999999999</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H66">
-        <v>-0.28000000000000003</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="I66">
-        <v>-0.24</v>
+        <v>-0.16</v>
       </c>
       <c r="J66">
-        <v>1906</v>
-      </c>
-      <c r="K66">
-        <v>40.01</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="27"/>
-      <c r="B67" t="s">
-        <v>74</v>
-      </c>
-      <c r="C67">
-        <v>23</v>
-      </c>
-      <c r="D67">
-        <v>0.192</v>
-      </c>
-      <c r="E67">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="F67">
-        <v>0.61099999999999999</v>
-      </c>
-      <c r="G67">
-        <v>0.21099999999999999</v>
-      </c>
-      <c r="H67">
-        <v>-0.28000000000000003</v>
-      </c>
-      <c r="I67">
-        <v>-0.25</v>
-      </c>
-      <c r="J67">
-        <v>1894</v>
-      </c>
-      <c r="K67">
-        <v>39.950000000000003</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="27"/>
-      <c r="B68" t="s">
-        <v>75</v>
-      </c>
-      <c r="C68">
-        <v>23</v>
-      </c>
-      <c r="D68">
-        <v>0.192</v>
-      </c>
-      <c r="E68">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="F68">
-        <v>0.61099999999999999</v>
-      </c>
-      <c r="G68">
-        <v>0.21099999999999999</v>
-      </c>
-      <c r="H68">
-        <v>-0.28000000000000003</v>
-      </c>
-      <c r="I68">
-        <v>-0.25</v>
-      </c>
-      <c r="J68">
-        <v>1894</v>
-      </c>
-      <c r="K68">
-        <v>39.950000000000003</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="27"/>
-      <c r="B69" t="s">
-        <v>76</v>
-      </c>
-      <c r="C69">
-        <v>23</v>
-      </c>
-      <c r="D69">
-        <v>0.192</v>
-      </c>
-      <c r="E69">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="F69">
-        <v>0.61099999999999999</v>
-      </c>
-      <c r="G69">
-        <v>0.21099999999999999</v>
-      </c>
-      <c r="H69">
-        <v>-0.28000000000000003</v>
-      </c>
-      <c r="I69">
-        <v>-0.25</v>
-      </c>
-      <c r="J69">
-        <v>1894</v>
-      </c>
-      <c r="K69">
-        <v>39.950000000000003</v>
+        <v>165</v>
+      </c>
+      <c r="K66" s="29">
+        <v>63.09</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A7:A27"/>
-    <mergeCell ref="A28:A48"/>
-    <mergeCell ref="A49:A69"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A4:A24"/>
+    <mergeCell ref="A25:A45"/>
+    <mergeCell ref="A46:A66"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/results/results_05.09.2023.xlsx
+++ b/results/results_05.09.2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Util\doctorat\PhdProject\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B7D7BD-18DD-4798-BFEC-250C7048EBA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32775F18-0FC0-4086-B111-C14D11A4E5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="05.09" sheetId="14" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="27.09" sheetId="16" r:id="rId3"/>
     <sheet name="07.10- with weights" sheetId="18" r:id="rId4"/>
     <sheet name="07.10 - with max weights" sheetId="19" r:id="rId5"/>
+    <sheet name="20.19 - without internal class" sheetId="20" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'15.09'!#REF!</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="85">
   <si>
     <t>Ant</t>
   </si>
@@ -322,6 +323,12 @@
                     Ref: 25</t>
     </r>
   </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
 </sst>
 </file>
 
@@ -366,7 +373,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -388,12 +395,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -537,8 +538,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2983,8 +2987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FFD26E6-0CB1-4054-9878-76A8CF2BB465}">
   <dimension ref="A2:P69"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5167,8 +5171,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C11BEF-538B-47EB-9986-8833C6A022D1}">
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7320,15 +7325,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A25:A45"/>
+    <mergeCell ref="A46:A66"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="A4:A24"/>
-    <mergeCell ref="A25:A45"/>
-    <mergeCell ref="A46:A66"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7336,10 +7341,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1CB37E0-FD34-444B-9077-9D2C9CA251EF}">
-  <dimension ref="A1:K66"/>
+  <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="K63" sqref="A1:K66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7412,19 +7417,19 @@
         <v>12</v>
       </c>
       <c r="C4" s="15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="15">
-        <v>0.21199999999999999</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="E4" s="15">
         <v>0.24199999999999999</v>
       </c>
       <c r="F4" s="15">
-        <v>0.53500000000000003</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="G4" s="15">
-        <v>0.23300000000000001</v>
+        <v>0.246</v>
       </c>
       <c r="H4" s="15">
         <v>-0.16</v>
@@ -7433,10 +7438,10 @@
         <v>-0.26</v>
       </c>
       <c r="J4" s="15">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="K4" s="15">
-        <v>62.8</v>
+        <v>65.48</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -7445,31 +7450,31 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D5">
-        <v>0.55500000000000005</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="E5">
         <v>0.33800000000000002</v>
       </c>
       <c r="F5">
-        <v>0.84799999999999998</v>
+        <v>0.84499999999999997</v>
       </c>
       <c r="G5">
-        <v>0.51300000000000001</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="H5">
-        <v>0.01</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="I5">
-        <v>-0.2</v>
+        <v>-0.26</v>
       </c>
       <c r="J5">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K5">
-        <v>69.77</v>
+        <v>70.099999999999994</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -7478,31 +7483,31 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D6">
-        <v>0.57999999999999996</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="E6">
         <v>0.27200000000000002</v>
       </c>
       <c r="F6">
-        <v>0.84499999999999997</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="G6">
-        <v>0.49099999999999999</v>
+        <v>0.497</v>
       </c>
       <c r="H6">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I6">
-        <v>-0.26</v>
+        <v>-0.32</v>
       </c>
       <c r="J6">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K6">
-        <v>66.83</v>
+        <v>69.709999999999994</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -7520,16 +7525,16 @@
         <v>0.24399999999999999</v>
       </c>
       <c r="F7">
-        <v>0.872</v>
+        <v>0.873</v>
       </c>
       <c r="G7">
-        <v>0.51300000000000001</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="H7">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="I7">
-        <v>-0.22</v>
+        <v>-0.21</v>
       </c>
       <c r="J7">
         <v>46</v>
@@ -7553,16 +7558,16 @@
         <v>0.19900000000000001</v>
       </c>
       <c r="F8">
-        <v>0.86</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="G8">
-        <v>0.52700000000000002</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="H8">
-        <v>0.23</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I8">
-        <v>-0.15</v>
+        <v>-0.2</v>
       </c>
       <c r="J8">
         <v>42</v>
@@ -7586,16 +7591,16 @@
         <v>0.20200000000000001</v>
       </c>
       <c r="F9">
-        <v>0.875</v>
+        <v>0.86799999999999999</v>
       </c>
       <c r="G9">
-        <v>0.59499999999999997</v>
+        <v>0.61</v>
       </c>
       <c r="H9">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="I9">
-        <v>-0.12</v>
+        <v>-0.17</v>
       </c>
       <c r="J9">
         <v>34</v>
@@ -7619,13 +7624,13 @@
         <v>0.24</v>
       </c>
       <c r="F10">
-        <v>0.85499999999999998</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="G10">
-        <v>0.504</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="H10">
-        <v>0.22</v>
+        <v>0.13</v>
       </c>
       <c r="I10">
         <v>-0.17</v>
@@ -7652,13 +7657,13 @@
         <v>0.26900000000000002</v>
       </c>
       <c r="F11">
-        <v>0.82399999999999995</v>
+        <v>0.81799999999999995</v>
       </c>
       <c r="G11">
-        <v>0.53600000000000003</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="H11">
-        <v>0.21</v>
+        <v>0.13</v>
       </c>
       <c r="I11">
         <v>-0.16</v>
@@ -7685,13 +7690,13 @@
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F12">
-        <v>0.78100000000000003</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="G12">
-        <v>0.39200000000000002</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="H12">
-        <v>0.21</v>
+        <v>0.12</v>
       </c>
       <c r="I12">
         <v>0.02</v>
@@ -7718,13 +7723,13 @@
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="F13">
-        <v>0.753</v>
+        <v>0.75</v>
       </c>
       <c r="G13">
-        <v>0.36599999999999999</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="H13">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="I13">
         <v>0.02</v>
@@ -7775,31 +7780,31 @@
         <v>23</v>
       </c>
       <c r="C15">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>0.25700000000000001</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="E15">
         <v>0.312</v>
       </c>
       <c r="F15">
-        <v>0.52</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="G15">
-        <v>0.193</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="H15">
-        <v>-0.36</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="I15">
-        <v>-0.37</v>
+        <v>-0.31</v>
       </c>
       <c r="J15">
-        <v>168</v>
-      </c>
-      <c r="K15" s="29">
-        <v>62.91</v>
+        <v>192</v>
+      </c>
+      <c r="K15">
+        <v>57.62</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -7808,166 +7813,166 @@
         <v>24</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>0.25800000000000001</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="E16">
         <v>0.26100000000000001</v>
       </c>
       <c r="F16">
-        <v>0.55000000000000004</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="G16">
-        <v>0.23499999999999999</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H16">
-        <v>-0.3</v>
+        <v>-0.21</v>
       </c>
       <c r="I16">
         <v>-0.3</v>
       </c>
       <c r="J16">
-        <v>153</v>
-      </c>
-      <c r="K16" s="29">
-        <v>65.38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+      <c r="K16">
+        <v>60.41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="16"/>
       <c r="B17" t="s">
         <v>25</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>0.28000000000000003</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="E17">
         <v>0.255</v>
       </c>
       <c r="F17">
-        <v>0.55500000000000005</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="G17">
-        <v>0.24299999999999999</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="H17">
-        <v>-0.26</v>
+        <v>-0.15</v>
       </c>
       <c r="I17">
-        <v>-0.3</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="J17">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="K17">
-        <v>62.12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+        <v>64.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="16"/>
       <c r="B18" t="s">
         <v>26</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <v>0.307</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="E18">
         <v>0.24299999999999999</v>
       </c>
       <c r="F18">
-        <v>0.55900000000000005</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="G18">
-        <v>0.252</v>
+        <v>0.3</v>
       </c>
       <c r="H18">
-        <v>-0.2</v>
+        <v>-0.15</v>
       </c>
       <c r="I18">
-        <v>-0.28999999999999998</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="J18">
-        <v>158</v>
-      </c>
-      <c r="K18" s="29">
-        <v>63.17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+      <c r="K18">
+        <v>64.099999999999994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="16"/>
       <c r="B19" t="s">
         <v>27</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D19">
-        <v>0.24199999999999999</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="E19">
         <v>0.24299999999999999</v>
       </c>
       <c r="F19">
-        <v>0.57099999999999995</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="G19">
-        <v>0.26300000000000001</v>
+        <v>0.314</v>
       </c>
       <c r="H19">
-        <v>-0.18</v>
+        <v>-0.15</v>
       </c>
       <c r="I19">
-        <v>-0.28999999999999998</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="J19">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="K19">
-        <v>60.47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+        <v>63.76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="16"/>
       <c r="B20" t="s">
         <v>28</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D20">
-        <v>0.246</v>
+        <v>0.254</v>
       </c>
       <c r="E20">
         <v>0.24399999999999999</v>
       </c>
       <c r="F20">
-        <v>0.56499999999999995</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="G20">
-        <v>0.253</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="H20">
-        <v>-0.14000000000000001</v>
+        <v>-0.05</v>
       </c>
       <c r="I20">
         <v>-0.28000000000000003</v>
       </c>
       <c r="J20">
-        <v>145</v>
-      </c>
-      <c r="K20" s="29">
-        <v>64.72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+      <c r="K20">
+        <v>60.58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="16"/>
       <c r="B21" t="s">
         <v>29</v>
@@ -7976,97 +7981,98 @@
         <v>16</v>
       </c>
       <c r="D21">
-        <v>0.28100000000000003</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="E21">
         <v>0.24399999999999999</v>
       </c>
       <c r="F21">
-        <v>0.56499999999999995</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="G21">
-        <v>0.25600000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="H21">
-        <v>-0.13</v>
+        <v>-0.05</v>
       </c>
       <c r="I21">
         <v>-0.28000000000000003</v>
       </c>
       <c r="J21">
-        <v>139</v>
-      </c>
-      <c r="K21" s="29">
-        <v>65.510000000000005</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+      <c r="K21">
+        <v>57.57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="16"/>
       <c r="B22" t="s">
         <v>30</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D22">
-        <v>0.215</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="E22">
         <v>0.23300000000000001</v>
       </c>
       <c r="F22">
-        <v>0.56200000000000006</v>
+        <v>0.59</v>
       </c>
       <c r="G22">
-        <v>0.25900000000000001</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="H22">
-        <v>-0.08</v>
+        <v>-0.16</v>
       </c>
       <c r="I22">
         <v>-0.28000000000000003</v>
       </c>
       <c r="J22">
-        <v>137</v>
-      </c>
-      <c r="K22" s="29">
-        <v>65.23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+      <c r="K22">
+        <v>58.88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="16"/>
       <c r="B23" t="s">
         <v>31</v>
       </c>
       <c r="C23">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D23">
-        <v>0.27700000000000002</v>
+        <v>0.224</v>
       </c>
       <c r="E23">
         <v>0.23400000000000001</v>
       </c>
       <c r="F23">
-        <v>0.56599999999999995</v>
+        <v>0.58899999999999997</v>
       </c>
       <c r="G23">
-        <v>0.25900000000000001</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="H23">
-        <v>-0.14000000000000001</v>
+        <v>-0.06</v>
       </c>
       <c r="I23">
         <v>-0.28000000000000003</v>
       </c>
       <c r="J23">
-        <v>147</v>
-      </c>
-      <c r="K23" s="29">
-        <v>62.21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="K23">
+        <v>64.78</v>
+      </c>
+      <c r="M23" s="14"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="16"/>
       <c r="B24" s="14" t="s">
         <v>32</v>
@@ -8075,31 +8081,31 @@
         <v>17</v>
       </c>
       <c r="D24" s="14">
-        <v>0.27100000000000002</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E24" s="14">
         <v>0.23400000000000001</v>
       </c>
       <c r="F24" s="14">
-        <v>0.56599999999999995</v>
+        <v>0.59299999999999997</v>
       </c>
       <c r="G24" s="14">
-        <v>0.26</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="H24" s="14">
-        <v>-0.14000000000000001</v>
+        <v>-0.13</v>
       </c>
       <c r="I24" s="14">
-        <v>-0.27</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="J24" s="14">
-        <v>139</v>
-      </c>
-      <c r="K24" s="30">
-        <v>63.42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+      <c r="K24" s="14">
+        <v>67.89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
         <v>54</v>
       </c>
@@ -8107,67 +8113,67 @@
         <v>11</v>
       </c>
       <c r="C25">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D25">
-        <v>0.26400000000000001</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="E25">
-        <v>0.104</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="F25">
-        <v>0.59199999999999997</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="G25">
-        <v>0.221</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="H25">
         <v>-0.36</v>
       </c>
       <c r="I25">
-        <v>-0.17</v>
+        <v>-0.19</v>
       </c>
       <c r="J25" s="15">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K25" s="15">
-        <v>60.59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+        <v>61.93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="18"/>
       <c r="B26" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C26">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D26">
-        <v>0.56599999999999995</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="E26">
         <v>0.34300000000000003</v>
       </c>
       <c r="F26">
-        <v>0.86</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="G26">
-        <v>0.77500000000000002</v>
+        <v>0.78200000000000003</v>
       </c>
       <c r="H26">
-        <v>7.0000000000000007E-2</v>
+        <v>-0.01</v>
       </c>
       <c r="I26">
-        <v>-0.11</v>
+        <v>-0.16</v>
       </c>
       <c r="J26">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="K26">
-        <v>75.37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+        <v>77.36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="18"/>
       <c r="B27" s="3" t="s">
         <v>35</v>
@@ -8182,16 +8188,16 @@
         <v>0.29299999999999998</v>
       </c>
       <c r="F27">
-        <v>0.88700000000000001</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="G27">
-        <v>0.76800000000000002</v>
+        <v>0.78200000000000003</v>
       </c>
       <c r="H27">
-        <v>0.12</v>
+        <v>0.03</v>
       </c>
       <c r="I27">
-        <v>-0.01</v>
+        <v>-0.03</v>
       </c>
       <c r="J27">
         <v>77</v>
@@ -8200,7 +8206,7 @@
         <v>74.16</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="18"/>
       <c r="B28" s="3" t="s">
         <v>36</v>
@@ -8209,31 +8215,31 @@
         <v>45</v>
       </c>
       <c r="D28">
-        <v>0.59899999999999998</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="E28">
-        <v>0.19800000000000001</v>
+        <v>0.193</v>
       </c>
       <c r="F28">
-        <v>0.88600000000000001</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="G28">
-        <v>0.73499999999999999</v>
+        <v>0.752</v>
       </c>
       <c r="H28">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="I28">
-        <v>-0.04</v>
+        <v>-0.02</v>
       </c>
       <c r="J28">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="K28">
-        <v>79.099999999999994</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+        <v>75.41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="18"/>
       <c r="B29" s="3" t="s">
         <v>37</v>
@@ -8245,19 +8251,19 @@
         <v>0.63100000000000001</v>
       </c>
       <c r="E29">
-        <v>0.26800000000000002</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="F29">
-        <v>0.88400000000000001</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="G29">
-        <v>0.74199999999999999</v>
+        <v>0.76200000000000001</v>
       </c>
       <c r="H29">
-        <v>0.21</v>
+        <v>0.11</v>
       </c>
       <c r="I29">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="J29">
         <v>44</v>
@@ -8266,7 +8272,7 @@
         <v>78.33</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="18"/>
       <c r="B30" s="3" t="s">
         <v>38</v>
@@ -8278,19 +8284,19 @@
         <v>0.63900000000000001</v>
       </c>
       <c r="E30">
-        <v>0.28199999999999997</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="F30">
-        <v>0.88400000000000001</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="G30">
-        <v>0.74</v>
+        <v>0.748</v>
       </c>
       <c r="H30">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="I30">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="J30">
         <v>44</v>
@@ -8299,7 +8305,7 @@
         <v>77.319999999999993</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="18"/>
       <c r="B31" s="3" t="s">
         <v>39</v>
@@ -8311,19 +8317,19 @@
         <v>0.627</v>
       </c>
       <c r="E31">
-        <v>0.27600000000000002</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="F31">
-        <v>0.86499999999999999</v>
+        <v>0.871</v>
       </c>
       <c r="G31">
-        <v>0.63500000000000001</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="H31">
-        <v>0.24</v>
+        <v>0.15</v>
       </c>
       <c r="I31">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="J31">
         <v>46</v>
@@ -8332,7 +8338,7 @@
         <v>73.56</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="18"/>
       <c r="B32" s="3" t="s">
         <v>40</v>
@@ -8344,19 +8350,19 @@
         <v>0.62</v>
       </c>
       <c r="E32">
-        <v>0.27400000000000002</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="F32">
-        <v>0.85</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="G32">
-        <v>0.63500000000000001</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="H32">
-        <v>0.24</v>
+        <v>0.15</v>
       </c>
       <c r="I32">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="J32">
         <v>44</v>
@@ -8371,31 +8377,31 @@
         <v>41</v>
       </c>
       <c r="C33">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D33">
-        <v>0.63200000000000001</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="E33">
         <v>0.28100000000000003</v>
       </c>
       <c r="F33">
-        <v>0.79500000000000004</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="G33">
-        <v>0.66100000000000003</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="H33">
-        <v>0.23</v>
+        <v>0.16</v>
       </c>
       <c r="I33">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="J33">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K33">
-        <v>73.17</v>
+        <v>72.36</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -8413,16 +8419,16 @@
         <v>0.24399999999999999</v>
       </c>
       <c r="F34">
-        <v>0.84399999999999997</v>
+        <v>0.84</v>
       </c>
       <c r="G34">
-        <v>0.67500000000000004</v>
+        <v>0.68200000000000005</v>
       </c>
       <c r="H34">
-        <v>0.26</v>
+        <v>0.18</v>
       </c>
       <c r="I34">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="J34">
         <v>30</v>
@@ -8446,10 +8452,10 @@
         <v>0.24</v>
       </c>
       <c r="F35">
-        <v>0.83499999999999996</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="G35">
-        <v>0.67700000000000005</v>
+        <v>0.68300000000000005</v>
       </c>
       <c r="H35">
         <v>0.26</v>
@@ -8470,31 +8476,31 @@
         <v>44</v>
       </c>
       <c r="C36">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D36">
-        <v>0.371</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="E36">
-        <v>0.26</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="F36">
-        <v>0.621</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="G36">
-        <v>0.38300000000000001</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="H36">
-        <v>-0.28999999999999998</v>
+        <v>-0.27</v>
       </c>
       <c r="I36">
-        <v>-0.21</v>
+        <v>-0.19</v>
       </c>
       <c r="J36">
-        <v>221</v>
-      </c>
-      <c r="K36" s="29">
-        <v>60.75</v>
+        <v>172</v>
+      </c>
+      <c r="K36">
+        <v>69.45</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -8503,31 +8509,31 @@
         <v>45</v>
       </c>
       <c r="C37">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D37">
-        <v>0.34699999999999998</v>
+        <v>0.39</v>
       </c>
       <c r="E37">
-        <v>0.192</v>
+        <v>0.191</v>
       </c>
       <c r="F37">
-        <v>0.63100000000000001</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="G37">
-        <v>0.378</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="H37">
-        <v>-0.32</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="I37">
-        <v>-0.18</v>
+        <v>-0.16</v>
       </c>
       <c r="J37">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="K37">
-        <v>59.66</v>
+        <v>64.77</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -8539,28 +8545,28 @@
         <v>23</v>
       </c>
       <c r="D38">
-        <v>0.32600000000000001</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="E38">
         <v>0.17599999999999999</v>
       </c>
       <c r="F38">
-        <v>0.63400000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="G38">
-        <v>0.39100000000000001</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="H38">
         <v>-0.3</v>
       </c>
       <c r="I38">
-        <v>-0.17</v>
+        <v>-0.15</v>
       </c>
       <c r="J38">
-        <v>200</v>
-      </c>
-      <c r="K38" s="29">
-        <v>60.71</v>
+        <v>197</v>
+      </c>
+      <c r="K38">
+        <v>61.3</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -8572,28 +8578,28 @@
         <v>24</v>
       </c>
       <c r="D39">
-        <v>0.32300000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="E39">
-        <v>0.16800000000000001</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="F39">
-        <v>0.65</v>
+        <v>0.68600000000000005</v>
       </c>
       <c r="G39">
-        <v>0.40100000000000002</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="H39">
-        <v>-0.3</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="I39">
-        <v>-0.14000000000000001</v>
+        <v>-0.15</v>
       </c>
       <c r="J39">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="K39">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -8602,31 +8608,31 @@
         <v>48</v>
       </c>
       <c r="C40">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D40">
-        <v>0.32400000000000001</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="E40">
         <v>0.16300000000000001</v>
       </c>
       <c r="F40">
-        <v>0.65900000000000003</v>
+        <v>0.69799999999999995</v>
       </c>
       <c r="G40">
-        <v>0.41899999999999998</v>
+        <v>0.49299999999999999</v>
       </c>
       <c r="H40">
-        <v>-0.28999999999999998</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="I40">
-        <v>-0.12</v>
+        <v>-0.16</v>
       </c>
       <c r="J40">
-        <v>193</v>
-      </c>
-      <c r="K40" s="29">
-        <v>61.24</v>
+        <v>187</v>
+      </c>
+      <c r="K40">
+        <v>62.45</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -8635,31 +8641,31 @@
         <v>49</v>
       </c>
       <c r="C41">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D41">
-        <v>0.32600000000000001</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="E41">
         <v>0.129</v>
       </c>
       <c r="F41">
-        <v>0.65700000000000003</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="G41">
-        <v>0.40600000000000003</v>
+        <v>0.48</v>
       </c>
       <c r="H41">
-        <v>-0.3</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="I41">
-        <v>-0.13</v>
+        <v>-0.17</v>
       </c>
       <c r="J41">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="K41">
-        <v>60.21</v>
+        <v>64.33</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -8668,31 +8674,31 @@
         <v>50</v>
       </c>
       <c r="C42">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D42">
-        <v>0.36899999999999999</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="E42">
-        <v>0.126</v>
+        <v>0.125</v>
       </c>
       <c r="F42">
-        <v>0.66</v>
+        <v>0.69099999999999995</v>
       </c>
       <c r="G42">
-        <v>0.40300000000000002</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="H42">
-        <v>-0.28000000000000003</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="I42">
-        <v>-0.13</v>
+        <v>-0.18</v>
       </c>
       <c r="J42">
-        <v>181</v>
-      </c>
-      <c r="K42" s="29">
-        <v>61.97</v>
+        <v>185</v>
+      </c>
+      <c r="K42">
+        <v>61.13</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -8704,28 +8710,28 @@
         <v>22</v>
       </c>
       <c r="D43">
-        <v>0.313</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="E43">
         <v>0.123</v>
       </c>
       <c r="F43">
-        <v>0.64800000000000002</v>
+        <v>0.67800000000000005</v>
       </c>
       <c r="G43">
-        <v>0.38300000000000001</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="H43">
-        <v>-0.31</v>
+        <v>-0.3</v>
       </c>
       <c r="I43">
-        <v>-0.14000000000000001</v>
+        <v>-0.18</v>
       </c>
       <c r="J43">
-        <v>178</v>
-      </c>
-      <c r="K43" s="29">
-        <v>60.88</v>
+        <v>173</v>
+      </c>
+      <c r="K43">
+        <v>61.98</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -8734,31 +8740,31 @@
         <v>52</v>
       </c>
       <c r="C44">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D44">
-        <v>0.35499999999999998</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="E44">
         <v>0.11899999999999999</v>
       </c>
       <c r="F44">
-        <v>0.65700000000000003</v>
+        <v>0.69599999999999995</v>
       </c>
       <c r="G44">
-        <v>0.38</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="H44">
-        <v>-0.31</v>
+        <v>-0.3</v>
       </c>
       <c r="I44">
-        <v>-0.14000000000000001</v>
+        <v>-0.19</v>
       </c>
       <c r="J44">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="K44">
-        <v>58.35</v>
+        <v>59.47</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -8767,31 +8773,31 @@
         <v>53</v>
       </c>
       <c r="C45" s="14">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D45" s="14">
-        <v>0.33600000000000002</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="E45" s="14">
-        <v>0.11899999999999999</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="F45" s="14">
-        <v>0.65900000000000003</v>
+        <v>0.70199999999999996</v>
       </c>
       <c r="G45" s="14">
-        <v>0.38600000000000001</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="H45" s="14">
-        <v>-0.32</v>
+        <v>-0.31</v>
       </c>
       <c r="I45" s="14">
-        <v>-0.14000000000000001</v>
+        <v>-0.19</v>
       </c>
       <c r="J45" s="14">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K45" s="14">
-        <v>60.18</v>
+        <v>59.51</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -8799,699 +8805,698 @@
         <v>78</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C46">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D46">
-        <v>0.26400000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="E46">
-        <v>9.8000000000000004E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F46">
-        <v>0.59199999999999997</v>
+        <v>0.67</v>
       </c>
       <c r="G46">
-        <v>0.221</v>
+        <v>0.27</v>
       </c>
       <c r="H46">
-        <v>-0.36</v>
+        <v>-0.25</v>
       </c>
       <c r="I46">
-        <v>-0.17</v>
+        <v>-0.25</v>
       </c>
       <c r="J46" s="15">
-        <v>145</v>
+        <v>1752</v>
       </c>
       <c r="K46" s="15">
-        <v>61.13</v>
+        <v>43.95</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="25"/>
       <c r="B47" s="3" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="C47">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D47">
-        <v>0.58099999999999996</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="E47">
-        <v>0.34100000000000003</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="F47">
-        <v>0.86099999999999999</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="G47">
-        <v>0.77400000000000002</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="H47">
-        <v>0.1</v>
+        <v>-0.19</v>
       </c>
       <c r="I47">
-        <v>-0.1</v>
+        <v>-0.31</v>
       </c>
       <c r="J47">
-        <v>91</v>
+        <v>834</v>
       </c>
       <c r="K47">
-        <v>77.36</v>
+        <v>42.52</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="25"/>
       <c r="B48" s="3" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C48">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="D48">
-        <v>0.60399999999999998</v>
+        <v>0.47899999999999998</v>
       </c>
       <c r="E48">
-        <v>0.26700000000000002</v>
+        <v>0.152</v>
       </c>
       <c r="F48">
-        <v>0.89100000000000001</v>
+        <v>0.83899999999999997</v>
       </c>
       <c r="G48">
-        <v>0.77</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="H48">
-        <v>0.13</v>
+        <v>-0.16</v>
       </c>
       <c r="I48">
-        <v>-0.01</v>
+        <v>-0.31</v>
       </c>
       <c r="J48">
-        <v>77</v>
+        <v>736</v>
       </c>
       <c r="K48">
-        <v>74.16</v>
+        <v>44.54</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="25"/>
       <c r="B49" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C49">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="D49">
-        <v>0.59899999999999998</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="E49">
-        <v>0.17399999999999999</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="F49">
-        <v>0.88800000000000001</v>
+        <v>0.86099999999999999</v>
       </c>
       <c r="G49">
-        <v>0.73399999999999999</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="H49">
-        <v>0.16</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="I49">
-        <v>-0.04</v>
+        <v>-0.31</v>
       </c>
       <c r="J49">
-        <v>51</v>
+        <v>683</v>
       </c>
       <c r="K49">
-        <v>79.099999999999994</v>
+        <v>44.34</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="25"/>
       <c r="B50" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="C50">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="D50">
-        <v>0.63100000000000001</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="E50">
-        <v>0.26800000000000002</v>
+        <v>0.156</v>
       </c>
       <c r="F50">
-        <v>0.88500000000000001</v>
+        <v>0.879</v>
       </c>
       <c r="G50">
-        <v>0.74099999999999999</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="H50">
-        <v>0.21</v>
+        <v>-0.09</v>
       </c>
       <c r="I50">
-        <v>0.05</v>
+        <v>-0.27</v>
       </c>
       <c r="J50">
-        <v>44</v>
+        <v>485</v>
       </c>
       <c r="K50">
-        <v>78.33</v>
+        <v>47.28</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="25"/>
       <c r="B51" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="C51">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="D51">
-        <v>0.63900000000000001</v>
+        <v>0.503</v>
       </c>
       <c r="E51">
-        <v>0.28199999999999997</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="F51">
-        <v>0.88400000000000001</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="G51">
-        <v>0.73899999999999999</v>
+        <v>0.436</v>
       </c>
       <c r="H51">
-        <v>0.25</v>
+        <v>-0.11</v>
       </c>
       <c r="I51">
-        <v>0.09</v>
+        <v>-0.27</v>
       </c>
       <c r="J51">
-        <v>44</v>
+        <v>457</v>
       </c>
       <c r="K51">
-        <v>77.319999999999993</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="25"/>
       <c r="B52" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C52">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D52">
-        <v>0.627</v>
+        <v>0.498</v>
       </c>
       <c r="E52">
-        <v>0.27600000000000002</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="F52">
-        <v>0.86499999999999999</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="G52">
-        <v>0.63100000000000001</v>
+        <v>0.376</v>
       </c>
       <c r="H52">
-        <v>0.25</v>
+        <v>-0.11</v>
       </c>
       <c r="I52">
-        <v>0.09</v>
+        <v>-0.27</v>
       </c>
       <c r="J52">
-        <v>46</v>
+        <v>415</v>
       </c>
       <c r="K52">
-        <v>73.56</v>
+        <v>51.52</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="25"/>
       <c r="B53" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="C53">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="D53">
-        <v>0.62</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="E53">
-        <v>0.27400000000000002</v>
+        <v>0.188</v>
       </c>
       <c r="F53">
-        <v>0.84799999999999998</v>
+        <v>0.91</v>
       </c>
       <c r="G53">
-        <v>0.63100000000000001</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="H53">
-        <v>0.25</v>
+        <v>0.06</v>
       </c>
       <c r="I53">
-        <v>0.09</v>
+        <v>-0.27</v>
       </c>
       <c r="J53">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="K53">
-        <v>72.67</v>
+        <v>64.59</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="25"/>
       <c r="B54" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C54">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="D54">
-        <v>0.63200000000000001</v>
+        <v>0.56899999999999995</v>
       </c>
       <c r="E54">
-        <v>0.28100000000000003</v>
+        <v>0.187</v>
       </c>
       <c r="F54">
-        <v>0.79200000000000004</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="G54">
-        <v>0.65900000000000003</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="H54">
-        <v>0.24</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I54">
-        <v>0.12</v>
+        <v>-0.26</v>
       </c>
       <c r="J54">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="K54">
-        <v>73.17</v>
+        <v>63.46</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="25"/>
       <c r="B55" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C55">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="D55">
-        <v>0.64400000000000002</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="E55">
-        <v>0.24399999999999999</v>
+        <v>0.216</v>
       </c>
       <c r="F55">
-        <v>0.84099999999999997</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="G55">
-        <v>0.67300000000000004</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="H55">
-        <v>0.27</v>
+        <v>0.08</v>
       </c>
       <c r="I55">
-        <v>0.11</v>
+        <v>-0.3</v>
       </c>
       <c r="J55">
-        <v>30</v>
+        <v>163</v>
       </c>
       <c r="K55">
-        <v>73.209999999999994</v>
+        <v>62.87</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="25"/>
       <c r="B56" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C56">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="D56">
-        <v>0.64500000000000002</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="E56">
-        <v>0.24</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="F56">
-        <v>0.83199999999999996</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="G56">
-        <v>0.67500000000000004</v>
+        <v>0.42799999999999999</v>
       </c>
       <c r="H56">
-        <v>0.27</v>
+        <v>0.06</v>
       </c>
       <c r="I56">
-        <v>0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="J56">
-        <v>28</v>
+        <v>132</v>
       </c>
       <c r="K56">
-        <v>73.58</v>
+        <v>63.54</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="25"/>
       <c r="B57" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="C57">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D57">
-        <v>0.373</v>
+        <v>0.151</v>
       </c>
       <c r="E57">
-        <v>0.25800000000000001</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="F57">
-        <v>0.63600000000000001</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="G57">
-        <v>0.40799999999999997</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="H57">
-        <v>-0.26</v>
+        <v>-0.25</v>
       </c>
       <c r="I57">
-        <v>-0.19</v>
+        <v>-0.24</v>
       </c>
       <c r="J57">
-        <v>218</v>
-      </c>
-      <c r="K57" s="29">
-        <v>61.28</v>
+        <v>2093</v>
+      </c>
+      <c r="K57">
+        <v>40.11</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="25"/>
       <c r="B58" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="C58">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D58">
-        <v>0.35799999999999998</v>
+        <v>0.218</v>
       </c>
       <c r="E58">
-        <v>0.186</v>
+        <v>0.1</v>
       </c>
       <c r="F58">
-        <v>0.64200000000000002</v>
+        <v>0.68400000000000005</v>
       </c>
       <c r="G58">
-        <v>0.40699999999999997</v>
+        <v>0.309</v>
       </c>
       <c r="H58">
-        <v>-0.28999999999999998</v>
+        <v>-0.25</v>
       </c>
       <c r="I58">
-        <v>-0.16</v>
+        <v>-0.26</v>
       </c>
       <c r="J58">
-        <v>205</v>
+        <v>2042</v>
       </c>
       <c r="K58">
-        <v>61.17</v>
+        <v>41.22</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="25"/>
       <c r="B59" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="C59">
         <v>22</v>
       </c>
       <c r="D59">
-        <v>0.32200000000000001</v>
+        <v>0.182</v>
       </c>
       <c r="E59">
-        <v>0.17100000000000001</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="F59">
-        <v>0.65500000000000003</v>
+        <v>0.69499999999999995</v>
       </c>
       <c r="G59">
-        <v>0.42099999999999999</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="H59">
-        <v>-0.28999999999999998</v>
+        <v>-0.25</v>
       </c>
       <c r="I59">
-        <v>-0.14000000000000001</v>
+        <v>-0.26</v>
       </c>
       <c r="J59">
-        <v>195</v>
-      </c>
-      <c r="K59" s="29">
-        <v>61.69</v>
+        <v>2076</v>
+      </c>
+      <c r="K59">
+        <v>40.03</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="25"/>
       <c r="B60" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="C60">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D60">
-        <v>0.316</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="E60">
-        <v>0.16300000000000001</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="F60">
-        <v>0.66400000000000003</v>
+        <v>0.69399999999999995</v>
       </c>
       <c r="G60">
-        <v>0.43099999999999999</v>
+        <v>0.317</v>
       </c>
       <c r="H60">
-        <v>-0.28000000000000003</v>
+        <v>-0.26</v>
       </c>
       <c r="I60">
-        <v>-0.12</v>
+        <v>-0.25</v>
       </c>
       <c r="J60">
-        <v>198</v>
+        <v>2075</v>
       </c>
       <c r="K60">
-        <v>60.4</v>
+        <v>39.15</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="25"/>
       <c r="B61" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="C61">
         <v>22</v>
       </c>
       <c r="D61">
-        <v>0.35799999999999998</v>
+        <v>0.215</v>
       </c>
       <c r="E61">
-        <v>0.159</v>
+        <v>7.8E-2</v>
       </c>
       <c r="F61">
-        <v>0.67700000000000005</v>
+        <v>0.69699999999999995</v>
       </c>
       <c r="G61">
-        <v>0.45200000000000001</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="H61">
-        <v>-0.28999999999999998</v>
+        <v>-0.26</v>
       </c>
       <c r="I61">
-        <v>-0.12</v>
+        <v>-0.25</v>
       </c>
       <c r="J61">
-        <v>200</v>
+        <v>2116</v>
       </c>
       <c r="K61">
-        <v>59.84</v>
+        <v>37.909999999999997</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="25"/>
       <c r="B62" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="C62">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D62">
-        <v>0.35699999999999998</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="E62">
-        <v>0.126</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="F62">
-        <v>0.67</v>
+        <v>0.69699999999999995</v>
       </c>
       <c r="G62">
-        <v>0.437</v>
+        <v>0.317</v>
       </c>
       <c r="H62">
-        <v>-0.3</v>
+        <v>-0.27</v>
       </c>
       <c r="I62">
-        <v>-0.14000000000000001</v>
+        <v>-0.26</v>
       </c>
       <c r="J62">
-        <v>200</v>
+        <v>2057</v>
       </c>
       <c r="K62">
-        <v>58.76</v>
+        <v>39.299999999999997</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="25"/>
       <c r="B63" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="C63">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D63">
-        <v>0.35399999999999998</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="E63">
-        <v>0.123</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="F63">
-        <v>0.67800000000000005</v>
+        <v>0.69099999999999995</v>
       </c>
       <c r="G63">
-        <v>0.434</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="H63">
-        <v>-0.27</v>
+        <v>-0.26</v>
       </c>
       <c r="I63">
-        <v>-0.14000000000000001</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="J63">
-        <v>185</v>
-      </c>
-      <c r="K63" s="29">
-        <v>61.13</v>
+        <v>1928</v>
+      </c>
+      <c r="K63">
+        <v>42.14</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="25"/>
       <c r="B64" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="C64">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D64">
-        <v>0.33800000000000002</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="E64">
-        <v>0.121</v>
+        <v>6.3E-2</v>
       </c>
       <c r="F64">
-        <v>0.66500000000000004</v>
+        <v>0.69099999999999995</v>
       </c>
       <c r="G64">
-        <v>0.41</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="H64">
-        <v>-0.28999999999999998</v>
+        <v>-0.26</v>
       </c>
       <c r="I64">
-        <v>-0.15</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="J64">
-        <v>179</v>
+        <v>1984</v>
       </c>
       <c r="K64">
-        <v>60.66</v>
+        <v>40.380000000000003</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="25"/>
       <c r="B65" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="C65">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D65">
-        <v>0.34100000000000003</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="E65">
-        <v>0.11700000000000001</v>
+        <v>6.3E-2</v>
       </c>
       <c r="F65">
-        <v>0.67800000000000005</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="G65">
-        <v>0.40699999999999997</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="H65">
-        <v>-0.3</v>
+        <v>-0.27</v>
       </c>
       <c r="I65">
-        <v>-0.16</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="J65">
-        <v>196</v>
+        <v>1975</v>
       </c>
       <c r="K65">
-        <v>56.35</v>
+        <v>40.549999999999997</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="25"/>
       <c r="B66" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="C66">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D66">
-        <v>0.33600000000000002</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="E66">
-        <v>0.11700000000000001</v>
+        <v>6.3E-2</v>
       </c>
       <c r="F66">
-        <v>0.68799999999999994</v>
+        <v>0.68899999999999995</v>
       </c>
       <c r="G66">
-        <v>0.41499999999999998</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="H66">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="I66">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="I66">
-        <v>-0.16</v>
-      </c>
       <c r="J66">
-        <v>165</v>
-      </c>
-      <c r="K66" s="29">
-        <v>63.09</v>
+        <v>1980</v>
+      </c>
+      <c r="K66">
+        <v>39.93</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A4:A24"/>
     <mergeCell ref="A25:A45"/>
     <mergeCell ref="A46:A66"/>
     <mergeCell ref="D1:E1"/>
@@ -9500,8 +9505,2235 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A4:A24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A62D2D7-5B06-4749-AB75-358EE313A89A}">
+  <dimension ref="A1:K66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="M68" sqref="M68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="19"/>
+      <c r="G1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="26"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E2" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="27"/>
+      <c r="G2" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="28"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C3" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>346</v>
+      </c>
+      <c r="E4">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="F4">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="G4">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="H4">
+        <v>0.246</v>
+      </c>
+      <c r="I4">
+        <v>116</v>
+      </c>
+      <c r="J4">
+        <v>65.48</v>
+      </c>
+      <c r="K4" s="29">
+        <f>(D4*100)/D4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="16"/>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>54</v>
+      </c>
+      <c r="D5">
+        <v>202</v>
+      </c>
+      <c r="E5">
+        <v>0.71</v>
+      </c>
+      <c r="F5">
+        <v>0.31</v>
+      </c>
+      <c r="G5">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="H5">
+        <v>0.49</v>
+      </c>
+      <c r="I5">
+        <v>83</v>
+      </c>
+      <c r="J5">
+        <v>57.44</v>
+      </c>
+      <c r="K5" s="29">
+        <f>(D5*100)/D4</f>
+        <v>58.381502890173408</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="16"/>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>52</v>
+      </c>
+      <c r="D6">
+        <v>108</v>
+      </c>
+      <c r="E6">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="F6">
+        <v>0.24</v>
+      </c>
+      <c r="G6">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="H6">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="I6">
+        <v>59</v>
+      </c>
+      <c r="J6">
+        <v>42.72</v>
+      </c>
+      <c r="K6" s="29">
+        <f>(D6*100)/D4</f>
+        <v>31.213872832369944</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="16"/>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>44</v>
+      </c>
+      <c r="D7">
+        <v>76</v>
+      </c>
+      <c r="E7">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="F7">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="G7">
+        <v>0.873</v>
+      </c>
+      <c r="H7">
+        <v>0.442</v>
+      </c>
+      <c r="I7">
+        <v>46</v>
+      </c>
+      <c r="J7">
+        <v>36.11</v>
+      </c>
+      <c r="K7" s="29">
+        <f>(D7*100)/D4</f>
+        <v>21.965317919075144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="16"/>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>40</v>
+      </c>
+      <c r="D8">
+        <v>58</v>
+      </c>
+      <c r="E8">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="F8">
+        <v>0.12</v>
+      </c>
+      <c r="G8">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="H8">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="I8">
+        <v>42</v>
+      </c>
+      <c r="J8">
+        <v>23.64</v>
+      </c>
+      <c r="K8" s="29">
+        <f>(D8*100)/D4</f>
+        <v>16.76300578034682</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="16"/>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>35</v>
+      </c>
+      <c r="D9">
+        <v>48</v>
+      </c>
+      <c r="E9">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="F9">
+        <v>0.126</v>
+      </c>
+      <c r="G9">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="H9">
+        <v>0.49</v>
+      </c>
+      <c r="I9">
+        <v>35</v>
+      </c>
+      <c r="J9">
+        <v>22.22</v>
+      </c>
+      <c r="K9" s="29">
+        <f>(D9*100)/D4</f>
+        <v>13.872832369942197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="16"/>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>34</v>
+      </c>
+      <c r="D10">
+        <v>44</v>
+      </c>
+      <c r="E10">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="F10">
+        <v>0.37</v>
+      </c>
+      <c r="G10">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="H10">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="I10">
+        <v>33</v>
+      </c>
+      <c r="J10">
+        <v>19.510000000000002</v>
+      </c>
+      <c r="K10" s="29">
+        <f>(D10*100)/D4</f>
+        <v>12.716763005780347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="16"/>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11">
+        <v>32</v>
+      </c>
+      <c r="D11">
+        <v>38</v>
+      </c>
+      <c r="E11">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="F11">
+        <v>0.373</v>
+      </c>
+      <c r="G11">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="H11">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="I11">
+        <v>29</v>
+      </c>
+      <c r="J11">
+        <v>17.14</v>
+      </c>
+      <c r="K11" s="29">
+        <f>(D11*100)/D4</f>
+        <v>10.982658959537572</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="16"/>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>29</v>
+      </c>
+      <c r="D12">
+        <v>34</v>
+      </c>
+      <c r="E12">
+        <v>0.94</v>
+      </c>
+      <c r="F12">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="G12">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="H12">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="I12">
+        <v>27</v>
+      </c>
+      <c r="J12">
+        <v>15.62</v>
+      </c>
+      <c r="K12" s="29">
+        <f>(D12*100)/D4</f>
+        <v>9.8265895953757223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>0.99</v>
+      </c>
+      <c r="F13">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="G13">
+        <v>0.75</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>23</v>
+      </c>
+      <c r="J13">
+        <v>8</v>
+      </c>
+      <c r="K13" s="29">
+        <f>(D13*100)/D4</f>
+        <v>7.5144508670520231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14">
+        <v>19</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G14">
+        <v>0.7</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>18</v>
+      </c>
+      <c r="J14">
+        <v>5.26</v>
+      </c>
+      <c r="K14" s="29">
+        <f>(D14*100)/D4</f>
+        <v>5.7803468208092488</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>346</v>
+      </c>
+      <c r="E15">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="F15">
+        <v>0.315</v>
+      </c>
+      <c r="G15">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="H15">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="I15">
+        <v>139</v>
+      </c>
+      <c r="J15">
+        <v>58.63</v>
+      </c>
+      <c r="K15" s="29">
+        <f>(D15*100)/D4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="16"/>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16">
+        <v>13</v>
+      </c>
+      <c r="D16">
+        <v>346</v>
+      </c>
+      <c r="E16">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="F16">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="G16">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="H16">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="I16">
+        <v>117</v>
+      </c>
+      <c r="J16">
+        <v>65.180000000000007</v>
+      </c>
+      <c r="K16" s="29">
+        <f>(D16*100)/D4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="16"/>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>346</v>
+      </c>
+      <c r="E17">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="F17">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="G17">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="H17">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="I17">
+        <v>121</v>
+      </c>
+      <c r="J17">
+        <v>63.99</v>
+      </c>
+      <c r="K17" s="29">
+        <f>(D17*100)/D4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="16"/>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18">
+        <v>15</v>
+      </c>
+      <c r="D18">
+        <v>346</v>
+      </c>
+      <c r="E18">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="F18">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="G18">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="H18">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="I18">
+        <v>114</v>
+      </c>
+      <c r="J18">
+        <v>66.069999999999993</v>
+      </c>
+      <c r="K18" s="29">
+        <f>(D18*100)/D4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="16"/>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19">
+        <v>14</v>
+      </c>
+      <c r="D19">
+        <v>346</v>
+      </c>
+      <c r="E19">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="F19">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="G19">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="H19">
+        <v>0.318</v>
+      </c>
+      <c r="I19">
+        <v>119</v>
+      </c>
+      <c r="J19">
+        <v>64.58</v>
+      </c>
+      <c r="K19" s="29">
+        <f>(D19*100)/D4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="16"/>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20">
+        <v>16</v>
+      </c>
+      <c r="D20">
+        <v>346</v>
+      </c>
+      <c r="E20">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="F20">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="G20">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="H20">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="I20">
+        <v>118</v>
+      </c>
+      <c r="J20">
+        <v>64.88</v>
+      </c>
+      <c r="K20" s="29">
+        <f>(D20*100)/D4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="16"/>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21">
+        <v>16</v>
+      </c>
+      <c r="D21">
+        <v>346</v>
+      </c>
+      <c r="E21">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="F21">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="G21">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="H21">
+        <v>0.3</v>
+      </c>
+      <c r="I21">
+        <v>115</v>
+      </c>
+      <c r="J21">
+        <v>65.77</v>
+      </c>
+      <c r="K21" s="29">
+        <f>(D21*100)/D4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="16"/>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22">
+        <v>14</v>
+      </c>
+      <c r="D22">
+        <v>346</v>
+      </c>
+      <c r="E22">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="F22">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="G22">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="H22">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="I22">
+        <v>146</v>
+      </c>
+      <c r="J22">
+        <v>56.55</v>
+      </c>
+      <c r="K22" s="29">
+        <f>(D22*100)/D4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="16"/>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23">
+        <v>14</v>
+      </c>
+      <c r="D23">
+        <v>346</v>
+      </c>
+      <c r="E23">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="F23">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="G23">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="H23">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="I23">
+        <v>149</v>
+      </c>
+      <c r="J23">
+        <v>55.65</v>
+      </c>
+      <c r="K23" s="29">
+        <f>(D23*100)/D4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="16"/>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24">
+        <v>15</v>
+      </c>
+      <c r="D24">
+        <v>346</v>
+      </c>
+      <c r="E24">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="F24">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="G24">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="H24">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="I24">
+        <v>128</v>
+      </c>
+      <c r="J24">
+        <v>61.9</v>
+      </c>
+      <c r="K24" s="29">
+        <f>(D24*100)/D4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="2">
+        <v>17</v>
+      </c>
+      <c r="D25" s="2">
+        <v>383</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="F25" s="2">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="I25" s="2">
+        <v>144</v>
+      </c>
+      <c r="J25" s="2">
+        <v>61.39</v>
+      </c>
+      <c r="K25" s="31">
+        <f>(D25*100)/D25</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="18"/>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26">
+        <v>39</v>
+      </c>
+      <c r="D26">
+        <v>230</v>
+      </c>
+      <c r="E26">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="F26">
+        <v>0.184</v>
+      </c>
+      <c r="G26">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="H26">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="I26">
+        <v>67</v>
+      </c>
+      <c r="J26">
+        <v>69.959999999999994</v>
+      </c>
+      <c r="K26" s="29">
+        <f>(D26*100)/D25</f>
+        <v>60.052219321148826</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="18"/>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27">
+        <v>44</v>
+      </c>
+      <c r="D27">
+        <v>154</v>
+      </c>
+      <c r="E27">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="F27">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="G27">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="H27">
+        <v>0.307</v>
+      </c>
+      <c r="I27">
+        <v>60</v>
+      </c>
+      <c r="J27">
+        <v>60.53</v>
+      </c>
+      <c r="K27" s="29">
+        <f>(D27*100)/D25</f>
+        <v>40.208877284595303</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="18"/>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28">
+        <v>45</v>
+      </c>
+      <c r="D28">
+        <v>112</v>
+      </c>
+      <c r="E28">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="F28">
+        <v>1.9E-2</v>
+      </c>
+      <c r="G28">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>44</v>
+      </c>
+      <c r="J28">
+        <v>60.36</v>
+      </c>
+      <c r="K28" s="29">
+        <f>(D28*100)/D25</f>
+        <v>29.242819843342037</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="18"/>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29">
+        <v>41</v>
+      </c>
+      <c r="D29">
+        <v>80</v>
+      </c>
+      <c r="E29">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="F29">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G29">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>40</v>
+      </c>
+      <c r="J29">
+        <v>49.37</v>
+      </c>
+      <c r="K29" s="29">
+        <f>(D29*100)/D25</f>
+        <v>20.887728459530027</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="18"/>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30">
+        <v>44</v>
+      </c>
+      <c r="D30">
+        <v>71</v>
+      </c>
+      <c r="E30">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="F30">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="G30">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>43</v>
+      </c>
+      <c r="J30">
+        <v>38.57</v>
+      </c>
+      <c r="K30" s="29">
+        <f>(D30*100)/D25</f>
+        <v>18.5378590078329</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="18"/>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31">
+        <v>45</v>
+      </c>
+      <c r="D31">
+        <v>63</v>
+      </c>
+      <c r="E31">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="F31">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="G31">
+        <v>0.871</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>44</v>
+      </c>
+      <c r="J31">
+        <v>29.03</v>
+      </c>
+      <c r="K31" s="29">
+        <f>(D31*100)/D25</f>
+        <v>16.449086161879894</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="18"/>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32">
+        <v>44</v>
+      </c>
+      <c r="D32">
+        <v>59</v>
+      </c>
+      <c r="E32">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="F32">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="G32">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>43</v>
+      </c>
+      <c r="J32">
+        <v>25.86</v>
+      </c>
+      <c r="K32" s="29">
+        <f>(D32*100)/D25</f>
+        <v>15.404699738903394</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="18"/>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33">
+        <v>35</v>
+      </c>
+      <c r="D33">
+        <v>41</v>
+      </c>
+      <c r="E33">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="F33">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="G33">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>34</v>
+      </c>
+      <c r="J33">
+        <v>15</v>
+      </c>
+      <c r="K33" s="29">
+        <f>(D33*100)/D25</f>
+        <v>10.704960835509139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="18"/>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34">
+        <v>32</v>
+      </c>
+      <c r="D34">
+        <v>36</v>
+      </c>
+      <c r="E34">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="F34">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G34">
+        <v>0.84</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>31</v>
+      </c>
+      <c r="J34">
+        <v>11.43</v>
+      </c>
+      <c r="K34" s="29">
+        <f>(D34*100)/D25</f>
+        <v>9.3994778067885125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="18"/>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35">
+        <v>30</v>
+      </c>
+      <c r="D35">
+        <v>32</v>
+      </c>
+      <c r="E35">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="F35">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G35">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>29</v>
+      </c>
+      <c r="J35">
+        <v>6.45</v>
+      </c>
+      <c r="K35" s="29">
+        <f>(D35*100)/D25</f>
+        <v>8.3550913838120113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="18"/>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36">
+        <v>21</v>
+      </c>
+      <c r="D36">
+        <v>393</v>
+      </c>
+      <c r="E36">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="F36">
+        <v>0.152</v>
+      </c>
+      <c r="G36">
+        <v>0.65</v>
+      </c>
+      <c r="H36">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="I36">
+        <v>140</v>
+      </c>
+      <c r="J36">
+        <v>63.35</v>
+      </c>
+      <c r="K36" s="29">
+        <f>(D36*100)/D25</f>
+        <v>102.61096605744126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="18"/>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37">
+        <v>23</v>
+      </c>
+      <c r="D37">
+        <v>389</v>
+      </c>
+      <c r="E37">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="F37">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="G37">
+        <v>0.67</v>
+      </c>
+      <c r="H37">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="I37">
+        <v>148</v>
+      </c>
+      <c r="J37">
+        <v>60.85</v>
+      </c>
+      <c r="K37" s="29">
+        <f>(D37*100)/D25</f>
+        <v>101.56657963446476</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="18"/>
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38">
+        <v>23</v>
+      </c>
+      <c r="D38">
+        <v>386</v>
+      </c>
+      <c r="E38">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="F38">
+        <v>0.106</v>
+      </c>
+      <c r="G38">
+        <v>0.67</v>
+      </c>
+      <c r="H38">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="I38">
+        <v>143</v>
+      </c>
+      <c r="J38">
+        <v>61.97</v>
+      </c>
+      <c r="K38" s="29">
+        <f>(D38*100)/D25</f>
+        <v>100.78328981723237</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="18"/>
+      <c r="B39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39">
+        <v>20</v>
+      </c>
+      <c r="D39">
+        <v>386</v>
+      </c>
+      <c r="E39">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="F39">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="G39">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="H39">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="I39">
+        <v>154</v>
+      </c>
+      <c r="J39">
+        <v>59.04</v>
+      </c>
+      <c r="K39" s="29">
+        <f>(D39*100)/D25</f>
+        <v>100.78328981723237</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="18"/>
+      <c r="B40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40">
+        <v>24</v>
+      </c>
+      <c r="D40">
+        <v>385</v>
+      </c>
+      <c r="E40">
+        <v>0.374</v>
+      </c>
+      <c r="F40">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="G40">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="H40">
+        <v>0.38</v>
+      </c>
+      <c r="I40">
+        <v>143</v>
+      </c>
+      <c r="J40">
+        <v>61.87</v>
+      </c>
+      <c r="K40" s="29">
+        <f>(D40*100)/D25</f>
+        <v>100.52219321148826</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="18"/>
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41">
+        <v>23</v>
+      </c>
+      <c r="D41">
+        <v>384</v>
+      </c>
+      <c r="E41">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="F41">
+        <v>0.1</v>
+      </c>
+      <c r="G41">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="H41">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="I41">
+        <v>144</v>
+      </c>
+      <c r="J41">
+        <v>61.5</v>
+      </c>
+      <c r="K41" s="29">
+        <f>(D41*100)/D25</f>
+        <v>100.26109660574413</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="18"/>
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42">
+        <v>23</v>
+      </c>
+      <c r="D42">
+        <v>384</v>
+      </c>
+      <c r="E42">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="F42">
+        <v>0.1</v>
+      </c>
+      <c r="G42">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="H42">
+        <v>0.372</v>
+      </c>
+      <c r="I42">
+        <v>144</v>
+      </c>
+      <c r="J42">
+        <v>61.5</v>
+      </c>
+      <c r="K42" s="29">
+        <f>(D42*100)/D25</f>
+        <v>100.26109660574413</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="18"/>
+      <c r="B43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43">
+        <v>20</v>
+      </c>
+      <c r="D43">
+        <v>383</v>
+      </c>
+      <c r="E43">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="F43">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G43">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="H43">
+        <v>0.316</v>
+      </c>
+      <c r="I43">
+        <v>148</v>
+      </c>
+      <c r="J43">
+        <v>60.32</v>
+      </c>
+      <c r="K43" s="29">
+        <f>(D43*100)/D25</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="18"/>
+      <c r="B44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44">
+        <v>22</v>
+      </c>
+      <c r="D44">
+        <v>383</v>
+      </c>
+      <c r="E44">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="F44">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G44">
+        <v>0.69</v>
+      </c>
+      <c r="H44">
+        <v>0.32</v>
+      </c>
+      <c r="I44">
+        <v>148</v>
+      </c>
+      <c r="J44">
+        <v>60.32</v>
+      </c>
+      <c r="K44" s="29">
+        <f>(D44*100)/D25</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="18"/>
+      <c r="B45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45">
+        <v>25</v>
+      </c>
+      <c r="D45">
+        <v>383</v>
+      </c>
+      <c r="E45">
+        <v>0.377</v>
+      </c>
+      <c r="F45">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G45">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="H45">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="I45">
+        <v>142</v>
+      </c>
+      <c r="J45">
+        <v>61.93</v>
+      </c>
+      <c r="K45" s="29">
+        <f>(D45*100)/D25</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="2">
+        <v>28</v>
+      </c>
+      <c r="D46" s="2">
+        <v>3151</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="F46" s="2">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="I46" s="2">
+        <v>1766</v>
+      </c>
+      <c r="J46" s="2">
+        <v>43.51</v>
+      </c>
+      <c r="K46" s="31">
+        <f>(D46*100)/D46</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="25"/>
+      <c r="B47" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47">
+        <v>44</v>
+      </c>
+      <c r="D47">
+        <v>1102</v>
+      </c>
+      <c r="E47">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="F47">
+        <v>0.125</v>
+      </c>
+      <c r="G47">
+        <v>0.77</v>
+      </c>
+      <c r="H47">
+        <v>0.247</v>
+      </c>
+      <c r="I47">
+        <v>578</v>
+      </c>
+      <c r="J47">
+        <v>46.92</v>
+      </c>
+      <c r="K47" s="29">
+        <f>(D47*100)/D46</f>
+        <v>34.973024436686764</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="25"/>
+      <c r="B48" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48">
+        <v>68</v>
+      </c>
+      <c r="D48">
+        <v>996</v>
+      </c>
+      <c r="E48">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="F48">
+        <v>0.115</v>
+      </c>
+      <c r="G48">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="H48">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="I48">
+        <v>507</v>
+      </c>
+      <c r="J48">
+        <v>48.53</v>
+      </c>
+      <c r="K48" s="29">
+        <f>(D48*100)/D46</f>
+        <v>31.609013011742302</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="25"/>
+      <c r="B49" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49">
+        <v>72</v>
+      </c>
+      <c r="D49">
+        <v>907</v>
+      </c>
+      <c r="E49">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="F49">
+        <v>0.11</v>
+      </c>
+      <c r="G49">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="H49">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="I49">
+        <v>443</v>
+      </c>
+      <c r="J49">
+        <v>50.67</v>
+      </c>
+      <c r="K49" s="29">
+        <f>(D49*100)/D46</f>
+        <v>28.78451285306252</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="25"/>
+      <c r="B50" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50">
+        <v>81</v>
+      </c>
+      <c r="D50">
+        <v>648</v>
+      </c>
+      <c r="E50">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="F50">
+        <v>0.121</v>
+      </c>
+      <c r="G50">
+        <v>0.88</v>
+      </c>
+      <c r="H50">
+        <v>0.24</v>
+      </c>
+      <c r="I50">
+        <v>326</v>
+      </c>
+      <c r="J50">
+        <v>49.14</v>
+      </c>
+      <c r="K50" s="29">
+        <f>(D50*100)/D46</f>
+        <v>20.564900031735956</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="25"/>
+      <c r="B51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51">
+        <v>81</v>
+      </c>
+      <c r="D51">
+        <v>634</v>
+      </c>
+      <c r="E51">
+        <v>0.63</v>
+      </c>
+      <c r="F51">
+        <v>0.121</v>
+      </c>
+      <c r="G51">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="H51">
+        <v>0.25</v>
+      </c>
+      <c r="I51">
+        <v>316</v>
+      </c>
+      <c r="J51">
+        <v>49.6</v>
+      </c>
+      <c r="K51" s="29">
+        <f>(D51*100)/D46</f>
+        <v>20.120596635988576</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="25"/>
+      <c r="B52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52">
+        <v>82</v>
+      </c>
+      <c r="D52">
+        <v>603</v>
+      </c>
+      <c r="E52">
+        <v>0.624</v>
+      </c>
+      <c r="F52">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="G52">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="H52">
+        <v>0.251</v>
+      </c>
+      <c r="I52">
+        <v>310</v>
+      </c>
+      <c r="J52">
+        <v>47.99</v>
+      </c>
+      <c r="K52" s="29">
+        <f>(D52*100)/D46</f>
+        <v>19.136781973976515</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="25"/>
+      <c r="B53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53">
+        <v>92</v>
+      </c>
+      <c r="D53">
+        <v>264</v>
+      </c>
+      <c r="E53">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="F53">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="G53">
+        <v>0.91</v>
+      </c>
+      <c r="H53">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="I53">
+        <v>155</v>
+      </c>
+      <c r="J53">
+        <v>39.69</v>
+      </c>
+      <c r="K53" s="29">
+        <f>(D53*100)/D46</f>
+        <v>8.3782926055220557</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="25"/>
+      <c r="B54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54">
+        <v>94</v>
+      </c>
+      <c r="D54">
+        <v>259</v>
+      </c>
+      <c r="E54">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="F54">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="G54">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="H54">
+        <v>0.251</v>
+      </c>
+      <c r="I54">
+        <v>156</v>
+      </c>
+      <c r="J54">
+        <v>38.1</v>
+      </c>
+      <c r="K54" s="29">
+        <f>(D54*100)/D46</f>
+        <v>8.2196128213265638</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="25"/>
+      <c r="B55" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55">
+        <v>95</v>
+      </c>
+      <c r="D55">
+        <v>247</v>
+      </c>
+      <c r="E55">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="F55">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="G55">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="H55">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="I55">
+        <v>155</v>
+      </c>
+      <c r="J55">
+        <v>35.42</v>
+      </c>
+      <c r="K55" s="29">
+        <f>(D55*100)/D46</f>
+        <v>7.8387813392573786</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="25"/>
+      <c r="B56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56">
+        <v>84</v>
+      </c>
+      <c r="D56">
+        <v>195</v>
+      </c>
+      <c r="E56">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="F56">
+        <v>0.222</v>
+      </c>
+      <c r="G56">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="H56">
+        <v>0.249</v>
+      </c>
+      <c r="I56">
+        <v>127</v>
+      </c>
+      <c r="J56">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="K56" s="29">
+        <f>(D56*100)/D46</f>
+        <v>6.1885115836242459</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="25"/>
+      <c r="B57" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57">
+        <v>24</v>
+      </c>
+      <c r="D57">
+        <v>3167</v>
+      </c>
+      <c r="E57">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F57">
+        <v>0.09</v>
+      </c>
+      <c r="G57">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="H57">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="I57">
+        <v>1914</v>
+      </c>
+      <c r="J57">
+        <v>39.08</v>
+      </c>
+      <c r="K57" s="29">
+        <f>(D57*100)/D46</f>
+        <v>100.50777530942558</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="25"/>
+      <c r="B58" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58">
+        <v>25</v>
+      </c>
+      <c r="D58">
+        <v>3166</v>
+      </c>
+      <c r="E58">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="F58">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="G58">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="H58">
+        <v>0.309</v>
+      </c>
+      <c r="I58">
+        <v>1853</v>
+      </c>
+      <c r="J58">
+        <v>41.01</v>
+      </c>
+      <c r="K58" s="29">
+        <f>(D58*100)/D46</f>
+        <v>100.47603935258648</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="25"/>
+      <c r="B59" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59">
+        <v>27</v>
+      </c>
+      <c r="D59">
+        <v>3166</v>
+      </c>
+      <c r="E59">
+        <v>0.24</v>
+      </c>
+      <c r="F59">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="G59">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="H59">
+        <v>0.32</v>
+      </c>
+      <c r="I59">
+        <v>1869</v>
+      </c>
+      <c r="J59">
+        <v>40.5</v>
+      </c>
+      <c r="K59" s="29">
+        <f>(D59*100)/D46</f>
+        <v>100.47603935258648</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="25"/>
+      <c r="B60" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60">
+        <v>28</v>
+      </c>
+      <c r="D60">
+        <v>3164</v>
+      </c>
+      <c r="E60">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="F60">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="G60">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="H60">
+        <v>0.318</v>
+      </c>
+      <c r="I60">
+        <v>1900</v>
+      </c>
+      <c r="J60">
+        <v>39.47</v>
+      </c>
+      <c r="K60" s="29">
+        <f>(D60*100)/D46</f>
+        <v>100.41256743890828</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="25"/>
+      <c r="B61" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61">
+        <v>25</v>
+      </c>
+      <c r="D61">
+        <v>3164</v>
+      </c>
+      <c r="E61">
+        <v>0.22</v>
+      </c>
+      <c r="F61">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="G61">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="H61">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="I61">
+        <v>1927</v>
+      </c>
+      <c r="J61">
+        <v>38.61</v>
+      </c>
+      <c r="K61" s="29">
+        <f>(D61*100)/D46</f>
+        <v>100.41256743890828</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="25"/>
+      <c r="B62" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62">
+        <v>25</v>
+      </c>
+      <c r="D62">
+        <v>3164</v>
+      </c>
+      <c r="E62">
+        <v>0.18</v>
+      </c>
+      <c r="F62">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="G62">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="H62">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="I62">
+        <v>1878</v>
+      </c>
+      <c r="J62">
+        <v>40.17</v>
+      </c>
+      <c r="K62" s="29">
+        <f>(D62*100)/D46</f>
+        <v>100.41256743890828</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="25"/>
+      <c r="B63" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63">
+        <v>31</v>
+      </c>
+      <c r="D63">
+        <v>3160</v>
+      </c>
+      <c r="E63">
+        <v>0.224</v>
+      </c>
+      <c r="F63">
+        <v>6.2E-2</v>
+      </c>
+      <c r="G63">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="H63">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="I63">
+        <v>1848</v>
+      </c>
+      <c r="J63">
+        <v>41.05</v>
+      </c>
+      <c r="K63" s="29">
+        <f>(D63*100)/D46</f>
+        <v>100.28562361155188</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="25"/>
+      <c r="B64" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64">
+        <v>32</v>
+      </c>
+      <c r="D64">
+        <v>3160</v>
+      </c>
+      <c r="E64">
+        <v>0.248</v>
+      </c>
+      <c r="F64">
+        <v>6.2E-2</v>
+      </c>
+      <c r="G64">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="H64">
+        <v>0.32</v>
+      </c>
+      <c r="I64">
+        <v>1854</v>
+      </c>
+      <c r="J64">
+        <v>40.86</v>
+      </c>
+      <c r="K64" s="29">
+        <f>(D64*100)/D46</f>
+        <v>100.28562361155188</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="25"/>
+      <c r="B65" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65">
+        <v>28</v>
+      </c>
+      <c r="D65">
+        <v>3160</v>
+      </c>
+      <c r="E65">
+        <v>0.215</v>
+      </c>
+      <c r="F65">
+        <v>6.2E-2</v>
+      </c>
+      <c r="G65">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="H65">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="I65">
+        <v>1841</v>
+      </c>
+      <c r="J65">
+        <v>41.28</v>
+      </c>
+      <c r="K65" s="29">
+        <f>(D65*100)/D46</f>
+        <v>100.28562361155188</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="25"/>
+      <c r="B66" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66">
+        <v>30</v>
+      </c>
+      <c r="D66">
+        <v>3159</v>
+      </c>
+      <c r="E66">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="F66">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="G66">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="H66">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="I66">
+        <v>1857</v>
+      </c>
+      <c r="J66">
+        <v>40.75</v>
+      </c>
+      <c r="K66" s="29">
+        <f>(D66*100)/D46</f>
+        <v>100.25388765471278</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A4:A24"/>
+    <mergeCell ref="A25:A45"/>
+    <mergeCell ref="A46:A66"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/results/results_05.09.2023.xlsx
+++ b/results/results_05.09.2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Util\doctorat\PhdProject\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32775F18-0FC0-4086-B111-C14D11A4E5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764C1B87-52BC-42F0-BD68-BC55168A2C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="05.09" sheetId="14" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="07.10- with weights" sheetId="18" r:id="rId4"/>
     <sheet name="07.10 - with max weights" sheetId="19" r:id="rId5"/>
     <sheet name="20.19 - without internal class" sheetId="20" r:id="rId6"/>
+    <sheet name="with internal classes" sheetId="21" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'15.09'!#REF!</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="88">
   <si>
     <t>Ant</t>
   </si>
@@ -329,6 +330,15 @@
   <si>
     <t>%</t>
   </si>
+  <si>
+    <t>structural_dep_hibernate.csv</t>
+  </si>
+  <si>
+    <t>structural_dep_ant.csv</t>
+  </si>
+  <si>
+    <t>structural_dep_catalina.csv</t>
+  </si>
 </sst>
 </file>
 
@@ -499,6 +509,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -538,11 +553,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -847,40 +857,40 @@
     <row r="1" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19" t="s">
+      <c r="H3" s="22"/>
+      <c r="I3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="19"/>
+      <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="20" t="s">
+      <c r="F4" s="24"/>
+      <c r="G4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="22" t="s">
+      <c r="H4" s="24"/>
+      <c r="I4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="23"/>
+      <c r="J4" s="26"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
@@ -909,7 +919,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -941,7 +951,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
@@ -971,7 +981,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
+      <c r="A8" s="19"/>
       <c r="B8" t="s">
         <v>14</v>
       </c>
@@ -1001,7 +1011,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
+      <c r="A9" s="19"/>
       <c r="B9" t="s">
         <v>15</v>
       </c>
@@ -1031,7 +1041,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
+      <c r="A10" s="19"/>
       <c r="B10" t="s">
         <v>16</v>
       </c>
@@ -1061,7 +1071,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
+      <c r="A11" s="19"/>
       <c r="B11" t="s">
         <v>17</v>
       </c>
@@ -1091,7 +1101,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
+      <c r="A12" s="19"/>
       <c r="B12" t="s">
         <v>18</v>
       </c>
@@ -1124,7 +1134,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
+      <c r="A13" s="19"/>
       <c r="B13" t="s">
         <v>19</v>
       </c>
@@ -1154,7 +1164,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
+      <c r="A14" s="19"/>
       <c r="B14" t="s">
         <v>20</v>
       </c>
@@ -1184,7 +1194,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
+      <c r="A15" s="19"/>
       <c r="B15" t="s">
         <v>21</v>
       </c>
@@ -1214,7 +1224,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
+      <c r="A16" s="19"/>
       <c r="B16" t="s">
         <v>22</v>
       </c>
@@ -1244,7 +1254,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
+      <c r="A17" s="19"/>
       <c r="B17" t="s">
         <v>23</v>
       </c>
@@ -1274,7 +1284,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
+      <c r="A18" s="19"/>
       <c r="B18" t="s">
         <v>24</v>
       </c>
@@ -1304,7 +1314,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
+      <c r="A19" s="19"/>
       <c r="B19" t="s">
         <v>25</v>
       </c>
@@ -1334,7 +1344,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
+      <c r="A20" s="19"/>
       <c r="B20" t="s">
         <v>26</v>
       </c>
@@ -1364,7 +1374,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="16"/>
+      <c r="A21" s="19"/>
       <c r="B21" t="s">
         <v>27</v>
       </c>
@@ -1394,7 +1404,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
+      <c r="A22" s="19"/>
       <c r="B22" t="s">
         <v>28</v>
       </c>
@@ -1424,7 +1434,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="16"/>
+      <c r="A23" s="19"/>
       <c r="B23" t="s">
         <v>29</v>
       </c>
@@ -1454,7 +1464,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="16"/>
+      <c r="A24" s="19"/>
       <c r="B24" t="s">
         <v>30</v>
       </c>
@@ -1484,7 +1494,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="16"/>
+      <c r="A25" s="19"/>
       <c r="B25" t="s">
         <v>31</v>
       </c>
@@ -1514,7 +1524,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="16"/>
+      <c r="A26" s="19"/>
       <c r="B26" t="s">
         <v>32</v>
       </c>
@@ -1544,7 +1554,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="20" t="s">
         <v>54</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -1576,7 +1586,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="18"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="3" t="s">
         <v>34</v>
       </c>
@@ -1606,7 +1616,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="18"/>
+      <c r="A29" s="21"/>
       <c r="B29" s="3" t="s">
         <v>35</v>
       </c>
@@ -1636,7 +1646,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="3" t="s">
         <v>36</v>
       </c>
@@ -1666,7 +1676,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="18"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="3" t="s">
         <v>37</v>
       </c>
@@ -1696,7 +1706,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="3" t="s">
         <v>38</v>
       </c>
@@ -1726,7 +1736,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="18"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="3" t="s">
         <v>39</v>
       </c>
@@ -1756,7 +1766,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="18"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="3" t="s">
         <v>40</v>
       </c>
@@ -1786,7 +1796,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="18"/>
+      <c r="A35" s="21"/>
       <c r="B35" s="3" t="s">
         <v>41</v>
       </c>
@@ -1816,7 +1826,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="18"/>
+      <c r="A36" s="21"/>
       <c r="B36" s="3" t="s">
         <v>42</v>
       </c>
@@ -1846,7 +1856,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="18"/>
+      <c r="A37" s="21"/>
       <c r="B37" s="3" t="s">
         <v>43</v>
       </c>
@@ -1876,7 +1886,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="18"/>
+      <c r="A38" s="21"/>
       <c r="B38" s="3" t="s">
         <v>44</v>
       </c>
@@ -1906,7 +1916,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="18"/>
+      <c r="A39" s="21"/>
       <c r="B39" s="3" t="s">
         <v>45</v>
       </c>
@@ -1936,7 +1946,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="18"/>
+      <c r="A40" s="21"/>
       <c r="B40" s="3" t="s">
         <v>46</v>
       </c>
@@ -1966,7 +1976,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="18"/>
+      <c r="A41" s="21"/>
       <c r="B41" s="3" t="s">
         <v>47</v>
       </c>
@@ -1996,7 +2006,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="18"/>
+      <c r="A42" s="21"/>
       <c r="B42" s="3" t="s">
         <v>48</v>
       </c>
@@ -2026,7 +2036,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="18"/>
+      <c r="A43" s="21"/>
       <c r="B43" s="3" t="s">
         <v>49</v>
       </c>
@@ -2056,7 +2066,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="18"/>
+      <c r="A44" s="21"/>
       <c r="B44" s="3" t="s">
         <v>50</v>
       </c>
@@ -2086,7 +2096,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="18"/>
+      <c r="A45" s="21"/>
       <c r="B45" s="3" t="s">
         <v>51</v>
       </c>
@@ -2116,7 +2126,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="18"/>
+      <c r="A46" s="21"/>
       <c r="B46" s="3" t="s">
         <v>52</v>
       </c>
@@ -2146,7 +2156,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="18"/>
+      <c r="A47" s="21"/>
       <c r="B47" s="3" t="s">
         <v>53</v>
       </c>
@@ -2820,40 +2830,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19" t="s">
+      <c r="E1" s="22"/>
+      <c r="F1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19" t="s">
+      <c r="G1" s="22"/>
+      <c r="H1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="19"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="20" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22" t="s">
+      <c r="G2" s="24"/>
+      <c r="H2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="23"/>
+      <c r="I2" s="26"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
@@ -3009,32 +3019,32 @@
       <c r="P3" s="10"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="26" t="s">
+      <c r="E4" s="22"/>
+      <c r="F4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26" t="s">
+      <c r="G4" s="29"/>
+      <c r="H4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="26"/>
+      <c r="I4" s="29"/>
     </row>
     <row r="5" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="28" t="s">
+      <c r="E5" s="30"/>
+      <c r="F5" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="27" t="s">
+      <c r="G5" s="31"/>
+      <c r="H5" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="27"/>
+      <c r="I5" s="30"/>
     </row>
     <row r="6" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="11" t="s">
@@ -3066,7 +3076,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B7" t="s">
@@ -3101,7 +3111,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
+      <c r="A8" s="19"/>
       <c r="B8" t="s">
         <v>13</v>
       </c>
@@ -3134,7 +3144,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
+      <c r="A9" s="19"/>
       <c r="B9" t="s">
         <v>14</v>
       </c>
@@ -3167,7 +3177,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
+      <c r="A10" s="19"/>
       <c r="B10" t="s">
         <v>15</v>
       </c>
@@ -3200,7 +3210,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
+      <c r="A11" s="19"/>
       <c r="B11" t="s">
         <v>16</v>
       </c>
@@ -3233,7 +3243,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
+      <c r="A12" s="19"/>
       <c r="B12" t="s">
         <v>17</v>
       </c>
@@ -3266,7 +3276,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
+      <c r="A13" s="19"/>
       <c r="B13" t="s">
         <v>18</v>
       </c>
@@ -3299,7 +3309,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
+      <c r="A14" s="19"/>
       <c r="B14" t="s">
         <v>19</v>
       </c>
@@ -3332,7 +3342,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
+      <c r="A15" s="19"/>
       <c r="B15" t="s">
         <v>20</v>
       </c>
@@ -3365,7 +3375,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
+      <c r="A16" s="19"/>
       <c r="B16" t="s">
         <v>21</v>
       </c>
@@ -3398,7 +3408,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
+      <c r="A17" s="19"/>
       <c r="B17" t="s">
         <v>22</v>
       </c>
@@ -3431,7 +3441,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
+      <c r="A18" s="19"/>
       <c r="B18" t="s">
         <v>23</v>
       </c>
@@ -3464,7 +3474,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
+      <c r="A19" s="19"/>
       <c r="B19" t="s">
         <v>24</v>
       </c>
@@ -3497,7 +3507,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
+      <c r="A20" s="19"/>
       <c r="B20" t="s">
         <v>25</v>
       </c>
@@ -3530,7 +3540,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="16"/>
+      <c r="A21" s="19"/>
       <c r="B21" t="s">
         <v>26</v>
       </c>
@@ -3563,7 +3573,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
+      <c r="A22" s="19"/>
       <c r="B22" t="s">
         <v>27</v>
       </c>
@@ -3596,7 +3606,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="16"/>
+      <c r="A23" s="19"/>
       <c r="B23" t="s">
         <v>28</v>
       </c>
@@ -3629,7 +3639,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="16"/>
+      <c r="A24" s="19"/>
       <c r="B24" t="s">
         <v>29</v>
       </c>
@@ -3662,7 +3672,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="16"/>
+      <c r="A25" s="19"/>
       <c r="B25" t="s">
         <v>30</v>
       </c>
@@ -3695,7 +3705,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="16"/>
+      <c r="A26" s="19"/>
       <c r="B26" t="s">
         <v>31</v>
       </c>
@@ -3728,7 +3738,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="16"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="14" t="s">
         <v>32</v>
       </c>
@@ -3761,7 +3771,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="20" t="s">
         <v>54</v>
       </c>
       <c r="B28" s="13" t="s">
@@ -3796,7 +3806,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="18"/>
+      <c r="A29" s="21"/>
       <c r="B29" s="3" t="s">
         <v>34</v>
       </c>
@@ -3829,7 +3839,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="3" t="s">
         <v>35</v>
       </c>
@@ -3862,7 +3872,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="18"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="3" t="s">
         <v>36</v>
       </c>
@@ -3895,7 +3905,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="3" t="s">
         <v>37</v>
       </c>
@@ -3928,7 +3938,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="18"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="3" t="s">
         <v>38</v>
       </c>
@@ -3961,7 +3971,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="18"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="3" t="s">
         <v>39</v>
       </c>
@@ -3994,7 +4004,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="18"/>
+      <c r="A35" s="21"/>
       <c r="B35" s="3" t="s">
         <v>40</v>
       </c>
@@ -4027,7 +4037,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="18"/>
+      <c r="A36" s="21"/>
       <c r="B36" s="3" t="s">
         <v>41</v>
       </c>
@@ -4060,7 +4070,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="18"/>
+      <c r="A37" s="21"/>
       <c r="B37" s="3" t="s">
         <v>42</v>
       </c>
@@ -4093,7 +4103,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="18"/>
+      <c r="A38" s="21"/>
       <c r="B38" s="3" t="s">
         <v>43</v>
       </c>
@@ -4126,7 +4136,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="18"/>
+      <c r="A39" s="21"/>
       <c r="B39" s="3" t="s">
         <v>44</v>
       </c>
@@ -4159,7 +4169,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="18"/>
+      <c r="A40" s="21"/>
       <c r="B40" s="3" t="s">
         <v>45</v>
       </c>
@@ -4192,7 +4202,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="18"/>
+      <c r="A41" s="21"/>
       <c r="B41" s="3" t="s">
         <v>46</v>
       </c>
@@ -4225,7 +4235,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="18"/>
+      <c r="A42" s="21"/>
       <c r="B42" s="3" t="s">
         <v>47</v>
       </c>
@@ -4258,7 +4268,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="18"/>
+      <c r="A43" s="21"/>
       <c r="B43" s="3" t="s">
         <v>48</v>
       </c>
@@ -4291,7 +4301,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="18"/>
+      <c r="A44" s="21"/>
       <c r="B44" s="3" t="s">
         <v>49</v>
       </c>
@@ -4324,7 +4334,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="18"/>
+      <c r="A45" s="21"/>
       <c r="B45" s="3" t="s">
         <v>50</v>
       </c>
@@ -4357,7 +4367,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="18"/>
+      <c r="A46" s="21"/>
       <c r="B46" s="3" t="s">
         <v>51</v>
       </c>
@@ -4390,7 +4400,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="18"/>
+      <c r="A47" s="21"/>
       <c r="B47" s="3" t="s">
         <v>52</v>
       </c>
@@ -4423,7 +4433,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="18"/>
+      <c r="A48" s="21"/>
       <c r="B48" s="14" t="s">
         <v>53</v>
       </c>
@@ -4456,7 +4466,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="27" t="s">
         <v>78</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -4491,7 +4501,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="25"/>
+      <c r="A50" s="28"/>
       <c r="B50" s="3" t="s">
         <v>62</v>
       </c>
@@ -4524,7 +4534,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="25"/>
+      <c r="A51" s="28"/>
       <c r="B51" s="3" t="s">
         <v>63</v>
       </c>
@@ -4557,7 +4567,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="25"/>
+      <c r="A52" s="28"/>
       <c r="B52" t="s">
         <v>64</v>
       </c>
@@ -4590,7 +4600,7 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="25"/>
+      <c r="A53" s="28"/>
       <c r="B53" t="s">
         <v>65</v>
       </c>
@@ -4623,7 +4633,7 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="25"/>
+      <c r="A54" s="28"/>
       <c r="B54" t="s">
         <v>66</v>
       </c>
@@ -4656,7 +4666,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="25"/>
+      <c r="A55" s="28"/>
       <c r="B55" t="s">
         <v>57</v>
       </c>
@@ -4689,7 +4699,7 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="25"/>
+      <c r="A56" s="28"/>
       <c r="B56" t="s">
         <v>58</v>
       </c>
@@ -4722,7 +4732,7 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="25"/>
+      <c r="A57" s="28"/>
       <c r="B57" t="s">
         <v>59</v>
       </c>
@@ -4755,7 +4765,7 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="25"/>
+      <c r="A58" s="28"/>
       <c r="B58" t="s">
         <v>60</v>
       </c>
@@ -4788,7 +4798,7 @@
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="25"/>
+      <c r="A59" s="28"/>
       <c r="B59" t="s">
         <v>61</v>
       </c>
@@ -4821,7 +4831,7 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="25"/>
+      <c r="A60" s="28"/>
       <c r="B60" t="s">
         <v>67</v>
       </c>
@@ -4854,7 +4864,7 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="25"/>
+      <c r="A61" s="28"/>
       <c r="B61" t="s">
         <v>68</v>
       </c>
@@ -4887,7 +4897,7 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="25"/>
+      <c r="A62" s="28"/>
       <c r="B62" t="s">
         <v>69</v>
       </c>
@@ -4920,7 +4930,7 @@
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="25"/>
+      <c r="A63" s="28"/>
       <c r="B63" t="s">
         <v>70</v>
       </c>
@@ -4953,7 +4963,7 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="25"/>
+      <c r="A64" s="28"/>
       <c r="B64" t="s">
         <v>71</v>
       </c>
@@ -4986,7 +4996,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="25"/>
+      <c r="A65" s="28"/>
       <c r="B65" t="s">
         <v>72</v>
       </c>
@@ -5019,7 +5029,7 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="25"/>
+      <c r="A66" s="28"/>
       <c r="B66" t="s">
         <v>73</v>
       </c>
@@ -5052,7 +5062,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="25"/>
+      <c r="A67" s="28"/>
       <c r="B67" t="s">
         <v>74</v>
       </c>
@@ -5085,7 +5095,7 @@
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="25"/>
+      <c r="A68" s="28"/>
       <c r="B68" t="s">
         <v>75</v>
       </c>
@@ -5118,7 +5128,7 @@
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="25"/>
+      <c r="A69" s="28"/>
       <c r="B69" t="s">
         <v>76</v>
       </c>
@@ -5182,32 +5192,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="26" t="s">
+      <c r="E1" s="22"/>
+      <c r="F1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26" t="s">
+      <c r="G1" s="29"/>
+      <c r="H1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="26"/>
+      <c r="I1" s="29"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="28" t="s">
+      <c r="E2" s="30"/>
+      <c r="F2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="27" t="s">
+      <c r="G2" s="31"/>
+      <c r="H2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="27"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C3" s="11" t="s">
@@ -5239,7 +5249,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
@@ -5274,7 +5284,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
+      <c r="A5" s="19"/>
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -5307,7 +5317,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
+      <c r="A6" s="19"/>
       <c r="B6" t="s">
         <v>14</v>
       </c>
@@ -5340,7 +5350,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
+      <c r="A7" s="19"/>
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -5373,7 +5383,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
+      <c r="A8" s="19"/>
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -5406,7 +5416,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
+      <c r="A9" s="19"/>
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -5439,7 +5449,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
+      <c r="A10" s="19"/>
       <c r="B10" t="s">
         <v>18</v>
       </c>
@@ -5472,7 +5482,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
+      <c r="A11" s="19"/>
       <c r="B11" t="s">
         <v>19</v>
       </c>
@@ -5505,7 +5515,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
+      <c r="A12" s="19"/>
       <c r="B12" t="s">
         <v>20</v>
       </c>
@@ -5538,7 +5548,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
+      <c r="A13" s="19"/>
       <c r="B13" t="s">
         <v>21</v>
       </c>
@@ -5571,7 +5581,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
+      <c r="A14" s="19"/>
       <c r="B14" t="s">
         <v>22</v>
       </c>
@@ -5604,7 +5614,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
+      <c r="A15" s="19"/>
       <c r="B15" t="s">
         <v>23</v>
       </c>
@@ -5637,7 +5647,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
+      <c r="A16" s="19"/>
       <c r="B16" t="s">
         <v>24</v>
       </c>
@@ -5670,7 +5680,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
+      <c r="A17" s="19"/>
       <c r="B17" t="s">
         <v>25</v>
       </c>
@@ -5703,7 +5713,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
+      <c r="A18" s="19"/>
       <c r="B18" t="s">
         <v>26</v>
       </c>
@@ -5736,7 +5746,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
+      <c r="A19" s="19"/>
       <c r="B19" t="s">
         <v>27</v>
       </c>
@@ -5769,7 +5779,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
+      <c r="A20" s="19"/>
       <c r="B20" t="s">
         <v>28</v>
       </c>
@@ -5802,7 +5812,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="16"/>
+      <c r="A21" s="19"/>
       <c r="B21" t="s">
         <v>29</v>
       </c>
@@ -5835,7 +5845,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
+      <c r="A22" s="19"/>
       <c r="B22" t="s">
         <v>30</v>
       </c>
@@ -5868,7 +5878,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="16"/>
+      <c r="A23" s="19"/>
       <c r="B23" t="s">
         <v>31</v>
       </c>
@@ -5901,7 +5911,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="16"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="14" t="s">
         <v>32</v>
       </c>
@@ -5934,7 +5944,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="20" t="s">
         <v>54</v>
       </c>
       <c r="B25" s="14" t="s">
@@ -5969,7 +5979,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="3" t="s">
         <v>34</v>
       </c>
@@ -6002,7 +6012,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="18"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="3" t="s">
         <v>35</v>
       </c>
@@ -6035,7 +6045,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="18"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="3" t="s">
         <v>36</v>
       </c>
@@ -6068,7 +6078,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="18"/>
+      <c r="A29" s="21"/>
       <c r="B29" s="3" t="s">
         <v>37</v>
       </c>
@@ -6101,7 +6111,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="3" t="s">
         <v>38</v>
       </c>
@@ -6134,7 +6144,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="18"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="3" t="s">
         <v>39</v>
       </c>
@@ -6167,7 +6177,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="3" t="s">
         <v>40</v>
       </c>
@@ -6200,7 +6210,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="18"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="3" t="s">
         <v>41</v>
       </c>
@@ -6233,7 +6243,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="18"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="3" t="s">
         <v>42</v>
       </c>
@@ -6266,7 +6276,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="18"/>
+      <c r="A35" s="21"/>
       <c r="B35" s="3" t="s">
         <v>43</v>
       </c>
@@ -6299,7 +6309,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="18"/>
+      <c r="A36" s="21"/>
       <c r="B36" s="3" t="s">
         <v>44</v>
       </c>
@@ -6332,7 +6342,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="18"/>
+      <c r="A37" s="21"/>
       <c r="B37" s="3" t="s">
         <v>45</v>
       </c>
@@ -6365,7 +6375,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="18"/>
+      <c r="A38" s="21"/>
       <c r="B38" s="3" t="s">
         <v>46</v>
       </c>
@@ -6398,7 +6408,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="18"/>
+      <c r="A39" s="21"/>
       <c r="B39" s="3" t="s">
         <v>47</v>
       </c>
@@ -6431,7 +6441,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="18"/>
+      <c r="A40" s="21"/>
       <c r="B40" s="3" t="s">
         <v>48</v>
       </c>
@@ -6464,7 +6474,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="18"/>
+      <c r="A41" s="21"/>
       <c r="B41" s="3" t="s">
         <v>49</v>
       </c>
@@ -6497,7 +6507,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="18"/>
+      <c r="A42" s="21"/>
       <c r="B42" s="3" t="s">
         <v>50</v>
       </c>
@@ -6530,7 +6540,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="18"/>
+      <c r="A43" s="21"/>
       <c r="B43" s="3" t="s">
         <v>51</v>
       </c>
@@ -6563,7 +6573,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="18"/>
+      <c r="A44" s="21"/>
       <c r="B44" s="3" t="s">
         <v>52</v>
       </c>
@@ -6596,7 +6606,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="18"/>
+      <c r="A45" s="21"/>
       <c r="B45" s="14" t="s">
         <v>53</v>
       </c>
@@ -6629,7 +6639,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="27" t="s">
         <v>78</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -6664,7 +6674,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="25"/>
+      <c r="A47" s="28"/>
       <c r="B47" s="3" t="s">
         <v>62</v>
       </c>
@@ -6697,7 +6707,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="25"/>
+      <c r="A48" s="28"/>
       <c r="B48" s="3" t="s">
         <v>63</v>
       </c>
@@ -6730,7 +6740,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="25"/>
+      <c r="A49" s="28"/>
       <c r="B49" t="s">
         <v>64</v>
       </c>
@@ -6763,7 +6773,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="25"/>
+      <c r="A50" s="28"/>
       <c r="B50" t="s">
         <v>65</v>
       </c>
@@ -6796,7 +6806,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="25"/>
+      <c r="A51" s="28"/>
       <c r="B51" t="s">
         <v>66</v>
       </c>
@@ -6829,7 +6839,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="25"/>
+      <c r="A52" s="28"/>
       <c r="B52" t="s">
         <v>57</v>
       </c>
@@ -6862,7 +6872,7 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="25"/>
+      <c r="A53" s="28"/>
       <c r="B53" t="s">
         <v>58</v>
       </c>
@@ -6895,7 +6905,7 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="25"/>
+      <c r="A54" s="28"/>
       <c r="B54" t="s">
         <v>59</v>
       </c>
@@ -6928,7 +6938,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="25"/>
+      <c r="A55" s="28"/>
       <c r="B55" t="s">
         <v>60</v>
       </c>
@@ -6961,7 +6971,7 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="25"/>
+      <c r="A56" s="28"/>
       <c r="B56" t="s">
         <v>61</v>
       </c>
@@ -6994,7 +7004,7 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="25"/>
+      <c r="A57" s="28"/>
       <c r="B57" t="s">
         <v>67</v>
       </c>
@@ -7027,7 +7037,7 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="25"/>
+      <c r="A58" s="28"/>
       <c r="B58" t="s">
         <v>68</v>
       </c>
@@ -7060,7 +7070,7 @@
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="25"/>
+      <c r="A59" s="28"/>
       <c r="B59" t="s">
         <v>69</v>
       </c>
@@ -7093,7 +7103,7 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="25"/>
+      <c r="A60" s="28"/>
       <c r="B60" t="s">
         <v>70</v>
       </c>
@@ -7126,7 +7136,7 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="25"/>
+      <c r="A61" s="28"/>
       <c r="B61" t="s">
         <v>71</v>
       </c>
@@ -7159,7 +7169,7 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="25"/>
+      <c r="A62" s="28"/>
       <c r="B62" t="s">
         <v>72</v>
       </c>
@@ -7192,7 +7202,7 @@
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="25"/>
+      <c r="A63" s="28"/>
       <c r="B63" t="s">
         <v>73</v>
       </c>
@@ -7225,7 +7235,7 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="25"/>
+      <c r="A64" s="28"/>
       <c r="B64" t="s">
         <v>74</v>
       </c>
@@ -7258,7 +7268,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="25"/>
+      <c r="A65" s="28"/>
       <c r="B65" t="s">
         <v>75</v>
       </c>
@@ -7291,7 +7301,7 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="25"/>
+      <c r="A66" s="28"/>
       <c r="B66" t="s">
         <v>76</v>
       </c>
@@ -7343,8 +7353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1CB37E0-FD34-444B-9077-9D2C9CA251EF}">
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="K63" sqref="A1:K66"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7353,32 +7363,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="26" t="s">
+      <c r="E1" s="22"/>
+      <c r="F1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26" t="s">
+      <c r="G1" s="29"/>
+      <c r="H1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="26"/>
+      <c r="I1" s="29"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="28" t="s">
+      <c r="E2" s="30"/>
+      <c r="F2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="27" t="s">
+      <c r="G2" s="31"/>
+      <c r="H2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="27"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C3" s="11" t="s">
@@ -7410,7 +7420,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
@@ -7445,7 +7455,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
+      <c r="A5" s="19"/>
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -7478,7 +7488,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
+      <c r="A6" s="19"/>
       <c r="B6" t="s">
         <v>14</v>
       </c>
@@ -7511,7 +7521,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
+      <c r="A7" s="19"/>
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -7544,7 +7554,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
+      <c r="A8" s="19"/>
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -7577,7 +7587,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
+      <c r="A9" s="19"/>
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -7610,7 +7620,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
+      <c r="A10" s="19"/>
       <c r="B10" t="s">
         <v>18</v>
       </c>
@@ -7643,7 +7653,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
+      <c r="A11" s="19"/>
       <c r="B11" t="s">
         <v>19</v>
       </c>
@@ -7676,7 +7686,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
+      <c r="A12" s="19"/>
       <c r="B12" t="s">
         <v>20</v>
       </c>
@@ -7709,7 +7719,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
+      <c r="A13" s="19"/>
       <c r="B13" t="s">
         <v>21</v>
       </c>
@@ -7742,7 +7752,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
+      <c r="A14" s="19"/>
       <c r="B14" t="s">
         <v>22</v>
       </c>
@@ -7775,7 +7785,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
+      <c r="A15" s="19"/>
       <c r="B15" t="s">
         <v>23</v>
       </c>
@@ -7808,7 +7818,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
+      <c r="A16" s="19"/>
       <c r="B16" t="s">
         <v>24</v>
       </c>
@@ -7841,7 +7851,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
+      <c r="A17" s="19"/>
       <c r="B17" t="s">
         <v>25</v>
       </c>
@@ -7874,7 +7884,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
+      <c r="A18" s="19"/>
       <c r="B18" t="s">
         <v>26</v>
       </c>
@@ -7907,7 +7917,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
+      <c r="A19" s="19"/>
       <c r="B19" t="s">
         <v>27</v>
       </c>
@@ -7940,7 +7950,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
+      <c r="A20" s="19"/>
       <c r="B20" t="s">
         <v>28</v>
       </c>
@@ -7973,7 +7983,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="16"/>
+      <c r="A21" s="19"/>
       <c r="B21" t="s">
         <v>29</v>
       </c>
@@ -8006,7 +8016,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
+      <c r="A22" s="19"/>
       <c r="B22" t="s">
         <v>30</v>
       </c>
@@ -8039,7 +8049,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="16"/>
+      <c r="A23" s="19"/>
       <c r="B23" t="s">
         <v>31</v>
       </c>
@@ -8073,7 +8083,7 @@
       <c r="M23" s="14"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="16"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="14" t="s">
         <v>32</v>
       </c>
@@ -8106,7 +8116,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="20" t="s">
         <v>54</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -8141,7 +8151,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="3" t="s">
         <v>34</v>
       </c>
@@ -8174,7 +8184,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="18"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="3" t="s">
         <v>35</v>
       </c>
@@ -8207,7 +8217,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="18"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="3" t="s">
         <v>36</v>
       </c>
@@ -8240,7 +8250,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="18"/>
+      <c r="A29" s="21"/>
       <c r="B29" s="3" t="s">
         <v>37</v>
       </c>
@@ -8273,7 +8283,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="3" t="s">
         <v>38</v>
       </c>
@@ -8306,7 +8316,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="18"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="3" t="s">
         <v>39</v>
       </c>
@@ -8339,7 +8349,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="3" t="s">
         <v>40</v>
       </c>
@@ -8372,7 +8382,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="18"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="3" t="s">
         <v>41</v>
       </c>
@@ -8405,7 +8415,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="18"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="3" t="s">
         <v>42</v>
       </c>
@@ -8438,7 +8448,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="18"/>
+      <c r="A35" s="21"/>
       <c r="B35" s="3" t="s">
         <v>43</v>
       </c>
@@ -8471,7 +8481,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="18"/>
+      <c r="A36" s="21"/>
       <c r="B36" s="3" t="s">
         <v>44</v>
       </c>
@@ -8504,7 +8514,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="18"/>
+      <c r="A37" s="21"/>
       <c r="B37" s="3" t="s">
         <v>45</v>
       </c>
@@ -8537,7 +8547,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="18"/>
+      <c r="A38" s="21"/>
       <c r="B38" s="3" t="s">
         <v>46</v>
       </c>
@@ -8570,7 +8580,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="18"/>
+      <c r="A39" s="21"/>
       <c r="B39" s="3" t="s">
         <v>47</v>
       </c>
@@ -8603,7 +8613,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="18"/>
+      <c r="A40" s="21"/>
       <c r="B40" s="3" t="s">
         <v>48</v>
       </c>
@@ -8636,7 +8646,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="18"/>
+      <c r="A41" s="21"/>
       <c r="B41" s="3" t="s">
         <v>49</v>
       </c>
@@ -8669,7 +8679,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="18"/>
+      <c r="A42" s="21"/>
       <c r="B42" s="3" t="s">
         <v>50</v>
       </c>
@@ -8702,7 +8712,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="18"/>
+      <c r="A43" s="21"/>
       <c r="B43" s="3" t="s">
         <v>51</v>
       </c>
@@ -8735,7 +8745,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="18"/>
+      <c r="A44" s="21"/>
       <c r="B44" s="3" t="s">
         <v>52</v>
       </c>
@@ -8768,7 +8778,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="18"/>
+      <c r="A45" s="21"/>
       <c r="B45" s="14" t="s">
         <v>53</v>
       </c>
@@ -8801,7 +8811,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="27" t="s">
         <v>78</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -8836,7 +8846,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="25"/>
+      <c r="A47" s="28"/>
       <c r="B47" s="3" t="s">
         <v>62</v>
       </c>
@@ -8869,7 +8879,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="25"/>
+      <c r="A48" s="28"/>
       <c r="B48" s="3" t="s">
         <v>63</v>
       </c>
@@ -8902,7 +8912,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="25"/>
+      <c r="A49" s="28"/>
       <c r="B49" t="s">
         <v>64</v>
       </c>
@@ -8935,7 +8945,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="25"/>
+      <c r="A50" s="28"/>
       <c r="B50" t="s">
         <v>65</v>
       </c>
@@ -8968,7 +8978,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="25"/>
+      <c r="A51" s="28"/>
       <c r="B51" t="s">
         <v>66</v>
       </c>
@@ -9001,7 +9011,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="25"/>
+      <c r="A52" s="28"/>
       <c r="B52" t="s">
         <v>57</v>
       </c>
@@ -9034,7 +9044,7 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="25"/>
+      <c r="A53" s="28"/>
       <c r="B53" t="s">
         <v>58</v>
       </c>
@@ -9067,7 +9077,7 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="25"/>
+      <c r="A54" s="28"/>
       <c r="B54" t="s">
         <v>59</v>
       </c>
@@ -9100,7 +9110,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="25"/>
+      <c r="A55" s="28"/>
       <c r="B55" t="s">
         <v>60</v>
       </c>
@@ -9133,7 +9143,7 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="25"/>
+      <c r="A56" s="28"/>
       <c r="B56" t="s">
         <v>61</v>
       </c>
@@ -9166,7 +9176,7 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="25"/>
+      <c r="A57" s="28"/>
       <c r="B57" t="s">
         <v>67</v>
       </c>
@@ -9199,7 +9209,7 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="25"/>
+      <c r="A58" s="28"/>
       <c r="B58" t="s">
         <v>68</v>
       </c>
@@ -9232,7 +9242,7 @@
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="25"/>
+      <c r="A59" s="28"/>
       <c r="B59" t="s">
         <v>69</v>
       </c>
@@ -9265,7 +9275,7 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="25"/>
+      <c r="A60" s="28"/>
       <c r="B60" t="s">
         <v>70</v>
       </c>
@@ -9298,7 +9308,7 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="25"/>
+      <c r="A61" s="28"/>
       <c r="B61" t="s">
         <v>71</v>
       </c>
@@ -9331,7 +9341,7 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="25"/>
+      <c r="A62" s="28"/>
       <c r="B62" t="s">
         <v>72</v>
       </c>
@@ -9364,7 +9374,7 @@
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="25"/>
+      <c r="A63" s="28"/>
       <c r="B63" t="s">
         <v>73</v>
       </c>
@@ -9397,7 +9407,7 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="25"/>
+      <c r="A64" s="28"/>
       <c r="B64" t="s">
         <v>74</v>
       </c>
@@ -9430,7 +9440,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="25"/>
+      <c r="A65" s="28"/>
       <c r="B65" t="s">
         <v>75</v>
       </c>
@@ -9463,7 +9473,7 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="25"/>
+      <c r="A66" s="28"/>
       <c r="B66" t="s">
         <v>76</v>
       </c>
@@ -9515,35 +9525,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A62D2D7-5B06-4749-AB75-358EE313A89A}">
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="M68" sqref="M68"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L62" sqref="L62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="29"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="26" t="s">
+      <c r="F1" s="22"/>
+      <c r="G1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="26"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="28"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C3" s="11" t="s">
@@ -9570,12 +9581,12 @@
       <c r="J3" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="K3" s="30" t="s">
+      <c r="K3" s="17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
@@ -9605,13 +9616,13 @@
       <c r="J4">
         <v>65.48</v>
       </c>
-      <c r="K4" s="29">
+      <c r="K4" s="16">
         <f>(D4*100)/D4</f>
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
+      <c r="A5" s="19"/>
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -9639,13 +9650,13 @@
       <c r="J5">
         <v>57.44</v>
       </c>
-      <c r="K5" s="29">
+      <c r="K5" s="16">
         <f>(D5*100)/D4</f>
         <v>58.381502890173408</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
+      <c r="A6" s="19"/>
       <c r="B6" t="s">
         <v>14</v>
       </c>
@@ -9673,13 +9684,13 @@
       <c r="J6">
         <v>42.72</v>
       </c>
-      <c r="K6" s="29">
+      <c r="K6" s="16">
         <f>(D6*100)/D4</f>
         <v>31.213872832369944</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
+      <c r="A7" s="19"/>
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -9707,13 +9718,13 @@
       <c r="J7">
         <v>36.11</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K7" s="16">
         <f>(D7*100)/D4</f>
         <v>21.965317919075144</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
+      <c r="A8" s="19"/>
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -9741,13 +9752,13 @@
       <c r="J8">
         <v>23.64</v>
       </c>
-      <c r="K8" s="29">
+      <c r="K8" s="16">
         <f>(D8*100)/D4</f>
         <v>16.76300578034682</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
+      <c r="A9" s="19"/>
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -9775,13 +9786,13 @@
       <c r="J9">
         <v>22.22</v>
       </c>
-      <c r="K9" s="29">
+      <c r="K9" s="16">
         <f>(D9*100)/D4</f>
         <v>13.872832369942197</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
+      <c r="A10" s="19"/>
       <c r="B10" t="s">
         <v>18</v>
       </c>
@@ -9809,13 +9820,13 @@
       <c r="J10">
         <v>19.510000000000002</v>
       </c>
-      <c r="K10" s="29">
+      <c r="K10" s="16">
         <f>(D10*100)/D4</f>
         <v>12.716763005780347</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
+      <c r="A11" s="19"/>
       <c r="B11" t="s">
         <v>19</v>
       </c>
@@ -9843,13 +9854,13 @@
       <c r="J11">
         <v>17.14</v>
       </c>
-      <c r="K11" s="29">
+      <c r="K11" s="16">
         <f>(D11*100)/D4</f>
         <v>10.982658959537572</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
+      <c r="A12" s="19"/>
       <c r="B12" t="s">
         <v>20</v>
       </c>
@@ -9877,13 +9888,13 @@
       <c r="J12">
         <v>15.62</v>
       </c>
-      <c r="K12" s="29">
+      <c r="K12" s="16">
         <f>(D12*100)/D4</f>
         <v>9.8265895953757223</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
+      <c r="A13" s="19"/>
       <c r="B13" t="s">
         <v>21</v>
       </c>
@@ -9911,13 +9922,13 @@
       <c r="J13">
         <v>8</v>
       </c>
-      <c r="K13" s="29">
+      <c r="K13" s="16">
         <f>(D13*100)/D4</f>
         <v>7.5144508670520231</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
+      <c r="A14" s="19"/>
       <c r="B14" t="s">
         <v>22</v>
       </c>
@@ -9945,13 +9956,13 @@
       <c r="J14">
         <v>5.26</v>
       </c>
-      <c r="K14" s="29">
+      <c r="K14" s="16">
         <f>(D14*100)/D4</f>
         <v>5.7803468208092488</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
+      <c r="A15" s="19"/>
       <c r="B15" t="s">
         <v>23</v>
       </c>
@@ -9979,13 +9990,13 @@
       <c r="J15">
         <v>58.63</v>
       </c>
-      <c r="K15" s="29">
+      <c r="K15" s="16">
         <f>(D15*100)/D4</f>
         <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
+      <c r="A16" s="19"/>
       <c r="B16" t="s">
         <v>24</v>
       </c>
@@ -10013,13 +10024,13 @@
       <c r="J16">
         <v>65.180000000000007</v>
       </c>
-      <c r="K16" s="29">
+      <c r="K16" s="16">
         <f>(D16*100)/D4</f>
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
+      <c r="A17" s="19"/>
       <c r="B17" t="s">
         <v>25</v>
       </c>
@@ -10047,13 +10058,13 @@
       <c r="J17">
         <v>63.99</v>
       </c>
-      <c r="K17" s="29">
+      <c r="K17" s="16">
         <f>(D17*100)/D4</f>
         <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
+      <c r="A18" s="19"/>
       <c r="B18" t="s">
         <v>26</v>
       </c>
@@ -10081,13 +10092,13 @@
       <c r="J18">
         <v>66.069999999999993</v>
       </c>
-      <c r="K18" s="29">
+      <c r="K18" s="16">
         <f>(D18*100)/D4</f>
         <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
+      <c r="A19" s="19"/>
       <c r="B19" t="s">
         <v>27</v>
       </c>
@@ -10115,13 +10126,13 @@
       <c r="J19">
         <v>64.58</v>
       </c>
-      <c r="K19" s="29">
+      <c r="K19" s="16">
         <f>(D19*100)/D4</f>
         <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
+      <c r="A20" s="19"/>
       <c r="B20" t="s">
         <v>28</v>
       </c>
@@ -10149,13 +10160,13 @@
       <c r="J20">
         <v>64.88</v>
       </c>
-      <c r="K20" s="29">
+      <c r="K20" s="16">
         <f>(D20*100)/D4</f>
         <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="16"/>
+      <c r="A21" s="19"/>
       <c r="B21" t="s">
         <v>29</v>
       </c>
@@ -10183,13 +10194,13 @@
       <c r="J21">
         <v>65.77</v>
       </c>
-      <c r="K21" s="29">
+      <c r="K21" s="16">
         <f>(D21*100)/D4</f>
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
+      <c r="A22" s="19"/>
       <c r="B22" t="s">
         <v>30</v>
       </c>
@@ -10217,13 +10228,13 @@
       <c r="J22">
         <v>56.55</v>
       </c>
-      <c r="K22" s="29">
+      <c r="K22" s="16">
         <f>(D22*100)/D4</f>
         <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="16"/>
+      <c r="A23" s="19"/>
       <c r="B23" t="s">
         <v>31</v>
       </c>
@@ -10251,13 +10262,13 @@
       <c r="J23">
         <v>55.65</v>
       </c>
-      <c r="K23" s="29">
+      <c r="K23" s="16">
         <f>(D23*100)/D4</f>
         <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="16"/>
+      <c r="A24" s="19"/>
       <c r="B24" t="s">
         <v>32</v>
       </c>
@@ -10285,13 +10296,13 @@
       <c r="J24">
         <v>61.9</v>
       </c>
-      <c r="K24" s="29">
+      <c r="K24" s="16">
         <f>(D24*100)/D4</f>
         <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="20" t="s">
         <v>54</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -10321,13 +10332,13 @@
       <c r="J25" s="2">
         <v>61.39</v>
       </c>
-      <c r="K25" s="31">
+      <c r="K25" s="18">
         <f>(D25*100)/D25</f>
         <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
+      <c r="A26" s="21"/>
       <c r="B26" t="s">
         <v>34</v>
       </c>
@@ -10355,13 +10366,13 @@
       <c r="J26">
         <v>69.959999999999994</v>
       </c>
-      <c r="K26" s="29">
+      <c r="K26" s="16">
         <f>(D26*100)/D25</f>
         <v>60.052219321148826</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="18"/>
+      <c r="A27" s="21"/>
       <c r="B27" t="s">
         <v>35</v>
       </c>
@@ -10389,13 +10400,13 @@
       <c r="J27">
         <v>60.53</v>
       </c>
-      <c r="K27" s="29">
+      <c r="K27" s="16">
         <f>(D27*100)/D25</f>
         <v>40.208877284595303</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="18"/>
+      <c r="A28" s="21"/>
       <c r="B28" t="s">
         <v>36</v>
       </c>
@@ -10423,13 +10434,13 @@
       <c r="J28">
         <v>60.36</v>
       </c>
-      <c r="K28" s="29">
+      <c r="K28" s="16">
         <f>(D28*100)/D25</f>
         <v>29.242819843342037</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="18"/>
+      <c r="A29" s="21"/>
       <c r="B29" t="s">
         <v>37</v>
       </c>
@@ -10457,13 +10468,13 @@
       <c r="J29">
         <v>49.37</v>
       </c>
-      <c r="K29" s="29">
+      <c r="K29" s="16">
         <f>(D29*100)/D25</f>
         <v>20.887728459530027</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
+      <c r="A30" s="21"/>
       <c r="B30" t="s">
         <v>38</v>
       </c>
@@ -10491,13 +10502,13 @@
       <c r="J30">
         <v>38.57</v>
       </c>
-      <c r="K30" s="29">
+      <c r="K30" s="16">
         <f>(D30*100)/D25</f>
         <v>18.5378590078329</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="18"/>
+      <c r="A31" s="21"/>
       <c r="B31" t="s">
         <v>39</v>
       </c>
@@ -10525,13 +10536,13 @@
       <c r="J31">
         <v>29.03</v>
       </c>
-      <c r="K31" s="29">
+      <c r="K31" s="16">
         <f>(D31*100)/D25</f>
         <v>16.449086161879894</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
+      <c r="A32" s="21"/>
       <c r="B32" t="s">
         <v>40</v>
       </c>
@@ -10559,13 +10570,13 @@
       <c r="J32">
         <v>25.86</v>
       </c>
-      <c r="K32" s="29">
+      <c r="K32" s="16">
         <f>(D32*100)/D25</f>
         <v>15.404699738903394</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="18"/>
+      <c r="A33" s="21"/>
       <c r="B33" t="s">
         <v>41</v>
       </c>
@@ -10593,13 +10604,13 @@
       <c r="J33">
         <v>15</v>
       </c>
-      <c r="K33" s="29">
+      <c r="K33" s="16">
         <f>(D33*100)/D25</f>
         <v>10.704960835509139</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="18"/>
+      <c r="A34" s="21"/>
       <c r="B34" t="s">
         <v>42</v>
       </c>
@@ -10627,13 +10638,13 @@
       <c r="J34">
         <v>11.43</v>
       </c>
-      <c r="K34" s="29">
+      <c r="K34" s="16">
         <f>(D34*100)/D25</f>
         <v>9.3994778067885125</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="18"/>
+      <c r="A35" s="21"/>
       <c r="B35" t="s">
         <v>43</v>
       </c>
@@ -10661,13 +10672,13 @@
       <c r="J35">
         <v>6.45</v>
       </c>
-      <c r="K35" s="29">
+      <c r="K35" s="16">
         <f>(D35*100)/D25</f>
         <v>8.3550913838120113</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="18"/>
+      <c r="A36" s="21"/>
       <c r="B36" t="s">
         <v>44</v>
       </c>
@@ -10695,13 +10706,13 @@
       <c r="J36">
         <v>63.35</v>
       </c>
-      <c r="K36" s="29">
+      <c r="K36" s="16">
         <f>(D36*100)/D25</f>
         <v>102.61096605744126</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="18"/>
+      <c r="A37" s="21"/>
       <c r="B37" t="s">
         <v>45</v>
       </c>
@@ -10729,13 +10740,13 @@
       <c r="J37">
         <v>60.85</v>
       </c>
-      <c r="K37" s="29">
+      <c r="K37" s="16">
         <f>(D37*100)/D25</f>
         <v>101.56657963446476</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="18"/>
+      <c r="A38" s="21"/>
       <c r="B38" t="s">
         <v>46</v>
       </c>
@@ -10763,13 +10774,13 @@
       <c r="J38">
         <v>61.97</v>
       </c>
-      <c r="K38" s="29">
+      <c r="K38" s="16">
         <f>(D38*100)/D25</f>
         <v>100.78328981723237</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="18"/>
+      <c r="A39" s="21"/>
       <c r="B39" t="s">
         <v>47</v>
       </c>
@@ -10797,13 +10808,13 @@
       <c r="J39">
         <v>59.04</v>
       </c>
-      <c r="K39" s="29">
+      <c r="K39" s="16">
         <f>(D39*100)/D25</f>
         <v>100.78328981723237</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="18"/>
+      <c r="A40" s="21"/>
       <c r="B40" t="s">
         <v>48</v>
       </c>
@@ -10831,13 +10842,13 @@
       <c r="J40">
         <v>61.87</v>
       </c>
-      <c r="K40" s="29">
+      <c r="K40" s="16">
         <f>(D40*100)/D25</f>
         <v>100.52219321148826</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="18"/>
+      <c r="A41" s="21"/>
       <c r="B41" t="s">
         <v>49</v>
       </c>
@@ -10865,13 +10876,13 @@
       <c r="J41">
         <v>61.5</v>
       </c>
-      <c r="K41" s="29">
+      <c r="K41" s="16">
         <f>(D41*100)/D25</f>
         <v>100.26109660574413</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="18"/>
+      <c r="A42" s="21"/>
       <c r="B42" t="s">
         <v>50</v>
       </c>
@@ -10899,13 +10910,13 @@
       <c r="J42">
         <v>61.5</v>
       </c>
-      <c r="K42" s="29">
+      <c r="K42" s="16">
         <f>(D42*100)/D25</f>
         <v>100.26109660574413</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="18"/>
+      <c r="A43" s="21"/>
       <c r="B43" t="s">
         <v>51</v>
       </c>
@@ -10933,13 +10944,13 @@
       <c r="J43">
         <v>60.32</v>
       </c>
-      <c r="K43" s="29">
+      <c r="K43" s="16">
         <f>(D43*100)/D25</f>
         <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="18"/>
+      <c r="A44" s="21"/>
       <c r="B44" t="s">
         <v>52</v>
       </c>
@@ -10967,13 +10978,13 @@
       <c r="J44">
         <v>60.32</v>
       </c>
-      <c r="K44" s="29">
+      <c r="K44" s="16">
         <f>(D44*100)/D25</f>
         <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="18"/>
+      <c r="A45" s="21"/>
       <c r="B45" t="s">
         <v>53</v>
       </c>
@@ -11001,13 +11012,13 @@
       <c r="J45">
         <v>61.93</v>
       </c>
-      <c r="K45" s="29">
+      <c r="K45" s="16">
         <f>(D45*100)/D25</f>
         <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="27" t="s">
         <v>78</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -11037,13 +11048,13 @@
       <c r="J46" s="2">
         <v>43.51</v>
       </c>
-      <c r="K46" s="31">
+      <c r="K46" s="18">
         <f>(D46*100)/D46</f>
         <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="25"/>
+      <c r="A47" s="28"/>
       <c r="B47" t="s">
         <v>62</v>
       </c>
@@ -11071,13 +11082,13 @@
       <c r="J47">
         <v>46.92</v>
       </c>
-      <c r="K47" s="29">
+      <c r="K47" s="16">
         <f>(D47*100)/D46</f>
         <v>34.973024436686764</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="25"/>
+      <c r="A48" s="28"/>
       <c r="B48" t="s">
         <v>63</v>
       </c>
@@ -11105,13 +11116,13 @@
       <c r="J48">
         <v>48.53</v>
       </c>
-      <c r="K48" s="29">
+      <c r="K48" s="16">
         <f>(D48*100)/D46</f>
         <v>31.609013011742302</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="25"/>
+      <c r="A49" s="28"/>
       <c r="B49" t="s">
         <v>64</v>
       </c>
@@ -11139,13 +11150,13 @@
       <c r="J49">
         <v>50.67</v>
       </c>
-      <c r="K49" s="29">
+      <c r="K49" s="16">
         <f>(D49*100)/D46</f>
         <v>28.78451285306252</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="25"/>
+      <c r="A50" s="28"/>
       <c r="B50" t="s">
         <v>65</v>
       </c>
@@ -11173,13 +11184,13 @@
       <c r="J50">
         <v>49.14</v>
       </c>
-      <c r="K50" s="29">
+      <c r="K50" s="16">
         <f>(D50*100)/D46</f>
         <v>20.564900031735956</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="25"/>
+      <c r="A51" s="28"/>
       <c r="B51" t="s">
         <v>66</v>
       </c>
@@ -11207,13 +11218,13 @@
       <c r="J51">
         <v>49.6</v>
       </c>
-      <c r="K51" s="29">
+      <c r="K51" s="16">
         <f>(D51*100)/D46</f>
         <v>20.120596635988576</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="25"/>
+      <c r="A52" s="28"/>
       <c r="B52" t="s">
         <v>57</v>
       </c>
@@ -11241,13 +11252,13 @@
       <c r="J52">
         <v>47.99</v>
       </c>
-      <c r="K52" s="29">
+      <c r="K52" s="16">
         <f>(D52*100)/D46</f>
         <v>19.136781973976515</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="25"/>
+      <c r="A53" s="28"/>
       <c r="B53" t="s">
         <v>58</v>
       </c>
@@ -11275,13 +11286,13 @@
       <c r="J53">
         <v>39.69</v>
       </c>
-      <c r="K53" s="29">
+      <c r="K53" s="16">
         <f>(D53*100)/D46</f>
         <v>8.3782926055220557</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="25"/>
+      <c r="A54" s="28"/>
       <c r="B54" t="s">
         <v>59</v>
       </c>
@@ -11309,13 +11320,13 @@
       <c r="J54">
         <v>38.1</v>
       </c>
-      <c r="K54" s="29">
+      <c r="K54" s="16">
         <f>(D54*100)/D46</f>
         <v>8.2196128213265638</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="25"/>
+      <c r="A55" s="28"/>
       <c r="B55" t="s">
         <v>60</v>
       </c>
@@ -11343,13 +11354,13 @@
       <c r="J55">
         <v>35.42</v>
       </c>
-      <c r="K55" s="29">
+      <c r="K55" s="16">
         <f>(D55*100)/D46</f>
         <v>7.8387813392573786</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="25"/>
+      <c r="A56" s="28"/>
       <c r="B56" t="s">
         <v>61</v>
       </c>
@@ -11377,13 +11388,13 @@
       <c r="J56">
         <v>32.799999999999997</v>
       </c>
-      <c r="K56" s="29">
+      <c r="K56" s="16">
         <f>(D56*100)/D46</f>
         <v>6.1885115836242459</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="25"/>
+      <c r="A57" s="28"/>
       <c r="B57" t="s">
         <v>67</v>
       </c>
@@ -11411,13 +11422,13 @@
       <c r="J57">
         <v>39.08</v>
       </c>
-      <c r="K57" s="29">
+      <c r="K57" s="16">
         <f>(D57*100)/D46</f>
         <v>100.50777530942558</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="25"/>
+      <c r="A58" s="28"/>
       <c r="B58" t="s">
         <v>68</v>
       </c>
@@ -11445,13 +11456,13 @@
       <c r="J58">
         <v>41.01</v>
       </c>
-      <c r="K58" s="29">
+      <c r="K58" s="16">
         <f>(D58*100)/D46</f>
         <v>100.47603935258648</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="25"/>
+      <c r="A59" s="28"/>
       <c r="B59" t="s">
         <v>69</v>
       </c>
@@ -11479,13 +11490,13 @@
       <c r="J59">
         <v>40.5</v>
       </c>
-      <c r="K59" s="29">
+      <c r="K59" s="16">
         <f>(D59*100)/D46</f>
         <v>100.47603935258648</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="25"/>
+      <c r="A60" s="28"/>
       <c r="B60" t="s">
         <v>70</v>
       </c>
@@ -11513,13 +11524,13 @@
       <c r="J60">
         <v>39.47</v>
       </c>
-      <c r="K60" s="29">
+      <c r="K60" s="16">
         <f>(D60*100)/D46</f>
         <v>100.41256743890828</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="25"/>
+      <c r="A61" s="28"/>
       <c r="B61" t="s">
         <v>71</v>
       </c>
@@ -11547,13 +11558,13 @@
       <c r="J61">
         <v>38.61</v>
       </c>
-      <c r="K61" s="29">
+      <c r="K61" s="16">
         <f>(D61*100)/D46</f>
         <v>100.41256743890828</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="25"/>
+      <c r="A62" s="28"/>
       <c r="B62" t="s">
         <v>72</v>
       </c>
@@ -11581,13 +11592,13 @@
       <c r="J62">
         <v>40.17</v>
       </c>
-      <c r="K62" s="29">
+      <c r="K62" s="16">
         <f>(D62*100)/D46</f>
         <v>100.41256743890828</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="25"/>
+      <c r="A63" s="28"/>
       <c r="B63" t="s">
         <v>73</v>
       </c>
@@ -11615,13 +11626,13 @@
       <c r="J63">
         <v>41.05</v>
       </c>
-      <c r="K63" s="29">
+      <c r="K63" s="16">
         <f>(D63*100)/D46</f>
         <v>100.28562361155188</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="25"/>
+      <c r="A64" s="28"/>
       <c r="B64" t="s">
         <v>74</v>
       </c>
@@ -11649,13 +11660,13 @@
       <c r="J64">
         <v>40.86</v>
       </c>
-      <c r="K64" s="29">
+      <c r="K64" s="16">
         <f>(D64*100)/D46</f>
         <v>100.28562361155188</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="25"/>
+      <c r="A65" s="28"/>
       <c r="B65" t="s">
         <v>75</v>
       </c>
@@ -11683,13 +11694,13 @@
       <c r="J65">
         <v>41.28</v>
       </c>
-      <c r="K65" s="29">
+      <c r="K65" s="16">
         <f>(D65*100)/D46</f>
         <v>100.28562361155188</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="25"/>
+      <c r="A66" s="28"/>
       <c r="B66" t="s">
         <v>76</v>
       </c>
@@ -11717,7 +11728,7 @@
       <c r="J66">
         <v>40.75</v>
       </c>
-      <c r="K66" s="29">
+      <c r="K66" s="16">
         <f>(D66*100)/D46</f>
         <v>100.25388765471278</v>
       </c>
@@ -11737,6 +11748,2232 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B308B4-08CB-4AD8-A9F9-33FC33F84E54}">
+  <dimension ref="A1:K66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="32.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="22"/>
+      <c r="G1" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="29"/>
+      <c r="K1" s="16"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E2" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="31"/>
+      <c r="K2" s="16"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C3" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>517</v>
+      </c>
+      <c r="E4">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F4">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="G4">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="H4">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="I4">
+        <v>163</v>
+      </c>
+      <c r="J4">
+        <v>67.790000000000006</v>
+      </c>
+      <c r="K4" s="16">
+        <f>(D4*100)/D4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="19"/>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>55</v>
+      </c>
+      <c r="D5">
+        <v>320</v>
+      </c>
+      <c r="E5">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="F5">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="G5">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="H5">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="I5">
+        <v>93</v>
+      </c>
+      <c r="J5">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="K5" s="16">
+        <f>(D5*100)/D4</f>
+        <v>61.895551257253388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="19"/>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>53</v>
+      </c>
+      <c r="D6">
+        <v>215</v>
+      </c>
+      <c r="E6">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="F6">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="G6">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="H6">
+        <v>0.497</v>
+      </c>
+      <c r="I6">
+        <v>63</v>
+      </c>
+      <c r="J6">
+        <v>69.709999999999994</v>
+      </c>
+      <c r="K6" s="16">
+        <f>(D6*100)/D4</f>
+        <v>41.586073500967117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="19"/>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>44</v>
+      </c>
+      <c r="D7">
+        <v>174</v>
+      </c>
+      <c r="E7">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="F7">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="G7">
+        <v>0.873</v>
+      </c>
+      <c r="H7">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="I7">
+        <v>46</v>
+      </c>
+      <c r="J7">
+        <v>72.62</v>
+      </c>
+      <c r="K7" s="16">
+        <f>(D7*100)/D4</f>
+        <v>33.65570599613153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="19"/>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>40</v>
+      </c>
+      <c r="D8">
+        <v>152</v>
+      </c>
+      <c r="E8">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="F8">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="G8">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="H8">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="I8">
+        <v>42</v>
+      </c>
+      <c r="J8">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="K8" s="16">
+        <f>(D8*100)/D4</f>
+        <v>29.400386847195357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="19"/>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>35</v>
+      </c>
+      <c r="D9">
+        <v>138</v>
+      </c>
+      <c r="E9">
+        <v>0.625</v>
+      </c>
+      <c r="F9">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="G9">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="H9">
+        <v>0.61</v>
+      </c>
+      <c r="I9">
+        <v>34</v>
+      </c>
+      <c r="J9">
+        <v>74.44</v>
+      </c>
+      <c r="K9" s="16">
+        <f>(D9*100)/D4</f>
+        <v>26.692456479690524</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="19"/>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>34</v>
+      </c>
+      <c r="D10">
+        <v>120</v>
+      </c>
+      <c r="E10">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="F10">
+        <v>0.24</v>
+      </c>
+      <c r="G10">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="H10">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="I10">
+        <v>32</v>
+      </c>
+      <c r="J10">
+        <v>72.17</v>
+      </c>
+      <c r="K10" s="16">
+        <f>(D10*100)/D4</f>
+        <v>23.210831721470019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="19"/>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11">
+        <v>32</v>
+      </c>
+      <c r="D11">
+        <v>106</v>
+      </c>
+      <c r="E11">
+        <v>0.61</v>
+      </c>
+      <c r="F11">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="G11">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="H11">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="I11">
+        <v>28</v>
+      </c>
+      <c r="J11">
+        <v>72.55</v>
+      </c>
+      <c r="K11" s="16">
+        <f>(D11*100)/D4</f>
+        <v>20.502901353965182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="19"/>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>29</v>
+      </c>
+      <c r="D12">
+        <v>92</v>
+      </c>
+      <c r="E12">
+        <v>0.61</v>
+      </c>
+      <c r="F12">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="G12">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="H12">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="I12">
+        <v>27</v>
+      </c>
+      <c r="J12">
+        <v>70</v>
+      </c>
+      <c r="K12" s="16">
+        <f>(D12*100)/D4</f>
+        <v>17.794970986460349</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="19"/>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>79</v>
+      </c>
+      <c r="E13">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="F13">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="G13">
+        <v>0.75</v>
+      </c>
+      <c r="H13">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="I13">
+        <v>22</v>
+      </c>
+      <c r="J13">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="K13" s="16">
+        <f>(D13*100)/D4</f>
+        <v>15.28046421663443</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="19"/>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14">
+        <v>19</v>
+      </c>
+      <c r="D14">
+        <v>64</v>
+      </c>
+      <c r="E14">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="F14">
+        <v>0.121</v>
+      </c>
+      <c r="G14">
+        <v>0.7</v>
+      </c>
+      <c r="H14">
+        <v>0.375</v>
+      </c>
+      <c r="I14">
+        <v>17</v>
+      </c>
+      <c r="J14">
+        <v>72.58</v>
+      </c>
+      <c r="K14" s="16">
+        <f>(D14*100)/D4</f>
+        <v>12.379110251450676</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="19"/>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>517</v>
+      </c>
+      <c r="E15">
+        <v>0.253</v>
+      </c>
+      <c r="F15">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G15">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="H15">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="I15">
+        <v>172</v>
+      </c>
+      <c r="J15">
+        <v>66.010000000000005</v>
+      </c>
+      <c r="K15" s="16">
+        <f>(D15*100)/D4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="19"/>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>517</v>
+      </c>
+      <c r="E16">
+        <v>0.24</v>
+      </c>
+      <c r="F16">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="G16">
+        <v>0.621</v>
+      </c>
+      <c r="H16">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="I16">
+        <v>160</v>
+      </c>
+      <c r="J16">
+        <v>68.38</v>
+      </c>
+      <c r="K16" s="16">
+        <f>(D16*100)/D4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="19"/>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>517</v>
+      </c>
+      <c r="E17">
+        <v>0.23</v>
+      </c>
+      <c r="F17">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="G17">
+        <v>0.626</v>
+      </c>
+      <c r="H17">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="I17">
+        <v>188</v>
+      </c>
+      <c r="J17">
+        <v>62.85</v>
+      </c>
+      <c r="K17" s="16">
+        <f>(D17*100)/D4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="19"/>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18">
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <v>517</v>
+      </c>
+      <c r="E18">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="F18">
+        <v>0.22</v>
+      </c>
+      <c r="G18">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="H18">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="I18">
+        <v>168</v>
+      </c>
+      <c r="J18">
+        <v>66.8</v>
+      </c>
+      <c r="K18" s="16">
+        <f>(D18*100)/D4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="19"/>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19">
+        <v>14</v>
+      </c>
+      <c r="D19">
+        <v>517</v>
+      </c>
+      <c r="E19">
+        <v>0.217</v>
+      </c>
+      <c r="F19">
+        <v>0.22</v>
+      </c>
+      <c r="G19">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="H19">
+        <v>0.377</v>
+      </c>
+      <c r="I19">
+        <v>152</v>
+      </c>
+      <c r="J19">
+        <v>69.959999999999994</v>
+      </c>
+      <c r="K19" s="16">
+        <f>(D19*100)/D4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="19"/>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20">
+        <v>17</v>
+      </c>
+      <c r="D20">
+        <v>517</v>
+      </c>
+      <c r="E20">
+        <v>0.308</v>
+      </c>
+      <c r="F20">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="G20">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="H20">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="I20">
+        <v>148</v>
+      </c>
+      <c r="J20">
+        <v>70.75</v>
+      </c>
+      <c r="K20" s="16">
+        <f>(D20*100)/D4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="19"/>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21">
+        <v>16</v>
+      </c>
+      <c r="D21">
+        <v>517</v>
+      </c>
+      <c r="E21">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="F21">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="G21">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="H21">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="I21">
+        <v>148</v>
+      </c>
+      <c r="J21">
+        <v>70.75</v>
+      </c>
+      <c r="K21" s="16">
+        <f>(D21*100)/D4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="19"/>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22">
+        <v>16</v>
+      </c>
+      <c r="D22">
+        <v>517</v>
+      </c>
+      <c r="E22">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="F22">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="G22">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="H22">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="I22">
+        <v>166</v>
+      </c>
+      <c r="J22">
+        <v>67.19</v>
+      </c>
+      <c r="K22" s="16">
+        <f>(D22*100)/D4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="19"/>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23">
+        <v>17</v>
+      </c>
+      <c r="D23">
+        <v>517</v>
+      </c>
+      <c r="E23">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="F23">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="G23">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="H23">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="I23">
+        <v>155</v>
+      </c>
+      <c r="J23">
+        <v>69.37</v>
+      </c>
+      <c r="K23" s="16">
+        <f>(D23*100)/D4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="19"/>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24">
+        <v>17</v>
+      </c>
+      <c r="D24">
+        <v>517</v>
+      </c>
+      <c r="E24">
+        <v>0.3</v>
+      </c>
+      <c r="F24">
+        <v>0.2</v>
+      </c>
+      <c r="G24">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="H24">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="I24">
+        <v>165</v>
+      </c>
+      <c r="J24">
+        <v>67.39</v>
+      </c>
+      <c r="K24" s="16">
+        <f>(D24*100)/D4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="2">
+        <v>29</v>
+      </c>
+      <c r="D25" s="2">
+        <v>662</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="F25" s="2">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="I25" s="2">
+        <v>222</v>
+      </c>
+      <c r="J25" s="2">
+        <v>65.63</v>
+      </c>
+      <c r="K25" s="18">
+        <f>(D25*100)/D25</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="21"/>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26">
+        <v>38</v>
+      </c>
+      <c r="D26">
+        <v>415</v>
+      </c>
+      <c r="E26">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="F26">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="G26">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="H26">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="I26">
+        <v>91</v>
+      </c>
+      <c r="J26">
+        <v>77.36</v>
+      </c>
+      <c r="K26" s="16">
+        <f>(D26*100)/D25</f>
+        <v>62.688821752265859</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="21"/>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27">
+        <v>44</v>
+      </c>
+      <c r="D27">
+        <v>308</v>
+      </c>
+      <c r="E27">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="F27">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="G27">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="H27">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="I27">
+        <v>77</v>
+      </c>
+      <c r="J27">
+        <v>74.16</v>
+      </c>
+      <c r="K27" s="16">
+        <f>(D27*100)/D25</f>
+        <v>46.525679758308158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="21"/>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28">
+        <v>45</v>
+      </c>
+      <c r="D28">
+        <v>250</v>
+      </c>
+      <c r="E28">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="F28">
+        <v>0.189</v>
+      </c>
+      <c r="G28">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="H28">
+        <v>0.749</v>
+      </c>
+      <c r="I28">
+        <v>60</v>
+      </c>
+      <c r="J28">
+        <v>75.41</v>
+      </c>
+      <c r="K28" s="16">
+        <f>(D28*100)/D25</f>
+        <v>37.764350453172206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="21"/>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29">
+        <v>41</v>
+      </c>
+      <c r="D29">
+        <v>209</v>
+      </c>
+      <c r="E29">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="F29">
+        <v>0.254</v>
+      </c>
+      <c r="G29">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="H29">
+        <v>0.76</v>
+      </c>
+      <c r="I29">
+        <v>44</v>
+      </c>
+      <c r="J29">
+        <v>78.33</v>
+      </c>
+      <c r="K29" s="16">
+        <f>(D29*100)/D25</f>
+        <v>31.570996978851962</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="21"/>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30">
+        <v>44</v>
+      </c>
+      <c r="D30">
+        <v>199</v>
+      </c>
+      <c r="E30">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="F30">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="G30">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="H30">
+        <v>0.746</v>
+      </c>
+      <c r="I30">
+        <v>44</v>
+      </c>
+      <c r="J30">
+        <v>77.319999999999993</v>
+      </c>
+      <c r="K30" s="16">
+        <f>(D30*100)/D25</f>
+        <v>30.060422960725077</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="21"/>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31">
+        <v>45</v>
+      </c>
+      <c r="D31">
+        <v>178</v>
+      </c>
+      <c r="E31">
+        <v>0.627</v>
+      </c>
+      <c r="F31">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="G31">
+        <v>0.871</v>
+      </c>
+      <c r="H31">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="I31">
+        <v>46</v>
+      </c>
+      <c r="J31">
+        <v>73.56</v>
+      </c>
+      <c r="K31" s="16">
+        <f>(D31*100)/D25</f>
+        <v>26.888217522658611</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="21"/>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32">
+        <v>44</v>
+      </c>
+      <c r="D32">
+        <v>165</v>
+      </c>
+      <c r="E32">
+        <v>0.62</v>
+      </c>
+      <c r="F32">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="G32">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="H32">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="I32">
+        <v>44</v>
+      </c>
+      <c r="J32">
+        <v>72.67</v>
+      </c>
+      <c r="K32" s="16">
+        <f>(D32*100)/D25</f>
+        <v>24.924471299093657</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="21"/>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33">
+        <v>36</v>
+      </c>
+      <c r="D33">
+        <v>127</v>
+      </c>
+      <c r="E33">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="F33">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="G33">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="H33">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="I33">
+        <v>34</v>
+      </c>
+      <c r="J33">
+        <v>72.36</v>
+      </c>
+      <c r="K33" s="16">
+        <f>(D33*100)/D25</f>
+        <v>19.184290030211482</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="21"/>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34">
+        <v>32</v>
+      </c>
+      <c r="D34">
+        <v>116</v>
+      </c>
+      <c r="E34">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="F34">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="G34">
+        <v>0.84</v>
+      </c>
+      <c r="H34">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="I34">
+        <v>30</v>
+      </c>
+      <c r="J34">
+        <v>73.209999999999994</v>
+      </c>
+      <c r="K34" s="16">
+        <f>(D34*100)/D25</f>
+        <v>17.522658610271904</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="21"/>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35">
+        <v>30</v>
+      </c>
+      <c r="D35">
+        <v>110</v>
+      </c>
+      <c r="E35">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="F35">
+        <v>0.24</v>
+      </c>
+      <c r="G35">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="H35">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="I35">
+        <v>28</v>
+      </c>
+      <c r="J35">
+        <v>73.58</v>
+      </c>
+      <c r="K35" s="16">
+        <f>(D35*100)/D25</f>
+        <v>16.61631419939577</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="21"/>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36">
+        <v>25</v>
+      </c>
+      <c r="D36">
+        <v>671</v>
+      </c>
+      <c r="E36">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="F36">
+        <v>0.221</v>
+      </c>
+      <c r="G36">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="H36">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="I36">
+        <v>224</v>
+      </c>
+      <c r="J36">
+        <v>65.8</v>
+      </c>
+      <c r="K36" s="16">
+        <f>(D36*100)/D25</f>
+        <v>101.3595166163142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="21"/>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37">
+        <v>31</v>
+      </c>
+      <c r="D37">
+        <v>667</v>
+      </c>
+      <c r="E37">
+        <v>0.377</v>
+      </c>
+      <c r="F37">
+        <v>0.159</v>
+      </c>
+      <c r="G37">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="H37">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="I37">
+        <v>224</v>
+      </c>
+      <c r="J37">
+        <v>65.59</v>
+      </c>
+      <c r="K37" s="16">
+        <f>(D37*100)/D25</f>
+        <v>100.75528700906344</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="21"/>
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38">
+        <v>29</v>
+      </c>
+      <c r="D38">
+        <v>663</v>
+      </c>
+      <c r="E38">
+        <v>0.372</v>
+      </c>
+      <c r="F38">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="G38">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="H38">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="I38">
+        <v>228</v>
+      </c>
+      <c r="J38">
+        <v>64.760000000000005</v>
+      </c>
+      <c r="K38" s="16">
+        <f>(D38*100)/D25</f>
+        <v>100.15105740181269</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="21"/>
+      <c r="B39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39">
+        <v>28</v>
+      </c>
+      <c r="D39">
+        <v>663</v>
+      </c>
+      <c r="E39">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="F39">
+        <v>0.123</v>
+      </c>
+      <c r="G39">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="H39">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="I39">
+        <v>227</v>
+      </c>
+      <c r="J39">
+        <v>64.91</v>
+      </c>
+      <c r="K39" s="16">
+        <f>(D39*100)/D25</f>
+        <v>100.15105740181269</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="21"/>
+      <c r="B40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40">
+        <v>30</v>
+      </c>
+      <c r="D40">
+        <v>663</v>
+      </c>
+      <c r="E40">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="F40">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="G40">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="H40">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="I40">
+        <v>230</v>
+      </c>
+      <c r="J40">
+        <v>64.45</v>
+      </c>
+      <c r="K40" s="16">
+        <f>(D40*100)/D25</f>
+        <v>100.15105740181269</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="21"/>
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41">
+        <v>27</v>
+      </c>
+      <c r="D41">
+        <v>663</v>
+      </c>
+      <c r="E41">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="F41">
+        <v>0.104</v>
+      </c>
+      <c r="G41">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="H41">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="I41">
+        <v>218</v>
+      </c>
+      <c r="J41">
+        <v>66.31</v>
+      </c>
+      <c r="K41" s="16">
+        <f>(D41*100)/D25</f>
+        <v>100.15105740181269</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="21"/>
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42">
+        <v>28</v>
+      </c>
+      <c r="D42">
+        <v>663</v>
+      </c>
+      <c r="E42">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="F42">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="G42">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="H42">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="I42">
+        <v>218</v>
+      </c>
+      <c r="J42">
+        <v>66.31</v>
+      </c>
+      <c r="K42" s="16">
+        <f>(D42*100)/D25</f>
+        <v>100.15105740181269</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="21"/>
+      <c r="B43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43">
+        <v>30</v>
+      </c>
+      <c r="D43">
+        <v>662</v>
+      </c>
+      <c r="E43">
+        <v>0.315</v>
+      </c>
+      <c r="F43">
+        <v>0.1</v>
+      </c>
+      <c r="G43">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="H43">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="I43">
+        <v>193</v>
+      </c>
+      <c r="J43">
+        <v>70.12</v>
+      </c>
+      <c r="K43" s="16">
+        <f>(D43*100)/D25</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="21"/>
+      <c r="B44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44">
+        <v>30</v>
+      </c>
+      <c r="D44">
+        <v>662</v>
+      </c>
+      <c r="E44">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="F44">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G44">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="H44">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="I44">
+        <v>203</v>
+      </c>
+      <c r="J44">
+        <v>68.58</v>
+      </c>
+      <c r="K44" s="16">
+        <f>(D44*100)/D25</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="21"/>
+      <c r="B45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45">
+        <v>30</v>
+      </c>
+      <c r="D45">
+        <v>662</v>
+      </c>
+      <c r="E45">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="F45">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G45">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="H45">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="I45">
+        <v>201</v>
+      </c>
+      <c r="J45">
+        <v>68.89</v>
+      </c>
+      <c r="K45" s="16">
+        <f>(D45*100)/D25</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="2">
+        <v>30</v>
+      </c>
+      <c r="D46" s="2">
+        <v>4414</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="F46" s="2">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="I46" s="2">
+        <v>2649</v>
+      </c>
+      <c r="J46" s="2">
+        <v>39.549999999999997</v>
+      </c>
+      <c r="K46" s="18">
+        <f>(D46*100)/D46</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="28"/>
+      <c r="B47" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47">
+        <v>47</v>
+      </c>
+      <c r="D47">
+        <v>1469</v>
+      </c>
+      <c r="E47">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="F47">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="G47">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="H47">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="I47">
+        <v>821</v>
+      </c>
+      <c r="J47">
+        <v>43.42</v>
+      </c>
+      <c r="K47" s="16">
+        <f>(D47*100)/D46</f>
+        <v>33.280471227911192</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="28"/>
+      <c r="B48" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48">
+        <v>64</v>
+      </c>
+      <c r="D48">
+        <v>1343</v>
+      </c>
+      <c r="E48">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="F48">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="G48">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="H48">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="I48">
+        <v>732</v>
+      </c>
+      <c r="J48">
+        <v>44.84</v>
+      </c>
+      <c r="K48" s="16">
+        <f>(D48*100)/D46</f>
+        <v>30.425917535115541</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="28"/>
+      <c r="B49" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49">
+        <v>63</v>
+      </c>
+      <c r="D49">
+        <v>1242</v>
+      </c>
+      <c r="E49">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="F49">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="G49">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="H49">
+        <v>0.41</v>
+      </c>
+      <c r="I49">
+        <v>688</v>
+      </c>
+      <c r="J49">
+        <v>43.93</v>
+      </c>
+      <c r="K49" s="16">
+        <f>(D49*100)/D46</f>
+        <v>28.137743543271409</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="28"/>
+      <c r="B50" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50">
+        <v>84</v>
+      </c>
+      <c r="D50">
+        <v>933</v>
+      </c>
+      <c r="E50">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="F50">
+        <v>0.154</v>
+      </c>
+      <c r="G50">
+        <v>0.879</v>
+      </c>
+      <c r="H50">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="I50">
+        <v>491</v>
+      </c>
+      <c r="J50">
+        <v>46.63</v>
+      </c>
+      <c r="K50" s="16">
+        <f>(D50*100)/D46</f>
+        <v>21.137290439510647</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="28"/>
+      <c r="B51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51">
+        <v>78</v>
+      </c>
+      <c r="D51">
+        <v>917</v>
+      </c>
+      <c r="E51">
+        <v>0.503</v>
+      </c>
+      <c r="F51">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="G51">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="H51">
+        <v>0.433</v>
+      </c>
+      <c r="I51">
+        <v>474</v>
+      </c>
+      <c r="J51">
+        <v>47.62</v>
+      </c>
+      <c r="K51" s="16">
+        <f>(D51*100)/D46</f>
+        <v>20.774807430901678</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="28"/>
+      <c r="B52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52">
+        <v>78</v>
+      </c>
+      <c r="D52">
+        <v>866</v>
+      </c>
+      <c r="E52">
+        <v>0.498</v>
+      </c>
+      <c r="F52">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="G52">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="H52">
+        <v>0.376</v>
+      </c>
+      <c r="I52">
+        <v>442</v>
+      </c>
+      <c r="J52">
+        <v>48.36</v>
+      </c>
+      <c r="K52" s="16">
+        <f>(D52*100)/D46</f>
+        <v>19.619392840960579</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="28"/>
+      <c r="B53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53">
+        <v>92</v>
+      </c>
+      <c r="D53">
+        <v>474</v>
+      </c>
+      <c r="E53">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="F53">
+        <v>0.188</v>
+      </c>
+      <c r="G53">
+        <v>0.91</v>
+      </c>
+      <c r="H53">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="I53">
+        <v>167</v>
+      </c>
+      <c r="J53">
+        <v>64.16</v>
+      </c>
+      <c r="K53" s="16">
+        <f>(D53*100)/D46</f>
+        <v>10.738559130040779</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="28"/>
+      <c r="B54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54">
+        <v>95</v>
+      </c>
+      <c r="D54">
+        <v>465</v>
+      </c>
+      <c r="E54">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="F54">
+        <v>0.187</v>
+      </c>
+      <c r="G54">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="H54">
+        <v>0.251</v>
+      </c>
+      <c r="I54">
+        <v>171</v>
+      </c>
+      <c r="J54">
+        <v>62.58</v>
+      </c>
+      <c r="K54" s="16">
+        <f>(D54*100)/D46</f>
+        <v>10.534662437698232</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="28"/>
+      <c r="B55" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55">
+        <v>96</v>
+      </c>
+      <c r="D55">
+        <v>447</v>
+      </c>
+      <c r="E55">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="F55">
+        <v>0.215</v>
+      </c>
+      <c r="G55">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="H55">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="I55">
+        <v>165</v>
+      </c>
+      <c r="J55">
+        <v>62.41</v>
+      </c>
+      <c r="K55" s="16">
+        <f>(D55*100)/D46</f>
+        <v>10.12686905301314</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="28"/>
+      <c r="B56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56">
+        <v>85</v>
+      </c>
+      <c r="D56">
+        <v>370</v>
+      </c>
+      <c r="E56">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F56">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="G56">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="H56">
+        <v>0.249</v>
+      </c>
+      <c r="I56">
+        <v>135</v>
+      </c>
+      <c r="J56">
+        <v>62.71</v>
+      </c>
+      <c r="K56" s="16">
+        <f>(D56*100)/D46</f>
+        <v>8.3824195740824656</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="28"/>
+      <c r="B57" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57">
+        <v>27</v>
+      </c>
+      <c r="D57">
+        <v>4432</v>
+      </c>
+      <c r="E57">
+        <v>0.155</v>
+      </c>
+      <c r="F57">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G57">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="H57">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="I57">
+        <v>2556</v>
+      </c>
+      <c r="J57">
+        <v>41.91</v>
+      </c>
+      <c r="K57" s="16">
+        <f>(D57*100)/D46</f>
+        <v>100.40779338468509</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="28"/>
+      <c r="B58" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58">
+        <v>27</v>
+      </c>
+      <c r="D58">
+        <v>4431</v>
+      </c>
+      <c r="E58">
+        <v>0.183</v>
+      </c>
+      <c r="F58">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="G58">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="H58">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="I58">
+        <v>2547</v>
+      </c>
+      <c r="J58">
+        <v>42.1</v>
+      </c>
+      <c r="K58" s="16">
+        <f>(D58*100)/D46</f>
+        <v>100.38513819664703</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="28"/>
+      <c r="B59" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59">
+        <v>27</v>
+      </c>
+      <c r="D59">
+        <v>4431</v>
+      </c>
+      <c r="E59">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="F59">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="G59">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="H59">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="I59">
+        <v>2584</v>
+      </c>
+      <c r="J59">
+        <v>41.26</v>
+      </c>
+      <c r="K59" s="16">
+        <f>(D59*100)/D46</f>
+        <v>100.38513819664703</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="28"/>
+      <c r="B60" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60">
+        <v>33</v>
+      </c>
+      <c r="D60">
+        <v>4429</v>
+      </c>
+      <c r="E60">
+        <v>0.193</v>
+      </c>
+      <c r="F60">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="G60">
+        <v>0.71</v>
+      </c>
+      <c r="H60">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="I60">
+        <v>2643</v>
+      </c>
+      <c r="J60">
+        <v>39.89</v>
+      </c>
+      <c r="K60" s="16">
+        <f>(D60*100)/D46</f>
+        <v>100.33982782057092</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="28"/>
+      <c r="B61" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61">
+        <v>30</v>
+      </c>
+      <c r="D61">
+        <v>4429</v>
+      </c>
+      <c r="E61">
+        <v>0.191</v>
+      </c>
+      <c r="F61">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="G61">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="H61">
+        <v>0.374</v>
+      </c>
+      <c r="I61">
+        <v>2670</v>
+      </c>
+      <c r="J61">
+        <v>39.28</v>
+      </c>
+      <c r="K61" s="16">
+        <f>(D61*100)/D46</f>
+        <v>100.33982782057092</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="28"/>
+      <c r="B62" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62">
+        <v>32</v>
+      </c>
+      <c r="D62">
+        <v>4429</v>
+      </c>
+      <c r="E62">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="F62">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="G62">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="H62">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="I62">
+        <v>2725</v>
+      </c>
+      <c r="J62">
+        <v>38.03</v>
+      </c>
+      <c r="K62" s="16">
+        <f>(D62*100)/D46</f>
+        <v>100.33982782057092</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="28"/>
+      <c r="B63" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63">
+        <v>34</v>
+      </c>
+      <c r="D63">
+        <v>4425</v>
+      </c>
+      <c r="E63">
+        <v>0.185</v>
+      </c>
+      <c r="F63">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G63">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="H63">
+        <v>0.375</v>
+      </c>
+      <c r="I63">
+        <v>2708</v>
+      </c>
+      <c r="J63">
+        <v>38.36</v>
+      </c>
+      <c r="K63" s="16">
+        <f>(D63*100)/D46</f>
+        <v>100.24920706841867</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="28"/>
+      <c r="B64" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64">
+        <v>29</v>
+      </c>
+      <c r="D64">
+        <v>4425</v>
+      </c>
+      <c r="E64">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="F64">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="G64">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="H64">
+        <v>0.373</v>
+      </c>
+      <c r="I64">
+        <v>2684</v>
+      </c>
+      <c r="J64">
+        <v>38.9</v>
+      </c>
+      <c r="K64" s="16">
+        <f>(D64*100)/D46</f>
+        <v>100.24920706841867</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="28"/>
+      <c r="B65" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65">
+        <v>39</v>
+      </c>
+      <c r="D65">
+        <v>4425</v>
+      </c>
+      <c r="E65">
+        <v>0.189</v>
+      </c>
+      <c r="F65">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="G65">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="H65">
+        <v>0.376</v>
+      </c>
+      <c r="I65">
+        <v>2612</v>
+      </c>
+      <c r="J65">
+        <v>40.54</v>
+      </c>
+      <c r="K65" s="16">
+        <f>(D65*100)/D46</f>
+        <v>100.24920706841867</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="28"/>
+      <c r="B66" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66">
+        <v>34</v>
+      </c>
+      <c r="D66">
+        <v>4424</v>
+      </c>
+      <c r="E66">
+        <v>0.156</v>
+      </c>
+      <c r="F66">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="G66">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="H66">
+        <v>0.374</v>
+      </c>
+      <c r="I66">
+        <v>2555</v>
+      </c>
+      <c r="J66">
+        <v>41.83</v>
+      </c>
+      <c r="K66" s="16">
+        <f>(D66*100)/D46</f>
+        <v>100.22655188038061</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A46:A66"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A4:A24"/>
+    <mergeCell ref="A25:A45"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{6006a9c5-d130-408c-bc8e-3b5ecdb17aa0}" enabled="1" method="Standard" siteId="{8d4b558f-7b2e-40ba-ad1f-e04d79e6265a}" contentBits="2" removed="0"/>
